--- a/03_Materials/finalize_stimuli/ar/ar_translated_final.xlsx
+++ b/03_Materials/finalize_stimuli/ar/ar_translated_final.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11113"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10211"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/erinbuchanan/GitHub/Research/2_projects/SPAML/SPAML-PSA/03_Materials/finalize_stimuli/ar/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C07F697-B97E-A34B-9F2C-52C4A1B59DAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D72796B0-5D37-D546-91E1-3E6DF889CCEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-25600" yWindow="-600" windowWidth="25600" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ar_translate" sheetId="1" r:id="rId1"/>
@@ -16205,9 +16205,6 @@
     <t>meter</t>
   </si>
   <si>
-    <t>متزوج \ متزوجة</t>
-  </si>
-  <si>
     <t>غير مرتبطة</t>
   </si>
   <si>
@@ -20631,13 +20628,16 @@
   </si>
   <si>
     <t>motive</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> متزوجة</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="28" x14ac:knownFonts="1">
+  <fonts count="29" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -20792,6 +20792,12 @@
       <family val="2"/>
       <scheme val="major"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="8">
     <fill>
@@ -20871,7 +20877,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -20977,6 +20983,7 @@
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -21344,9 +21351,9 @@
   </sheetPr>
   <dimension ref="A1:AD1001"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A429" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M436" sqref="M436"/>
+    <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A767" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A778" sqref="A778"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -21369,7 +21376,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>6862</v>
+        <v>6861</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>3</v>
@@ -21381,7 +21388,7 @@
         <v>5</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>6863</v>
+        <v>6862</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>6</v>
@@ -21405,7 +21412,7 @@
         <v>1842</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>6654</v>
+        <v>6653</v>
       </c>
     </row>
     <row r="2" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -21462,7 +21469,7 @@
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
       <c r="H3" s="1" t="str">
-        <f t="shared" ref="H3:H66" si="0">E3</f>
+        <f t="shared" ref="H3:H65" si="0">E3</f>
         <v>سر</v>
       </c>
       <c r="I3" s="1" t="s">
@@ -21487,7 +21494,7 @@
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1" t="str">
-        <f t="shared" ref="D3:D66" si="1">A4</f>
+        <f t="shared" ref="D4:D66" si="1">A4</f>
         <v>أخ</v>
       </c>
       <c r="E4" s="1" t="s">
@@ -22713,7 +22720,7 @@
         <v>265</v>
       </c>
       <c r="G37" s="5" t="s">
-        <v>6844</v>
+        <v>6843</v>
       </c>
       <c r="H37" s="1" t="str">
         <f>G37</f>
@@ -22734,7 +22741,7 @@
         <v>269</v>
       </c>
       <c r="P37" s="1" t="s">
-        <v>6654</v>
+        <v>6653</v>
       </c>
     </row>
     <row r="38" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -23278,7 +23285,7 @@
         <v>377</v>
       </c>
       <c r="G52" s="5" t="s">
-        <v>6845</v>
+        <v>6844</v>
       </c>
       <c r="H52" s="1" t="str">
         <f>G52</f>
@@ -23299,7 +23306,7 @@
         <v>381</v>
       </c>
       <c r="P52" s="1" t="s">
-        <v>6654</v>
+        <v>6653</v>
       </c>
     </row>
     <row r="53" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -23321,7 +23328,7 @@
         <v>383</v>
       </c>
       <c r="G53" s="5" t="s">
-        <v>6846</v>
+        <v>6845</v>
       </c>
       <c r="H53" s="1" t="str">
         <f t="shared" ref="H53" si="14">G53</f>
@@ -23344,7 +23351,7 @@
         <v>388</v>
       </c>
       <c r="P53" s="1" t="s">
-        <v>6654</v>
+        <v>6653</v>
       </c>
     </row>
     <row r="54" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -24138,7 +24145,7 @@
         <v>540</v>
       </c>
       <c r="G75" s="5" t="s">
-        <v>6847</v>
+        <v>6846</v>
       </c>
       <c r="H75" s="1" t="str">
         <f>G75</f>
@@ -24159,7 +24166,7 @@
         <v>545</v>
       </c>
       <c r="P75" s="1" t="s">
-        <v>6654</v>
+        <v>6653</v>
       </c>
     </row>
     <row r="76" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -24180,7 +24187,7 @@
       </c>
       <c r="G76" s="3"/>
       <c r="H76" s="1" t="str">
-        <f t="shared" ref="H75:H77" si="19">F76</f>
+        <f t="shared" ref="H76:H77" si="19">F76</f>
         <v>موت</v>
       </c>
       <c r="I76" s="1" t="s">
@@ -24432,7 +24439,7 @@
         <v>595</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>6848</v>
+        <v>6847</v>
       </c>
       <c r="G83" s="1"/>
       <c r="H83" s="1" t="str">
@@ -24454,7 +24461,7 @@
         <v>599</v>
       </c>
       <c r="P83" s="1" t="s">
-        <v>6654</v>
+        <v>6653</v>
       </c>
     </row>
     <row r="84" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -26214,7 +26221,7 @@
       <c r="B131" s="1"/>
       <c r="C131" s="1"/>
       <c r="D131" s="1" t="str">
-        <f t="shared" ref="D131:D194" si="29">A131</f>
+        <f t="shared" ref="D131:D193" si="29">A131</f>
         <v>البيسبول</v>
       </c>
       <c r="E131" s="1" t="s">
@@ -28582,7 +28589,7 @@
       <c r="B196" s="1"/>
       <c r="C196" s="1"/>
       <c r="D196" s="1" t="str">
-        <f t="shared" ref="D195:D258" si="36">A196</f>
+        <f t="shared" ref="D196:D257" si="36">A196</f>
         <v>الم</v>
       </c>
       <c r="E196" s="1" t="s">
@@ -28591,7 +28598,7 @@
       <c r="F196" s="1"/>
       <c r="G196" s="1"/>
       <c r="H196" s="1" t="str">
-        <f t="shared" ref="H195:H258" si="37">E196</f>
+        <f t="shared" ref="H196:H258" si="37">E196</f>
         <v>معاناة</v>
       </c>
       <c r="I196" s="1" t="s">
@@ -30981,7 +30988,7 @@
         <v>1893</v>
       </c>
       <c r="F261" s="1" t="s">
-        <v>6849</v>
+        <v>6848</v>
       </c>
       <c r="G261" s="1"/>
       <c r="H261" s="1" t="str">
@@ -31003,7 +31010,7 @@
         <v>1897</v>
       </c>
       <c r="P261" s="1" t="s">
-        <v>6654</v>
+        <v>6653</v>
       </c>
     </row>
     <row r="262" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -31205,7 +31212,7 @@
         <v>1933</v>
       </c>
       <c r="G267" s="5" t="s">
-        <v>6850</v>
+        <v>6849</v>
       </c>
       <c r="H267" s="1" t="str">
         <f>G267</f>
@@ -31226,7 +31233,7 @@
         <v>1936</v>
       </c>
       <c r="P267" s="1" t="s">
-        <v>6654</v>
+        <v>6653</v>
       </c>
     </row>
     <row r="268" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -31247,7 +31254,7 @@
       </c>
       <c r="G268" s="3"/>
       <c r="H268" s="1" t="str">
-        <f t="shared" ref="H267:H268" si="47">F268</f>
+        <f t="shared" ref="H268" si="47">F268</f>
         <v>يستقطب</v>
       </c>
       <c r="I268" s="1" t="s">
@@ -34678,7 +34685,7 @@
       </c>
       <c r="G361" s="3"/>
       <c r="H361" s="1" t="str">
-        <f t="shared" ref="H361:H362" si="62">F361</f>
+        <f t="shared" ref="H361" si="62">F361</f>
         <v>سلسلة</v>
       </c>
       <c r="I361" s="1" t="s">
@@ -34718,7 +34725,7 @@
         <v>2583</v>
       </c>
       <c r="G362" s="8" t="s">
-        <v>5742</v>
+        <v>5741</v>
       </c>
       <c r="H362" s="1" t="str">
         <f>G362</f>
@@ -34742,7 +34749,7 @@
       </c>
       <c r="O362" s="35"/>
       <c r="P362" s="46" t="s">
-        <v>6654</v>
+        <v>6653</v>
       </c>
     </row>
     <row r="363" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -36116,7 +36123,7 @@
         <v>2835</v>
       </c>
       <c r="G400" s="5" t="s">
-        <v>6851</v>
+        <v>6850</v>
       </c>
       <c r="H400" s="1" t="str">
         <f>G400</f>
@@ -36139,7 +36146,7 @@
         <v>2840</v>
       </c>
       <c r="P400" s="1" t="s">
-        <v>6654</v>
+        <v>6653</v>
       </c>
     </row>
     <row r="401" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -36624,7 +36631,7 @@
         <v>2929</v>
       </c>
       <c r="F414" s="1" t="s">
-        <v>6852</v>
+        <v>6851</v>
       </c>
       <c r="G414" s="1"/>
       <c r="H414" s="1" t="str">
@@ -36648,7 +36655,7 @@
         <v>2934</v>
       </c>
       <c r="P414" s="1" t="s">
-        <v>6654</v>
+        <v>6653</v>
       </c>
     </row>
     <row r="415" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -37405,7 +37412,7 @@
         <v>3077</v>
       </c>
       <c r="M435" s="1" t="s">
-        <v>6864</v>
+        <v>6863</v>
       </c>
       <c r="N435" s="1" t="s">
         <v>3078</v>
@@ -37430,7 +37437,7 @@
         <v>3079</v>
       </c>
       <c r="G436" s="5" t="s">
-        <v>6853</v>
+        <v>6852</v>
       </c>
       <c r="H436" s="1" t="str">
         <f>G436</f>
@@ -37451,7 +37458,7 @@
         <v>3083</v>
       </c>
       <c r="P436" s="1" t="s">
-        <v>6654</v>
+        <v>6653</v>
       </c>
     </row>
     <row r="437" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -40307,7 +40314,7 @@
       <c r="B515" s="1"/>
       <c r="C515" s="1"/>
       <c r="D515" s="1" t="str">
-        <f t="shared" ref="D515:D578" si="80">A515</f>
+        <f t="shared" ref="D515:D577" si="80">A515</f>
         <v>سهل</v>
       </c>
       <c r="E515" s="1" t="s">
@@ -41787,7 +41794,7 @@
         <v>3892</v>
       </c>
       <c r="G555" s="5" t="s">
-        <v>6854</v>
+        <v>6853</v>
       </c>
       <c r="H555" s="1" t="str">
         <f t="shared" si="85"/>
@@ -41808,7 +41815,7 @@
         <v>3896</v>
       </c>
       <c r="P555" s="1" t="s">
-        <v>6654</v>
+        <v>6653</v>
       </c>
     </row>
     <row r="556" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -42708,7 +42715,7 @@
       <c r="B580" s="1"/>
       <c r="C580" s="1"/>
       <c r="D580" s="1" t="str">
-        <f t="shared" ref="D579:D642" si="90">A580</f>
+        <f t="shared" ref="D580:D642" si="90">A580</f>
         <v>طفره</v>
       </c>
       <c r="E580" s="1" t="s">
@@ -42977,7 +42984,7 @@
       </c>
       <c r="G587" s="3"/>
       <c r="H587" s="1" t="str">
-        <f t="shared" ref="H587:H588" si="93">F587</f>
+        <f t="shared" ref="H587" si="93">F587</f>
         <v>غرفة المركب</v>
       </c>
       <c r="I587" s="1" t="s">
@@ -43039,7 +43046,7 @@
         <v>4133</v>
       </c>
       <c r="P588" s="1" t="s">
-        <v>6654</v>
+        <v>6653</v>
       </c>
     </row>
     <row r="589" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -43099,7 +43106,7 @@
         <v>4140</v>
       </c>
       <c r="G590" s="5" t="s">
-        <v>6861</v>
+        <v>6860</v>
       </c>
       <c r="H590" s="1" t="str">
         <f t="shared" si="94"/>
@@ -43122,7 +43129,7 @@
         <v>4146</v>
       </c>
       <c r="P590" s="1" t="s">
-        <v>6654</v>
+        <v>6653</v>
       </c>
     </row>
     <row r="591" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -43909,7 +43916,7 @@
         <v>4294</v>
       </c>
       <c r="G612" s="5" t="s">
-        <v>6860</v>
+        <v>6859</v>
       </c>
       <c r="H612" s="1" t="str">
         <f>G612</f>
@@ -43932,7 +43939,7 @@
         <v>4299</v>
       </c>
       <c r="P612" s="1" t="s">
-        <v>6654</v>
+        <v>6653</v>
       </c>
     </row>
     <row r="613" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -45040,7 +45047,7 @@
       <c r="B643" s="1"/>
       <c r="C643" s="1"/>
       <c r="D643" s="1" t="str">
-        <f t="shared" ref="D643:D706" si="96">A643</f>
+        <f t="shared" ref="D643:D705" si="96">A643</f>
         <v>غير مسؤول</v>
       </c>
       <c r="E643" s="1" t="s">
@@ -45049,7 +45056,7 @@
       <c r="F643" s="1"/>
       <c r="G643" s="1"/>
       <c r="H643" s="1" t="str">
-        <f t="shared" ref="H643:H706" si="97">E643</f>
+        <f t="shared" ref="H643:H705" si="97">E643</f>
         <v>غير منطقى</v>
       </c>
       <c r="I643" s="1" t="s">
@@ -46306,7 +46313,7 @@
         <v>4742</v>
       </c>
       <c r="P677" s="1" t="s">
-        <v>6654</v>
+        <v>6653</v>
       </c>
     </row>
     <row r="678" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -46752,7 +46759,7 @@
         <v>4815</v>
       </c>
       <c r="G690" s="5" t="s">
-        <v>6859</v>
+        <v>6858</v>
       </c>
       <c r="H690" s="1" t="str">
         <f t="shared" ref="H690:H691" si="102">G690</f>
@@ -46773,7 +46780,7 @@
         <v>4818</v>
       </c>
       <c r="P690" s="1" t="s">
-        <v>6654</v>
+        <v>6653</v>
       </c>
     </row>
     <row r="691" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -47322,7 +47329,7 @@
         <v>4916</v>
       </c>
       <c r="G706" s="5" t="s">
-        <v>6858</v>
+        <v>6857</v>
       </c>
       <c r="H706" s="1" t="str">
         <f>G706</f>
@@ -47345,7 +47352,7 @@
         <v>4922</v>
       </c>
       <c r="P706" s="1" t="s">
-        <v>6654</v>
+        <v>6653</v>
       </c>
     </row>
     <row r="707" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -47366,7 +47373,7 @@
       </c>
       <c r="G707" s="3"/>
       <c r="H707" s="1" t="str">
-        <f t="shared" ref="H706:H707" si="104">F707</f>
+        <f t="shared" ref="H707" si="104">F707</f>
         <v>رامي</v>
       </c>
       <c r="I707" s="1" t="s">
@@ -47400,7 +47407,7 @@
       <c r="F708" s="1"/>
       <c r="G708" s="1"/>
       <c r="H708" s="1" t="str">
-        <f t="shared" ref="H707:H770" si="105">E708</f>
+        <f t="shared" ref="H708:H770" si="105">E708</f>
         <v>فنجان</v>
       </c>
       <c r="I708" s="1" t="s">
@@ -49855,17 +49862,17 @@
       </c>
     </row>
     <row r="777" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A777" s="1" t="s">
-        <v>5389</v>
+      <c r="A777" s="47" t="s">
+        <v>6864</v>
       </c>
       <c r="B777" s="1"/>
       <c r="C777" s="1"/>
       <c r="D777" s="1" t="str">
-        <f t="shared" si="107"/>
-        <v>متزوج \ متزوجة</v>
+        <f>A777</f>
+        <v xml:space="preserve"> متزوجة</v>
       </c>
       <c r="E777" s="1" t="s">
-        <v>5390</v>
+        <v>5389</v>
       </c>
       <c r="F777" s="1"/>
       <c r="G777" s="1"/>
@@ -49874,27 +49881,27 @@
         <v>غير مرتبطة</v>
       </c>
       <c r="I777" s="1" t="s">
+        <v>5390</v>
+      </c>
+      <c r="J777" s="2" t="s">
         <v>5391</v>
       </c>
-      <c r="J777" s="2" t="s">
+      <c r="K777" s="1" t="s">
         <v>5392</v>
       </c>
-      <c r="K777" s="1" t="s">
+      <c r="L777" s="2" t="s">
         <v>5393</v>
       </c>
-      <c r="L777" s="2" t="s">
+      <c r="M777" s="1" t="s">
         <v>5394</v>
       </c>
-      <c r="M777" s="1" t="s">
+      <c r="N777" s="1" t="s">
         <v>5395</v>
-      </c>
-      <c r="N777" s="1" t="s">
-        <v>5396</v>
       </c>
     </row>
     <row r="778" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A778" s="1" t="s">
-        <v>5397</v>
+        <v>5396</v>
       </c>
       <c r="B778" s="1"/>
       <c r="C778" s="1"/>
@@ -49903,7 +49910,7 @@
         <v>متلازمة</v>
       </c>
       <c r="E778" s="1" t="s">
-        <v>5398</v>
+        <v>5397</v>
       </c>
       <c r="F778" s="1"/>
       <c r="G778" s="1"/>
@@ -49912,25 +49919,25 @@
         <v>علامة مرض</v>
       </c>
       <c r="I778" s="1" t="s">
+        <v>5398</v>
+      </c>
+      <c r="J778" s="2" t="s">
         <v>5399</v>
       </c>
-      <c r="J778" s="2" t="s">
+      <c r="K778" s="1" t="s">
         <v>5400</v>
-      </c>
-      <c r="K778" s="1" t="s">
-        <v>5401</v>
       </c>
       <c r="L778" s="1"/>
       <c r="M778" s="1" t="s">
+        <v>5401</v>
+      </c>
+      <c r="N778" s="1" t="s">
         <v>5402</v>
-      </c>
-      <c r="N778" s="1" t="s">
-        <v>5403</v>
       </c>
     </row>
     <row r="779" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A779" s="1" t="s">
-        <v>5404</v>
+        <v>5403</v>
       </c>
       <c r="B779" s="1"/>
       <c r="C779" s="1"/>
@@ -49948,26 +49955,26 @@
         <v>قلق</v>
       </c>
       <c r="I779" s="1" t="s">
-        <v>5405</v>
+        <v>5404</v>
       </c>
       <c r="J779" s="1"/>
       <c r="K779" s="1" t="s">
-        <v>5406</v>
+        <v>5405</v>
       </c>
       <c r="L779" s="1"/>
       <c r="M779" s="1" t="s">
+        <v>5406</v>
+      </c>
+      <c r="N779" s="1" t="s">
         <v>5407</v>
-      </c>
-      <c r="N779" s="1" t="s">
-        <v>5408</v>
       </c>
     </row>
     <row r="780" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A780" s="1" t="s">
+        <v>5408</v>
+      </c>
+      <c r="B780" s="2" t="s">
         <v>5409</v>
-      </c>
-      <c r="B780" s="2" t="s">
-        <v>5410</v>
       </c>
       <c r="C780" s="3"/>
       <c r="D780" s="1" t="str">
@@ -49978,7 +49985,7 @@
         <v>3948</v>
       </c>
       <c r="F780" s="2" t="s">
-        <v>5411</v>
+        <v>5410</v>
       </c>
       <c r="G780" s="3"/>
       <c r="H780" s="1" t="str">
@@ -49990,19 +49997,19 @@
       </c>
       <c r="J780" s="1"/>
       <c r="K780" s="1" t="s">
-        <v>5412</v>
+        <v>5411</v>
       </c>
       <c r="L780" s="1"/>
       <c r="M780" s="1" t="s">
+        <v>5412</v>
+      </c>
+      <c r="N780" s="1" t="s">
         <v>5413</v>
-      </c>
-      <c r="N780" s="1" t="s">
-        <v>5414</v>
       </c>
     </row>
     <row r="781" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A781" s="1" t="s">
-        <v>5415</v>
+        <v>5414</v>
       </c>
       <c r="B781" s="1"/>
       <c r="C781" s="1"/>
@@ -50011,7 +50018,7 @@
         <v>متوفى</v>
       </c>
       <c r="E781" s="1" t="s">
-        <v>5416</v>
+        <v>5415</v>
       </c>
       <c r="F781" s="1"/>
       <c r="G781" s="1"/>
@@ -50020,25 +50027,25 @@
         <v>على قيد الحياة</v>
       </c>
       <c r="I781" s="1" t="s">
+        <v>5416</v>
+      </c>
+      <c r="J781" s="2" t="s">
         <v>5417</v>
       </c>
-      <c r="J781" s="2" t="s">
+      <c r="K781" s="1" t="s">
         <v>5418</v>
-      </c>
-      <c r="K781" s="1" t="s">
-        <v>5419</v>
       </c>
       <c r="L781" s="1"/>
       <c r="M781" s="1" t="s">
+        <v>5419</v>
+      </c>
+      <c r="N781" s="1" t="s">
         <v>5420</v>
-      </c>
-      <c r="N781" s="1" t="s">
-        <v>5421</v>
       </c>
     </row>
     <row r="782" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A782" s="1" t="s">
-        <v>5422</v>
+        <v>5421</v>
       </c>
       <c r="B782" s="1"/>
       <c r="C782" s="1"/>
@@ -50047,7 +50054,7 @@
         <v>مثلث</v>
       </c>
       <c r="E782" s="1" t="s">
-        <v>5423</v>
+        <v>5422</v>
       </c>
       <c r="F782" s="1"/>
       <c r="G782" s="1"/>
@@ -50056,23 +50063,23 @@
         <v>دائرة</v>
       </c>
       <c r="I782" s="1" t="s">
-        <v>5424</v>
+        <v>5423</v>
       </c>
       <c r="J782" s="1"/>
       <c r="K782" s="1" t="s">
-        <v>5425</v>
+        <v>5424</v>
       </c>
       <c r="L782" s="1"/>
       <c r="M782" s="1" t="s">
+        <v>5425</v>
+      </c>
+      <c r="N782" s="1" t="s">
         <v>5426</v>
-      </c>
-      <c r="N782" s="1" t="s">
-        <v>5427</v>
       </c>
     </row>
     <row r="783" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A783" s="1" t="s">
-        <v>5428</v>
+        <v>5427</v>
       </c>
       <c r="B783" s="1"/>
       <c r="C783" s="1"/>
@@ -50081,7 +50088,7 @@
         <v>مثير للانتباه</v>
       </c>
       <c r="E783" s="1" t="s">
-        <v>5429</v>
+        <v>5428</v>
       </c>
       <c r="F783" s="1"/>
       <c r="G783" s="1"/>
@@ -50090,25 +50097,25 @@
         <v>مثير</v>
       </c>
       <c r="I783" s="1" t="s">
-        <v>5430</v>
+        <v>5429</v>
       </c>
       <c r="J783" s="1"/>
       <c r="K783" s="1" t="s">
+        <v>5430</v>
+      </c>
+      <c r="L783" s="2" t="s">
         <v>5431</v>
       </c>
-      <c r="L783" s="2" t="s">
+      <c r="M783" s="1" t="s">
         <v>5432</v>
       </c>
-      <c r="M783" s="1" t="s">
+      <c r="N783" s="1" t="s">
         <v>5433</v>
-      </c>
-      <c r="N783" s="1" t="s">
-        <v>5434</v>
       </c>
     </row>
     <row r="784" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A784" s="1" t="s">
-        <v>5435</v>
+        <v>5434</v>
       </c>
       <c r="B784" s="1"/>
       <c r="C784" s="1"/>
@@ -50117,7 +50124,7 @@
         <v>مثير للشفقة</v>
       </c>
       <c r="E784" s="1" t="s">
-        <v>5436</v>
+        <v>5435</v>
       </c>
       <c r="F784" s="1"/>
       <c r="G784" s="1"/>
@@ -50126,27 +50133,27 @@
         <v>بائس</v>
       </c>
       <c r="I784" s="1" t="s">
+        <v>5436</v>
+      </c>
+      <c r="J784" s="2" t="s">
         <v>5437</v>
       </c>
-      <c r="J784" s="2" t="s">
+      <c r="K784" s="1" t="s">
         <v>5438</v>
       </c>
-      <c r="K784" s="1" t="s">
+      <c r="L784" s="2" t="s">
         <v>5439</v>
       </c>
-      <c r="L784" s="2" t="s">
+      <c r="M784" s="1" t="s">
         <v>5440</v>
       </c>
-      <c r="M784" s="1" t="s">
+      <c r="N784" s="1" t="s">
         <v>5441</v>
-      </c>
-      <c r="N784" s="1" t="s">
-        <v>5442</v>
       </c>
     </row>
     <row r="785" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A785" s="1" t="s">
-        <v>5443</v>
+        <v>5442</v>
       </c>
       <c r="B785" s="1"/>
       <c r="C785" s="1"/>
@@ -50155,7 +50162,7 @@
         <v>مجانا</v>
       </c>
       <c r="E785" s="1" t="s">
-        <v>5444</v>
+        <v>5443</v>
       </c>
       <c r="F785" s="1"/>
       <c r="G785" s="1"/>
@@ -50164,25 +50171,25 @@
         <v>بحرية</v>
       </c>
       <c r="I785" s="1" t="s">
+        <v>5444</v>
+      </c>
+      <c r="J785" s="2" t="s">
         <v>5445</v>
       </c>
-      <c r="J785" s="2" t="s">
+      <c r="K785" s="1" t="s">
         <v>5446</v>
-      </c>
-      <c r="K785" s="1" t="s">
-        <v>5447</v>
       </c>
       <c r="L785" s="1"/>
       <c r="M785" s="1" t="s">
+        <v>5447</v>
+      </c>
+      <c r="N785" s="1" t="s">
         <v>5448</v>
-      </c>
-      <c r="N785" s="1" t="s">
-        <v>5449</v>
       </c>
     </row>
     <row r="786" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A786" s="1" t="s">
-        <v>5450</v>
+        <v>5449</v>
       </c>
       <c r="B786" s="1"/>
       <c r="C786" s="1"/>
@@ -50191,7 +50198,7 @@
         <v>مجد</v>
       </c>
       <c r="E786" s="1" t="s">
-        <v>5451</v>
+        <v>5450</v>
       </c>
       <c r="F786" s="1"/>
       <c r="G786" s="1"/>
@@ -50200,7 +50207,7 @@
         <v>المجيد</v>
       </c>
       <c r="I786" s="1" t="s">
-        <v>5452</v>
+        <v>5451</v>
       </c>
       <c r="J786" s="1"/>
       <c r="K786" s="1" t="s">
@@ -50208,15 +50215,15 @@
       </c>
       <c r="L786" s="1"/>
       <c r="M786" s="1" t="s">
+        <v>5452</v>
+      </c>
+      <c r="N786" s="1" t="s">
         <v>5453</v>
-      </c>
-      <c r="N786" s="1" t="s">
-        <v>5454</v>
       </c>
     </row>
     <row r="787" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A787" s="1" t="s">
-        <v>5455</v>
+        <v>5454</v>
       </c>
       <c r="B787" s="1"/>
       <c r="C787" s="1"/>
@@ -50225,7 +50232,7 @@
         <v>مجرم</v>
       </c>
       <c r="E787" s="1" t="s">
-        <v>5456</v>
+        <v>5455</v>
       </c>
       <c r="F787" s="1"/>
       <c r="G787" s="1"/>
@@ -50234,23 +50241,23 @@
         <v>لص</v>
       </c>
       <c r="I787" s="1" t="s">
-        <v>5457</v>
+        <v>5456</v>
       </c>
       <c r="J787" s="1"/>
       <c r="K787" s="1" t="s">
-        <v>5458</v>
+        <v>5457</v>
       </c>
       <c r="L787" s="1"/>
       <c r="M787" s="1" t="s">
+        <v>5458</v>
+      </c>
+      <c r="N787" s="1" t="s">
         <v>5459</v>
-      </c>
-      <c r="N787" s="1" t="s">
-        <v>5460</v>
       </c>
     </row>
     <row r="788" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A788" s="5" t="s">
-        <v>5461</v>
+        <v>5460</v>
       </c>
       <c r="B788" s="5"/>
       <c r="C788" s="5"/>
@@ -50259,7 +50266,7 @@
         <v>مجلة</v>
       </c>
       <c r="E788" s="1" t="s">
-        <v>5462</v>
+        <v>5461</v>
       </c>
       <c r="F788" s="1"/>
       <c r="G788" s="1"/>
@@ -50268,20 +50275,20 @@
         <v>بلاي بوي</v>
       </c>
       <c r="I788" s="1" t="s">
+        <v>5462</v>
+      </c>
+      <c r="J788" s="2" t="s">
         <v>5463</v>
       </c>
-      <c r="J788" s="2" t="s">
+      <c r="K788" s="1" t="s">
         <v>5464</v>
-      </c>
-      <c r="K788" s="1" t="s">
-        <v>5465</v>
       </c>
       <c r="L788" s="1"/>
       <c r="M788" s="5" t="s">
+        <v>5465</v>
+      </c>
+      <c r="N788" s="1" t="s">
         <v>5466</v>
-      </c>
-      <c r="N788" s="1" t="s">
-        <v>5467</v>
       </c>
       <c r="O788" s="10" t="s">
         <v>1842</v>
@@ -50289,7 +50296,7 @@
     </row>
     <row r="789" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A789" s="1" t="s">
-        <v>5468</v>
+        <v>5467</v>
       </c>
       <c r="B789" s="1"/>
       <c r="C789" s="1"/>
@@ -50298,7 +50305,7 @@
         <v>مجلس الشيوخ</v>
       </c>
       <c r="E789" s="1" t="s">
-        <v>5469</v>
+        <v>5468</v>
       </c>
       <c r="F789" s="1"/>
       <c r="G789" s="1"/>
@@ -50307,25 +50314,25 @@
         <v>البرلمان</v>
       </c>
       <c r="I789" s="1" t="s">
-        <v>5470</v>
+        <v>5469</v>
       </c>
       <c r="J789" s="1"/>
       <c r="K789" s="1" t="s">
+        <v>5470</v>
+      </c>
+      <c r="L789" s="2" t="s">
         <v>5471</v>
       </c>
-      <c r="L789" s="2" t="s">
+      <c r="M789" s="1" t="s">
         <v>5472</v>
       </c>
-      <c r="M789" s="1" t="s">
+      <c r="N789" s="1" t="s">
         <v>5473</v>
-      </c>
-      <c r="N789" s="1" t="s">
-        <v>5474</v>
       </c>
     </row>
     <row r="790" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A790" s="1" t="s">
-        <v>5475</v>
+        <v>5474</v>
       </c>
       <c r="B790" s="1"/>
       <c r="C790" s="1"/>
@@ -50334,7 +50341,7 @@
         <v>مجموعة</v>
       </c>
       <c r="E790" s="1" t="s">
-        <v>5476</v>
+        <v>5475</v>
       </c>
       <c r="F790" s="1"/>
       <c r="G790" s="1"/>
@@ -50343,20 +50350,20 @@
         <v>عصابة</v>
       </c>
       <c r="I790" s="1" t="s">
+        <v>5476</v>
+      </c>
+      <c r="J790" s="2" t="s">
         <v>5477</v>
       </c>
-      <c r="J790" s="2" t="s">
+      <c r="K790" s="1" t="s">
         <v>5478</v>
-      </c>
-      <c r="K790" s="1" t="s">
-        <v>5479</v>
       </c>
       <c r="L790" s="1"/>
       <c r="M790" s="1" t="s">
+        <v>5479</v>
+      </c>
+      <c r="N790" s="1" t="s">
         <v>5480</v>
-      </c>
-      <c r="N790" s="1" t="s">
-        <v>5481</v>
       </c>
     </row>
     <row r="791" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -50370,7 +50377,7 @@
         <v>مجنون</v>
       </c>
       <c r="E791" s="1" t="s">
-        <v>5482</v>
+        <v>5481</v>
       </c>
       <c r="F791" s="1"/>
       <c r="G791" s="1"/>
@@ -50379,23 +50386,23 @@
         <v>المذعور</v>
       </c>
       <c r="I791" s="1" t="s">
-        <v>5483</v>
+        <v>5482</v>
       </c>
       <c r="J791" s="1"/>
       <c r="K791" s="1" t="s">
-        <v>5484</v>
+        <v>5483</v>
       </c>
       <c r="L791" s="1"/>
       <c r="M791" s="1" t="s">
+        <v>5484</v>
+      </c>
+      <c r="N791" s="1" t="s">
         <v>5485</v>
-      </c>
-      <c r="N791" s="1" t="s">
-        <v>5486</v>
       </c>
     </row>
     <row r="792" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A792" s="1" t="s">
-        <v>5487</v>
+        <v>5486</v>
       </c>
       <c r="B792" s="1"/>
       <c r="C792" s="1"/>
@@ -50404,7 +50411,7 @@
         <v>مجهر</v>
       </c>
       <c r="E792" s="1" t="s">
-        <v>5488</v>
+        <v>5487</v>
       </c>
       <c r="F792" s="1"/>
       <c r="G792" s="1"/>
@@ -50413,25 +50420,25 @@
         <v>تلسكوب</v>
       </c>
       <c r="I792" s="1" t="s">
-        <v>5489</v>
+        <v>5488</v>
       </c>
       <c r="J792" s="1"/>
       <c r="K792" s="1" t="s">
+        <v>5489</v>
+      </c>
+      <c r="L792" s="2" t="s">
         <v>5490</v>
       </c>
-      <c r="L792" s="2" t="s">
+      <c r="M792" s="1" t="s">
         <v>5491</v>
       </c>
-      <c r="M792" s="1" t="s">
+      <c r="N792" s="1" t="s">
         <v>5492</v>
-      </c>
-      <c r="N792" s="1" t="s">
-        <v>5493</v>
       </c>
     </row>
     <row r="793" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A793" s="5" t="s">
-        <v>5494</v>
+        <v>5493</v>
       </c>
       <c r="B793" s="1"/>
       <c r="C793" s="1"/>
@@ -50440,10 +50447,10 @@
         <v>مجهول</v>
       </c>
       <c r="E793" s="1" t="s">
-        <v>5494</v>
+        <v>5493</v>
       </c>
       <c r="F793" s="1" t="s">
-        <v>6857</v>
+        <v>6856</v>
       </c>
       <c r="G793" s="1"/>
       <c r="H793" s="1" t="str">
@@ -50451,26 +50458,26 @@
         <v>غامض</v>
       </c>
       <c r="I793" s="1" t="s">
-        <v>5495</v>
+        <v>5494</v>
       </c>
       <c r="J793" s="1"/>
       <c r="K793" s="1" t="s">
-        <v>5496</v>
+        <v>5495</v>
       </c>
       <c r="L793" s="1"/>
       <c r="M793" s="1" t="s">
+        <v>5496</v>
+      </c>
+      <c r="N793" s="1" t="s">
         <v>5497</v>
       </c>
-      <c r="N793" s="1" t="s">
-        <v>5498</v>
-      </c>
       <c r="P793" s="1" t="s">
-        <v>6654</v>
+        <v>6653</v>
       </c>
     </row>
     <row r="794" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A794" s="1" t="s">
-        <v>5499</v>
+        <v>5498</v>
       </c>
       <c r="B794" s="1"/>
       <c r="C794" s="1"/>
@@ -50479,7 +50486,7 @@
         <v>محارب</v>
       </c>
       <c r="E794" s="1" t="s">
-        <v>5500</v>
+        <v>5499</v>
       </c>
       <c r="F794" s="1"/>
       <c r="G794" s="1"/>
@@ -50488,23 +50495,23 @@
         <v>جندي</v>
       </c>
       <c r="I794" s="1" t="s">
-        <v>5501</v>
+        <v>5500</v>
       </c>
       <c r="J794" s="1"/>
       <c r="K794" s="1" t="s">
-        <v>5502</v>
+        <v>5501</v>
       </c>
       <c r="L794" s="1"/>
       <c r="M794" s="1" t="s">
+        <v>5502</v>
+      </c>
+      <c r="N794" s="1" t="s">
         <v>5503</v>
-      </c>
-      <c r="N794" s="1" t="s">
-        <v>5504</v>
       </c>
     </row>
     <row r="795" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A795" s="1" t="s">
-        <v>5505</v>
+        <v>5504</v>
       </c>
       <c r="B795" s="1"/>
       <c r="C795" s="1"/>
@@ -50513,7 +50520,7 @@
         <v>محاضرة</v>
       </c>
       <c r="E795" s="1" t="s">
-        <v>5506</v>
+        <v>5505</v>
       </c>
       <c r="F795" s="1"/>
       <c r="G795" s="1"/>
@@ -50522,23 +50529,23 @@
         <v>ندوة</v>
       </c>
       <c r="I795" s="1" t="s">
-        <v>5507</v>
+        <v>5506</v>
       </c>
       <c r="J795" s="1"/>
       <c r="K795" s="1" t="s">
-        <v>5508</v>
+        <v>5507</v>
       </c>
       <c r="L795" s="1"/>
       <c r="M795" s="1" t="s">
+        <v>5508</v>
+      </c>
+      <c r="N795" s="1" t="s">
         <v>5509</v>
-      </c>
-      <c r="N795" s="1" t="s">
-        <v>5510</v>
       </c>
     </row>
     <row r="796" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A796" s="1" t="s">
-        <v>5511</v>
+        <v>5510</v>
       </c>
       <c r="B796" s="1"/>
       <c r="C796" s="1"/>
@@ -50547,7 +50554,7 @@
         <v>محاولة</v>
       </c>
       <c r="E796" s="1" t="s">
-        <v>5512</v>
+        <v>5511</v>
       </c>
       <c r="F796" s="1"/>
       <c r="G796" s="1"/>
@@ -50556,23 +50563,23 @@
         <v>يحاول</v>
       </c>
       <c r="I796" s="1" t="s">
-        <v>5513</v>
+        <v>5512</v>
       </c>
       <c r="J796" s="1"/>
       <c r="K796" s="1" t="s">
-        <v>5514</v>
+        <v>5513</v>
       </c>
       <c r="L796" s="1"/>
       <c r="M796" s="1" t="s">
+        <v>5514</v>
+      </c>
+      <c r="N796" s="1" t="s">
         <v>5515</v>
-      </c>
-      <c r="N796" s="1" t="s">
-        <v>5516</v>
       </c>
     </row>
     <row r="797" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A797" s="1" t="s">
-        <v>5517</v>
+        <v>5516</v>
       </c>
       <c r="B797" s="1"/>
       <c r="C797" s="1"/>
@@ -50594,19 +50601,19 @@
       </c>
       <c r="J797" s="1"/>
       <c r="K797" s="1" t="s">
-        <v>5518</v>
+        <v>5517</v>
       </c>
       <c r="L797" s="1"/>
       <c r="M797" s="1" t="s">
+        <v>5518</v>
+      </c>
+      <c r="N797" s="1" t="s">
         <v>5519</v>
-      </c>
-      <c r="N797" s="1" t="s">
-        <v>5520</v>
       </c>
     </row>
     <row r="798" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A798" s="1" t="s">
-        <v>5521</v>
+        <v>5520</v>
       </c>
       <c r="B798" s="1"/>
       <c r="C798" s="1"/>
@@ -50615,7 +50622,7 @@
         <v>محتشم</v>
       </c>
       <c r="E798" s="1" t="s">
-        <v>5522</v>
+        <v>5521</v>
       </c>
       <c r="F798" s="1"/>
       <c r="G798" s="1"/>
@@ -50624,23 +50631,23 @@
         <v>متواضع</v>
       </c>
       <c r="I798" s="1" t="s">
-        <v>5523</v>
+        <v>5522</v>
       </c>
       <c r="J798" s="1"/>
       <c r="K798" s="1" t="s">
-        <v>5524</v>
+        <v>5523</v>
       </c>
       <c r="L798" s="1"/>
       <c r="M798" s="1" t="s">
+        <v>5524</v>
+      </c>
+      <c r="N798" s="1" t="s">
         <v>5525</v>
-      </c>
-      <c r="N798" s="1" t="s">
-        <v>5526</v>
       </c>
     </row>
     <row r="799" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A799" s="1" t="s">
-        <v>5527</v>
+        <v>5526</v>
       </c>
       <c r="B799" s="1"/>
       <c r="C799" s="1"/>
@@ -50649,7 +50656,7 @@
         <v>محرك</v>
       </c>
       <c r="E799" s="1" t="s">
-        <v>5528</v>
+        <v>5527</v>
       </c>
       <c r="F799" s="1"/>
       <c r="G799" s="1"/>
@@ -50658,7 +50665,7 @@
         <v>خزان</v>
       </c>
       <c r="I799" s="1" t="s">
-        <v>5529</v>
+        <v>5528</v>
       </c>
       <c r="J799" s="1"/>
       <c r="K799" s="1" t="s">
@@ -50666,15 +50673,15 @@
       </c>
       <c r="L799" s="1"/>
       <c r="M799" s="1" t="s">
+        <v>5529</v>
+      </c>
+      <c r="N799" s="1" t="s">
         <v>5530</v>
-      </c>
-      <c r="N799" s="1" t="s">
-        <v>5531</v>
       </c>
     </row>
     <row r="800" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A800" s="1" t="s">
-        <v>5532</v>
+        <v>5531</v>
       </c>
       <c r="B800" s="1"/>
       <c r="C800" s="1"/>
@@ -50686,7 +50693,7 @@
         <v>1740</v>
       </c>
       <c r="F800" s="2" t="s">
-        <v>5533</v>
+        <v>5532</v>
       </c>
       <c r="G800" s="3"/>
       <c r="H800" s="1" t="str">
@@ -50694,23 +50701,23 @@
         <v>منصة</v>
       </c>
       <c r="I800" s="1" t="s">
-        <v>5534</v>
+        <v>5533</v>
       </c>
       <c r="J800" s="1"/>
       <c r="K800" s="1" t="s">
-        <v>5535</v>
+        <v>5534</v>
       </c>
       <c r="L800" s="1"/>
       <c r="M800" s="1" t="s">
+        <v>5535</v>
+      </c>
+      <c r="N800" s="1" t="s">
         <v>5536</v>
-      </c>
-      <c r="N800" s="1" t="s">
-        <v>5537</v>
       </c>
     </row>
     <row r="801" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A801" s="1" t="s">
-        <v>5538</v>
+        <v>5537</v>
       </c>
       <c r="B801" s="1"/>
       <c r="C801" s="1"/>
@@ -50732,21 +50739,21 @@
       </c>
       <c r="J801" s="1"/>
       <c r="K801" s="1" t="s">
+        <v>5538</v>
+      </c>
+      <c r="L801" s="2" t="s">
         <v>5539</v>
       </c>
-      <c r="L801" s="2" t="s">
+      <c r="M801" s="1" t="s">
         <v>5540</v>
       </c>
-      <c r="M801" s="1" t="s">
+      <c r="N801" s="1" t="s">
         <v>5541</v>
-      </c>
-      <c r="N801" s="1" t="s">
-        <v>5542</v>
       </c>
     </row>
     <row r="802" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A802" s="1" t="s">
-        <v>5543</v>
+        <v>5542</v>
       </c>
       <c r="B802" s="1"/>
       <c r="C802" s="1"/>
@@ -50755,7 +50762,7 @@
         <v>محقق</v>
       </c>
       <c r="E802" s="1" t="s">
-        <v>5544</v>
+        <v>5543</v>
       </c>
       <c r="F802" s="1"/>
       <c r="G802" s="1"/>
@@ -50764,25 +50771,25 @@
         <v>المحلل</v>
       </c>
       <c r="I802" s="1" t="s">
-        <v>5545</v>
+        <v>5544</v>
       </c>
       <c r="J802" s="1"/>
       <c r="K802" s="1" t="s">
+        <v>5545</v>
+      </c>
+      <c r="L802" s="2" t="s">
         <v>5546</v>
       </c>
-      <c r="L802" s="2" t="s">
+      <c r="M802" s="1" t="s">
         <v>5547</v>
       </c>
-      <c r="M802" s="1" t="s">
+      <c r="N802" s="1" t="s">
         <v>5548</v>
-      </c>
-      <c r="N802" s="1" t="s">
-        <v>5549</v>
       </c>
     </row>
     <row r="803" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A803" s="1" t="s">
-        <v>5550</v>
+        <v>5549</v>
       </c>
       <c r="B803" s="1"/>
       <c r="C803" s="1"/>
@@ -50791,7 +50798,7 @@
         <v>محلي</v>
       </c>
       <c r="E803" s="1" t="s">
-        <v>5551</v>
+        <v>5550</v>
       </c>
       <c r="F803" s="1"/>
       <c r="G803" s="1"/>
@@ -50800,25 +50807,25 @@
         <v>إقليمي</v>
       </c>
       <c r="I803" s="1" t="s">
-        <v>5552</v>
+        <v>5551</v>
       </c>
       <c r="J803" s="1"/>
       <c r="K803" s="1" t="s">
+        <v>5552</v>
+      </c>
+      <c r="L803" s="2" t="s">
         <v>5553</v>
       </c>
-      <c r="L803" s="2" t="s">
+      <c r="M803" s="1" t="s">
         <v>5554</v>
       </c>
-      <c r="M803" s="1" t="s">
+      <c r="N803" s="1" t="s">
         <v>5555</v>
-      </c>
-      <c r="N803" s="1" t="s">
-        <v>5556</v>
       </c>
     </row>
     <row r="804" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A804" s="1" t="s">
-        <v>5557</v>
+        <v>5556</v>
       </c>
       <c r="B804" s="1"/>
       <c r="C804" s="1"/>
@@ -50827,7 +50834,7 @@
         <v>محيط</v>
       </c>
       <c r="E804" s="1" t="s">
-        <v>5558</v>
+        <v>5557</v>
       </c>
       <c r="F804" s="1"/>
       <c r="G804" s="1"/>
@@ -50836,25 +50843,25 @@
         <v>نصف القطر</v>
       </c>
       <c r="I804" s="1" t="s">
-        <v>5559</v>
+        <v>5558</v>
       </c>
       <c r="J804" s="1"/>
       <c r="K804" s="1" t="s">
+        <v>5559</v>
+      </c>
+      <c r="L804" s="2" t="s">
         <v>5560</v>
       </c>
-      <c r="L804" s="2" t="s">
+      <c r="M804" s="1" t="s">
         <v>5561</v>
       </c>
-      <c r="M804" s="1" t="s">
+      <c r="N804" s="1" t="s">
         <v>5562</v>
-      </c>
-      <c r="N804" s="1" t="s">
-        <v>5563</v>
       </c>
     </row>
     <row r="805" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A805" s="1" t="s">
-        <v>5557</v>
+        <v>5556</v>
       </c>
       <c r="B805" s="1"/>
       <c r="C805" s="1"/>
@@ -50863,36 +50870,36 @@
         <v>محيط</v>
       </c>
       <c r="E805" s="1" t="s">
-        <v>5564</v>
+        <v>5563</v>
       </c>
       <c r="F805" s="1"/>
       <c r="G805" s="9" t="s">
-        <v>5565</v>
+        <v>5564</v>
       </c>
       <c r="H805" s="1" t="str">
         <f>G805</f>
         <v>بحر</v>
       </c>
       <c r="I805" s="1" t="s">
-        <v>5566</v>
+        <v>5565</v>
       </c>
       <c r="J805" s="1"/>
       <c r="K805" s="1" t="s">
-        <v>5560</v>
+        <v>5559</v>
       </c>
       <c r="L805" s="2" t="s">
+        <v>5566</v>
+      </c>
+      <c r="M805" s="1" t="s">
         <v>5567</v>
       </c>
-      <c r="M805" s="1" t="s">
+      <c r="N805" s="1" t="s">
         <v>5568</v>
-      </c>
-      <c r="N805" s="1" t="s">
-        <v>5569</v>
       </c>
     </row>
     <row r="806" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A806" s="1" t="s">
-        <v>5570</v>
+        <v>5569</v>
       </c>
       <c r="B806" s="1"/>
       <c r="C806" s="1"/>
@@ -50901,7 +50908,7 @@
         <v>مخبر</v>
       </c>
       <c r="E806" s="1" t="s">
-        <v>5571</v>
+        <v>5570</v>
       </c>
       <c r="F806" s="1"/>
       <c r="G806" s="1"/>
@@ -50910,23 +50917,23 @@
         <v>مصدر</v>
       </c>
       <c r="I806" s="1" t="s">
-        <v>5572</v>
+        <v>5571</v>
       </c>
       <c r="J806" s="1"/>
       <c r="K806" s="1" t="s">
-        <v>5573</v>
+        <v>5572</v>
       </c>
       <c r="L806" s="1"/>
       <c r="M806" s="1" t="s">
+        <v>5573</v>
+      </c>
+      <c r="N806" s="1" t="s">
         <v>5574</v>
-      </c>
-      <c r="N806" s="1" t="s">
-        <v>5575</v>
       </c>
     </row>
     <row r="807" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A807" s="1" t="s">
-        <v>5576</v>
+        <v>5575</v>
       </c>
       <c r="B807" s="1"/>
       <c r="C807" s="1"/>
@@ -50935,7 +50942,7 @@
         <v>مختلف</v>
       </c>
       <c r="E807" s="1" t="s">
-        <v>5577</v>
+        <v>5576</v>
       </c>
       <c r="F807" s="1"/>
       <c r="G807" s="1"/>
@@ -50944,26 +50951,26 @@
         <v>مماثل</v>
       </c>
       <c r="I807" s="1" t="s">
-        <v>5578</v>
+        <v>5577</v>
       </c>
       <c r="J807" s="1"/>
       <c r="K807" s="1" t="s">
-        <v>5579</v>
+        <v>5578</v>
       </c>
       <c r="L807" s="1"/>
       <c r="M807" s="1" t="s">
+        <v>5579</v>
+      </c>
+      <c r="N807" s="1" t="s">
         <v>5580</v>
-      </c>
-      <c r="N807" s="1" t="s">
-        <v>5581</v>
       </c>
     </row>
     <row r="808" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A808" s="1" t="s">
+        <v>5581</v>
+      </c>
+      <c r="B808" s="2" t="s">
         <v>5582</v>
-      </c>
-      <c r="B808" s="2" t="s">
-        <v>5583</v>
       </c>
       <c r="C808" s="3"/>
       <c r="D808" s="1" t="str">
@@ -50971,7 +50978,7 @@
         <v>مؤمن</v>
       </c>
       <c r="E808" s="1" t="s">
-        <v>5582</v>
+        <v>5581</v>
       </c>
       <c r="F808" s="1"/>
       <c r="G808" s="1"/>
@@ -50980,23 +50987,23 @@
         <v>مخلص</v>
       </c>
       <c r="I808" s="1" t="s">
-        <v>5584</v>
+        <v>5583</v>
       </c>
       <c r="J808" s="1"/>
       <c r="K808" s="1" t="s">
-        <v>5585</v>
+        <v>5584</v>
       </c>
       <c r="L808" s="1"/>
       <c r="M808" s="1" t="s">
+        <v>5585</v>
+      </c>
+      <c r="N808" s="1" t="s">
         <v>5586</v>
-      </c>
-      <c r="N808" s="1" t="s">
-        <v>5587</v>
       </c>
     </row>
     <row r="809" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A809" s="1" t="s">
-        <v>5588</v>
+        <v>5587</v>
       </c>
       <c r="B809" s="1"/>
       <c r="C809" s="1"/>
@@ -51005,7 +51012,7 @@
         <v>مخلوق</v>
       </c>
       <c r="E809" s="1" t="s">
-        <v>5589</v>
+        <v>5588</v>
       </c>
       <c r="F809" s="1"/>
       <c r="G809" s="1"/>
@@ -51014,23 +51021,23 @@
         <v>مسخ</v>
       </c>
       <c r="I809" s="1" t="s">
-        <v>5590</v>
+        <v>5589</v>
       </c>
       <c r="J809" s="1"/>
       <c r="K809" s="1" t="s">
-        <v>5591</v>
+        <v>5590</v>
       </c>
       <c r="L809" s="1"/>
       <c r="M809" s="1" t="s">
+        <v>5591</v>
+      </c>
+      <c r="N809" s="1" t="s">
         <v>5592</v>
-      </c>
-      <c r="N809" s="1" t="s">
-        <v>5593</v>
       </c>
     </row>
     <row r="810" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A810" s="1" t="s">
-        <v>5594</v>
+        <v>5593</v>
       </c>
       <c r="B810" s="1"/>
       <c r="C810" s="1"/>
@@ -51039,7 +51046,7 @@
         <v>مدخل</v>
       </c>
       <c r="E810" s="1" t="s">
-        <v>5595</v>
+        <v>5594</v>
       </c>
       <c r="F810" s="1"/>
       <c r="G810" s="1"/>
@@ -51048,23 +51055,23 @@
         <v>خروج</v>
       </c>
       <c r="I810" s="1" t="s">
-        <v>5596</v>
+        <v>5595</v>
       </c>
       <c r="J810" s="1"/>
       <c r="K810" s="1" t="s">
-        <v>5597</v>
+        <v>5596</v>
       </c>
       <c r="L810" s="1"/>
       <c r="M810" s="1" t="s">
+        <v>5597</v>
+      </c>
+      <c r="N810" s="1" t="s">
         <v>5598</v>
-      </c>
-      <c r="N810" s="1" t="s">
-        <v>5599</v>
       </c>
     </row>
     <row r="811" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A811" s="1" t="s">
-        <v>5600</v>
+        <v>5599</v>
       </c>
       <c r="B811" s="1"/>
       <c r="C811" s="1"/>
@@ -51073,7 +51080,7 @@
         <v>مدرسة</v>
       </c>
       <c r="E811" s="1" t="s">
-        <v>5601</v>
+        <v>5600</v>
       </c>
       <c r="F811" s="1"/>
       <c r="G811" s="1"/>
@@ -51082,25 +51089,25 @@
         <v>صف دراسي</v>
       </c>
       <c r="I811" s="1" t="s">
+        <v>5601</v>
+      </c>
+      <c r="J811" s="2" t="s">
         <v>5602</v>
       </c>
-      <c r="J811" s="2" t="s">
+      <c r="K811" s="1" t="s">
         <v>5603</v>
-      </c>
-      <c r="K811" s="1" t="s">
-        <v>5604</v>
       </c>
       <c r="L811" s="1"/>
       <c r="M811" s="1" t="s">
+        <v>5604</v>
+      </c>
+      <c r="N811" s="1" t="s">
         <v>5605</v>
-      </c>
-      <c r="N811" s="1" t="s">
-        <v>5606</v>
       </c>
     </row>
     <row r="812" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A812" s="1" t="s">
-        <v>5607</v>
+        <v>5606</v>
       </c>
       <c r="B812" s="1"/>
       <c r="C812" s="1"/>
@@ -51109,7 +51116,7 @@
         <v>مدى الحياة</v>
       </c>
       <c r="E812" s="1" t="s">
-        <v>5608</v>
+        <v>5607</v>
       </c>
       <c r="F812" s="1"/>
       <c r="G812" s="1"/>
@@ -51118,20 +51125,20 @@
         <v>أبدي</v>
       </c>
       <c r="I812" s="1" t="s">
-        <v>5609</v>
+        <v>5608</v>
       </c>
       <c r="J812" s="1"/>
       <c r="K812" s="1" t="s">
+        <v>5609</v>
+      </c>
+      <c r="L812" s="2" t="s">
         <v>5610</v>
       </c>
-      <c r="L812" s="2" t="s">
+      <c r="M812" s="1" t="s">
         <v>5611</v>
       </c>
-      <c r="M812" s="1" t="s">
+      <c r="N812" s="1" t="s">
         <v>5612</v>
-      </c>
-      <c r="N812" s="1" t="s">
-        <v>5613</v>
       </c>
     </row>
     <row r="813" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -51154,25 +51161,25 @@
         <v>منتج</v>
       </c>
       <c r="I813" s="1" t="s">
+        <v>5613</v>
+      </c>
+      <c r="J813" s="2" t="s">
         <v>5614</v>
       </c>
-      <c r="J813" s="2" t="s">
+      <c r="K813" s="1" t="s">
         <v>5615</v>
-      </c>
-      <c r="K813" s="1" t="s">
-        <v>5616</v>
       </c>
       <c r="L813" s="1"/>
       <c r="M813" s="1" t="s">
+        <v>5616</v>
+      </c>
+      <c r="N813" s="1" t="s">
         <v>5617</v>
-      </c>
-      <c r="N813" s="1" t="s">
-        <v>5618</v>
       </c>
     </row>
     <row r="814" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A814" s="1" t="s">
-        <v>5619</v>
+        <v>5618</v>
       </c>
       <c r="B814" s="1"/>
       <c r="C814" s="1"/>
@@ -51181,36 +51188,36 @@
         <v>مدينة</v>
       </c>
       <c r="E814" s="1" t="s">
-        <v>5620</v>
+        <v>5619</v>
       </c>
       <c r="F814" s="1"/>
       <c r="G814" s="9" t="s">
-        <v>5621</v>
+        <v>5620</v>
       </c>
       <c r="H814" s="1" t="str">
         <f>G814</f>
         <v>عاصمة</v>
       </c>
       <c r="I814" s="1" t="s">
+        <v>5621</v>
+      </c>
+      <c r="J814" s="2" t="s">
         <v>5622</v>
       </c>
-      <c r="J814" s="2" t="s">
+      <c r="K814" s="1" t="s">
         <v>5623</v>
-      </c>
-      <c r="K814" s="1" t="s">
-        <v>5624</v>
       </c>
       <c r="L814" s="1"/>
       <c r="M814" s="1" t="s">
+        <v>5624</v>
+      </c>
+      <c r="N814" s="1" t="s">
         <v>5625</v>
-      </c>
-      <c r="N814" s="1" t="s">
-        <v>5626</v>
       </c>
     </row>
     <row r="815" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A815" s="1" t="s">
-        <v>5627</v>
+        <v>5626</v>
       </c>
       <c r="B815" s="1"/>
       <c r="C815" s="1"/>
@@ -51219,10 +51226,10 @@
         <v>مذنب</v>
       </c>
       <c r="E815" s="1" t="s">
+        <v>5627</v>
+      </c>
+      <c r="F815" s="2" t="s">
         <v>5628</v>
-      </c>
-      <c r="F815" s="2" t="s">
-        <v>5629</v>
       </c>
       <c r="G815" s="3"/>
       <c r="H815" s="1" t="str">
@@ -51230,25 +51237,25 @@
         <v>بريء</v>
       </c>
       <c r="I815" s="1" t="s">
+        <v>5629</v>
+      </c>
+      <c r="J815" s="2" t="s">
         <v>5630</v>
       </c>
-      <c r="J815" s="2" t="s">
+      <c r="K815" s="1" t="s">
         <v>5631</v>
-      </c>
-      <c r="K815" s="1" t="s">
-        <v>5632</v>
       </c>
       <c r="L815" s="1"/>
       <c r="M815" s="1" t="s">
+        <v>5632</v>
+      </c>
+      <c r="N815" s="1" t="s">
         <v>5633</v>
-      </c>
-      <c r="N815" s="1" t="s">
-        <v>5634</v>
       </c>
     </row>
     <row r="816" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A816" s="1" t="s">
-        <v>5635</v>
+        <v>5634</v>
       </c>
       <c r="B816" s="1"/>
       <c r="C816" s="1"/>
@@ -51257,10 +51264,10 @@
         <v>مذهل</v>
       </c>
       <c r="E816" s="1" t="s">
-        <v>5636</v>
+        <v>5635</v>
       </c>
       <c r="F816" s="2" t="s">
-        <v>5429</v>
+        <v>5428</v>
       </c>
       <c r="G816" s="3"/>
       <c r="H816" s="1" t="str">
@@ -51268,23 +51275,23 @@
         <v>مثير</v>
       </c>
       <c r="I816" s="1" t="s">
-        <v>5637</v>
+        <v>5636</v>
       </c>
       <c r="J816" s="1"/>
       <c r="K816" s="1" t="s">
-        <v>5638</v>
+        <v>5637</v>
       </c>
       <c r="L816" s="1"/>
       <c r="M816" s="1" t="s">
+        <v>5638</v>
+      </c>
+      <c r="N816" s="1" t="s">
         <v>5639</v>
-      </c>
-      <c r="N816" s="1" t="s">
-        <v>5640</v>
       </c>
     </row>
     <row r="817" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A817" s="1" t="s">
-        <v>5641</v>
+        <v>5640</v>
       </c>
       <c r="B817" s="1"/>
       <c r="C817" s="1"/>
@@ -51293,7 +51300,7 @@
         <v>مرآة</v>
       </c>
       <c r="E817" s="1" t="s">
-        <v>5642</v>
+        <v>5641</v>
       </c>
       <c r="F817" s="1"/>
       <c r="G817" s="1"/>
@@ -51302,25 +51309,25 @@
         <v>انعكاس</v>
       </c>
       <c r="I817" s="1" t="s">
-        <v>5643</v>
+        <v>5642</v>
       </c>
       <c r="J817" s="1"/>
       <c r="K817" s="1" t="s">
+        <v>5643</v>
+      </c>
+      <c r="L817" s="2" t="s">
         <v>5644</v>
       </c>
-      <c r="L817" s="2" t="s">
+      <c r="M817" s="1" t="s">
         <v>5645</v>
       </c>
-      <c r="M817" s="1" t="s">
+      <c r="N817" s="1" t="s">
         <v>5646</v>
-      </c>
-      <c r="N817" s="1" t="s">
-        <v>5647</v>
       </c>
     </row>
     <row r="818" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A818" s="1" t="s">
-        <v>5648</v>
+        <v>5647</v>
       </c>
       <c r="B818" s="1"/>
       <c r="C818" s="1"/>
@@ -51329,41 +51336,41 @@
         <v>مراسم</v>
       </c>
       <c r="E818" s="1" t="s">
-        <v>5649</v>
+        <v>5648</v>
       </c>
       <c r="F818" s="1"/>
       <c r="G818" s="1" t="s">
-        <v>5650</v>
+        <v>5649</v>
       </c>
       <c r="H818" s="1" t="str">
         <f>G818</f>
         <v>شعائر</v>
       </c>
       <c r="I818" s="1" t="s">
+        <v>5650</v>
+      </c>
+      <c r="J818" s="2" t="s">
         <v>5651</v>
       </c>
-      <c r="J818" s="2" t="s">
+      <c r="K818" s="1" t="s">
         <v>5652</v>
       </c>
-      <c r="K818" s="1" t="s">
+      <c r="L818" s="2" t="s">
         <v>5653</v>
       </c>
-      <c r="L818" s="2" t="s">
+      <c r="M818" s="1" t="s">
         <v>5654</v>
       </c>
-      <c r="M818" s="1" t="s">
+      <c r="N818" s="1" t="s">
         <v>5655</v>
-      </c>
-      <c r="N818" s="1" t="s">
-        <v>5656</v>
       </c>
     </row>
     <row r="819" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A819" s="1" t="s">
+        <v>5656</v>
+      </c>
+      <c r="B819" s="2" t="s">
         <v>5657</v>
-      </c>
-      <c r="B819" s="2" t="s">
-        <v>5658</v>
       </c>
       <c r="C819" s="3"/>
       <c r="D819" s="1" t="str">
@@ -51371,10 +51378,10 @@
         <v>يصاحب</v>
       </c>
       <c r="E819" s="1" t="s">
-        <v>5657</v>
+        <v>5656</v>
       </c>
       <c r="F819" s="2" t="s">
-        <v>5659</v>
+        <v>5658</v>
       </c>
       <c r="G819" s="3"/>
       <c r="H819" s="1" t="str">
@@ -51382,25 +51389,25 @@
         <v>يرافق</v>
       </c>
       <c r="I819" s="1" t="s">
-        <v>5660</v>
+        <v>5659</v>
       </c>
       <c r="J819" s="1"/>
       <c r="K819" s="1" t="s">
+        <v>5660</v>
+      </c>
+      <c r="L819" s="2" t="s">
         <v>5661</v>
       </c>
-      <c r="L819" s="2" t="s">
+      <c r="M819" s="1" t="s">
         <v>5662</v>
       </c>
-      <c r="M819" s="1" t="s">
+      <c r="N819" s="1" t="s">
         <v>5663</v>
-      </c>
-      <c r="N819" s="1" t="s">
-        <v>5664</v>
       </c>
     </row>
     <row r="820" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A820" s="1" t="s">
-        <v>5665</v>
+        <v>5664</v>
       </c>
       <c r="B820" s="1"/>
       <c r="C820" s="1"/>
@@ -51409,7 +51416,7 @@
         <v>مراقب</v>
       </c>
       <c r="E820" s="1" t="s">
-        <v>5666</v>
+        <v>5665</v>
       </c>
       <c r="F820" s="1"/>
       <c r="G820" s="1"/>
@@ -51418,25 +51425,25 @@
         <v>شاشة</v>
       </c>
       <c r="I820" s="1" t="s">
+        <v>5666</v>
+      </c>
+      <c r="J820" s="2" t="s">
         <v>5667</v>
       </c>
-      <c r="J820" s="2" t="s">
+      <c r="K820" s="1" t="s">
         <v>5668</v>
-      </c>
-      <c r="K820" s="1" t="s">
-        <v>5669</v>
       </c>
       <c r="L820" s="1"/>
       <c r="M820" s="1" t="s">
+        <v>5669</v>
+      </c>
+      <c r="N820" s="1" t="s">
         <v>5670</v>
-      </c>
-      <c r="N820" s="1" t="s">
-        <v>5671</v>
       </c>
     </row>
     <row r="821" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A821" s="1" t="s">
-        <v>5672</v>
+        <v>5671</v>
       </c>
       <c r="B821" s="1"/>
       <c r="C821" s="1"/>
@@ -51445,7 +51452,7 @@
         <v>مراهقة</v>
       </c>
       <c r="E821" s="1" t="s">
-        <v>5673</v>
+        <v>5672</v>
       </c>
       <c r="F821" s="1"/>
       <c r="G821" s="1"/>
@@ -51454,25 +51461,25 @@
         <v>سن المراهقة</v>
       </c>
       <c r="I821" s="1" t="s">
+        <v>5673</v>
+      </c>
+      <c r="J821" s="2" t="s">
         <v>5674</v>
       </c>
-      <c r="J821" s="2" t="s">
+      <c r="K821" s="1" t="s">
         <v>5675</v>
-      </c>
-      <c r="K821" s="1" t="s">
-        <v>5676</v>
       </c>
       <c r="L821" s="1"/>
       <c r="M821" s="1" t="s">
+        <v>5676</v>
+      </c>
+      <c r="N821" s="1" t="s">
         <v>5677</v>
-      </c>
-      <c r="N821" s="1" t="s">
-        <v>5678</v>
       </c>
     </row>
     <row r="822" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A822" s="1" t="s">
-        <v>5679</v>
+        <v>5678</v>
       </c>
       <c r="B822" s="1"/>
       <c r="C822" s="1"/>
@@ -51481,7 +51488,7 @@
         <v>مرح</v>
       </c>
       <c r="E822" s="1" t="s">
-        <v>5680</v>
+        <v>5679</v>
       </c>
       <c r="F822" s="1"/>
       <c r="G822" s="1"/>
@@ -51490,25 +51497,25 @@
         <v>بكل سرور</v>
       </c>
       <c r="I822" s="1" t="s">
+        <v>5680</v>
+      </c>
+      <c r="J822" s="2" t="s">
         <v>5681</v>
       </c>
-      <c r="J822" s="2" t="s">
+      <c r="K822" s="1" t="s">
         <v>5682</v>
-      </c>
-      <c r="K822" s="1" t="s">
-        <v>5683</v>
       </c>
       <c r="L822" s="1"/>
       <c r="M822" s="1" t="s">
+        <v>5683</v>
+      </c>
+      <c r="N822" s="1" t="s">
         <v>5684</v>
-      </c>
-      <c r="N822" s="1" t="s">
-        <v>5685</v>
       </c>
     </row>
     <row r="823" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A823" s="1" t="s">
-        <v>5686</v>
+        <v>5685</v>
       </c>
       <c r="B823" s="1"/>
       <c r="C823" s="1"/>
@@ -51517,7 +51524,7 @@
         <v>مرحلة الطفولة</v>
       </c>
       <c r="E823" s="1" t="s">
-        <v>5687</v>
+        <v>5686</v>
       </c>
       <c r="F823" s="1"/>
       <c r="G823" s="1"/>
@@ -51526,25 +51533,25 @@
         <v>شباب</v>
       </c>
       <c r="I823" s="1" t="s">
-        <v>5688</v>
+        <v>5687</v>
       </c>
       <c r="J823" s="1"/>
       <c r="K823" s="1" t="s">
+        <v>5688</v>
+      </c>
+      <c r="L823" s="2" t="s">
         <v>5689</v>
       </c>
-      <c r="L823" s="2" t="s">
+      <c r="M823" s="1" t="s">
         <v>5690</v>
       </c>
-      <c r="M823" s="1" t="s">
+      <c r="N823" s="1" t="s">
         <v>5691</v>
-      </c>
-      <c r="N823" s="1" t="s">
-        <v>5692</v>
       </c>
     </row>
     <row r="824" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A824" s="1" t="s">
-        <v>5693</v>
+        <v>5692</v>
       </c>
       <c r="B824" s="1"/>
       <c r="C824" s="1"/>
@@ -51553,7 +51560,7 @@
         <v>مرض</v>
       </c>
       <c r="E824" s="1" t="s">
-        <v>5694</v>
+        <v>5693</v>
       </c>
       <c r="F824" s="1"/>
       <c r="G824" s="1"/>
@@ -51562,26 +51569,26 @@
         <v>أنفلونزا</v>
       </c>
       <c r="I824" s="1" t="s">
-        <v>5695</v>
+        <v>5694</v>
       </c>
       <c r="J824" s="1"/>
       <c r="K824" s="1" t="s">
-        <v>5696</v>
+        <v>5695</v>
       </c>
       <c r="L824" s="1"/>
       <c r="M824" s="1" t="s">
+        <v>5696</v>
+      </c>
+      <c r="N824" s="1" t="s">
         <v>5697</v>
-      </c>
-      <c r="N824" s="1" t="s">
-        <v>5698</v>
       </c>
     </row>
     <row r="825" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A825" s="1" t="s">
-        <v>5693</v>
+        <v>5692</v>
       </c>
       <c r="B825" s="4" t="s">
-        <v>5699</v>
+        <v>5698</v>
       </c>
       <c r="C825" s="5"/>
       <c r="D825" s="1" t="str">
@@ -51589,39 +51596,39 @@
         <v>مريض</v>
       </c>
       <c r="E825" s="1" t="s">
-        <v>5700</v>
+        <v>5699</v>
       </c>
       <c r="F825" s="4" t="s">
-        <v>5699</v>
+        <v>5698</v>
       </c>
       <c r="G825" s="5" t="s">
-        <v>6856</v>
+        <v>6855</v>
       </c>
       <c r="H825" s="1" t="str">
         <f t="shared" ref="H825:H826" si="110">G825</f>
         <v>معتل الصحة</v>
       </c>
       <c r="I825" s="1" t="s">
-        <v>5701</v>
+        <v>5700</v>
       </c>
       <c r="J825" s="1"/>
       <c r="K825" s="1" t="s">
-        <v>5696</v>
+        <v>5695</v>
       </c>
       <c r="L825" s="1"/>
       <c r="M825" s="1" t="s">
+        <v>5701</v>
+      </c>
+      <c r="N825" s="1" t="s">
         <v>5702</v>
       </c>
-      <c r="N825" s="1" t="s">
-        <v>5703</v>
-      </c>
       <c r="P825" s="1" t="s">
-        <v>6654</v>
+        <v>6653</v>
       </c>
     </row>
     <row r="826" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A826" s="1" t="s">
-        <v>5704</v>
+        <v>5703</v>
       </c>
       <c r="B826" s="1"/>
       <c r="C826" s="1"/>
@@ -51630,34 +51637,34 @@
         <v>مرفأ</v>
       </c>
       <c r="E826" s="1" t="s">
-        <v>5705</v>
+        <v>5704</v>
       </c>
       <c r="F826" s="1"/>
       <c r="G826" s="9" t="s">
-        <v>5706</v>
+        <v>5705</v>
       </c>
       <c r="H826" s="1" t="str">
         <f t="shared" si="110"/>
         <v>خليج</v>
       </c>
       <c r="I826" s="1" t="s">
-        <v>5707</v>
+        <v>5706</v>
       </c>
       <c r="J826" s="1"/>
       <c r="K826" s="1" t="s">
-        <v>5708</v>
+        <v>5707</v>
       </c>
       <c r="L826" s="1"/>
       <c r="M826" s="1" t="s">
+        <v>5708</v>
+      </c>
+      <c r="N826" s="1" t="s">
         <v>5709</v>
-      </c>
-      <c r="N826" s="1" t="s">
-        <v>5710</v>
       </c>
     </row>
     <row r="827" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A827" s="1" t="s">
-        <v>5711</v>
+        <v>5710</v>
       </c>
       <c r="B827" s="1"/>
       <c r="C827" s="1"/>
@@ -51666,7 +51673,7 @@
         <v>مريب</v>
       </c>
       <c r="E827" s="1" t="s">
-        <v>5712</v>
+        <v>5711</v>
       </c>
       <c r="F827" s="1"/>
       <c r="G827" s="1"/>
@@ -51675,26 +51682,26 @@
         <v>مخيف</v>
       </c>
       <c r="I827" s="1" t="s">
-        <v>5713</v>
+        <v>5712</v>
       </c>
       <c r="J827" s="1"/>
       <c r="K827" s="1" t="s">
-        <v>5714</v>
+        <v>5713</v>
       </c>
       <c r="L827" s="1"/>
       <c r="M827" s="1" t="s">
+        <v>5714</v>
+      </c>
+      <c r="N827" s="1" t="s">
         <v>5715</v>
-      </c>
-      <c r="N827" s="1" t="s">
-        <v>5716</v>
       </c>
     </row>
     <row r="828" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A828" s="1" t="s">
+        <v>5716</v>
+      </c>
+      <c r="B828" s="2" t="s">
         <v>5717</v>
-      </c>
-      <c r="B828" s="2" t="s">
-        <v>5718</v>
       </c>
       <c r="C828" s="3"/>
       <c r="D828" s="1" t="str">
@@ -51702,10 +51709,10 @@
         <v>معقول</v>
       </c>
       <c r="E828" s="1" t="s">
+        <v>5718</v>
+      </c>
+      <c r="F828" s="2" t="s">
         <v>5719</v>
-      </c>
-      <c r="F828" s="2" t="s">
-        <v>5720</v>
       </c>
       <c r="G828" s="3"/>
       <c r="H828" s="1" t="str">
@@ -51713,23 +51720,23 @@
         <v>عادل</v>
       </c>
       <c r="I828" s="1" t="s">
-        <v>5721</v>
+        <v>5720</v>
       </c>
       <c r="J828" s="1"/>
       <c r="K828" s="1" t="s">
-        <v>5722</v>
+        <v>5721</v>
       </c>
       <c r="L828" s="1"/>
       <c r="M828" s="1" t="s">
+        <v>5722</v>
+      </c>
+      <c r="N828" s="1" t="s">
         <v>5723</v>
-      </c>
-      <c r="N828" s="1" t="s">
-        <v>5724</v>
       </c>
     </row>
     <row r="829" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A829" s="1" t="s">
-        <v>5725</v>
+        <v>5724</v>
       </c>
       <c r="B829" s="1"/>
       <c r="C829" s="1"/>
@@ -51738,7 +51745,7 @@
         <v>مساعد</v>
       </c>
       <c r="E829" s="1" t="s">
-        <v>5726</v>
+        <v>5725</v>
       </c>
       <c r="F829" s="1"/>
       <c r="G829" s="1"/>
@@ -51747,23 +51754,23 @@
         <v>سكرتير</v>
       </c>
       <c r="I829" s="1" t="s">
-        <v>5727</v>
+        <v>5726</v>
       </c>
       <c r="J829" s="1"/>
       <c r="K829" s="1" t="s">
-        <v>5728</v>
+        <v>5727</v>
       </c>
       <c r="L829" s="1"/>
       <c r="M829" s="1" t="s">
+        <v>5728</v>
+      </c>
+      <c r="N829" s="1" t="s">
         <v>5729</v>
-      </c>
-      <c r="N829" s="1" t="s">
-        <v>5730</v>
       </c>
     </row>
     <row r="830" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A830" s="1" t="s">
-        <v>5731</v>
+        <v>5730</v>
       </c>
       <c r="B830" s="1"/>
       <c r="C830" s="1"/>
@@ -51772,7 +51779,7 @@
         <v>مساعدة</v>
       </c>
       <c r="E830" s="1" t="s">
-        <v>5732</v>
+        <v>5731</v>
       </c>
       <c r="F830" s="1"/>
       <c r="G830" s="1"/>
@@ -51781,26 +51788,26 @@
         <v>الدعم</v>
       </c>
       <c r="I830" s="1" t="s">
-        <v>5733</v>
+        <v>5732</v>
       </c>
       <c r="J830" s="1"/>
       <c r="K830" s="1" t="s">
-        <v>5734</v>
+        <v>5733</v>
       </c>
       <c r="L830" s="1"/>
       <c r="M830" s="1" t="s">
+        <v>5734</v>
+      </c>
+      <c r="N830" s="1" t="s">
         <v>5735</v>
-      </c>
-      <c r="N830" s="1" t="s">
-        <v>5736</v>
       </c>
     </row>
     <row r="831" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A831" s="1" t="s">
-        <v>5731</v>
+        <v>5730</v>
       </c>
       <c r="B831" s="2" t="s">
-        <v>5737</v>
+        <v>5736</v>
       </c>
       <c r="C831" s="3"/>
       <c r="D831" s="1" t="str">
@@ -51808,10 +51815,10 @@
         <v>يساعد</v>
       </c>
       <c r="E831" s="1" t="s">
-        <v>5731</v>
+        <v>5730</v>
       </c>
       <c r="F831" s="2" t="s">
-        <v>5738</v>
+        <v>5737</v>
       </c>
       <c r="G831" s="3"/>
       <c r="H831" s="1" t="str">
@@ -51819,23 +51826,23 @@
         <v>يدعم</v>
       </c>
       <c r="I831" s="1" t="s">
-        <v>5734</v>
+        <v>5733</v>
       </c>
       <c r="J831" s="1"/>
       <c r="K831" s="1" t="s">
-        <v>5734</v>
+        <v>5733</v>
       </c>
       <c r="L831" s="1"/>
       <c r="M831" s="1" t="s">
+        <v>5738</v>
+      </c>
+      <c r="N831" s="1" t="s">
         <v>5739</v>
-      </c>
-      <c r="N831" s="1" t="s">
-        <v>5740</v>
       </c>
     </row>
     <row r="832" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A832" s="1" t="s">
-        <v>5741</v>
+        <v>5740</v>
       </c>
       <c r="B832" s="1"/>
       <c r="C832" s="1"/>
@@ -51844,7 +51851,7 @@
         <v>مسبار</v>
       </c>
       <c r="E832" s="1" t="s">
-        <v>5742</v>
+        <v>5741</v>
       </c>
       <c r="F832" s="1"/>
       <c r="G832" s="1"/>
@@ -51853,26 +51860,26 @@
         <v>كبسولة</v>
       </c>
       <c r="I832" s="1" t="s">
-        <v>5743</v>
+        <v>5742</v>
       </c>
       <c r="J832" s="1"/>
       <c r="K832" s="1" t="s">
-        <v>5744</v>
+        <v>5743</v>
       </c>
       <c r="L832" s="1"/>
       <c r="M832" s="1" t="s">
+        <v>5744</v>
+      </c>
+      <c r="N832" s="1" t="s">
         <v>5745</v>
-      </c>
-      <c r="N832" s="1" t="s">
-        <v>5746</v>
       </c>
     </row>
     <row r="833" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A833" s="1" t="s">
+        <v>5746</v>
+      </c>
+      <c r="B833" s="2" t="s">
         <v>5747</v>
-      </c>
-      <c r="B833" s="2" t="s">
-        <v>5748</v>
       </c>
       <c r="C833" s="3"/>
       <c r="D833" s="1" t="str">
@@ -51880,7 +51887,7 @@
         <v>عادة</v>
       </c>
       <c r="E833" s="1" t="s">
-        <v>5749</v>
+        <v>5748</v>
       </c>
       <c r="F833" s="1"/>
       <c r="G833" s="1"/>
@@ -51889,25 +51896,25 @@
         <v>بشكل طبيعي</v>
       </c>
       <c r="I833" s="1" t="s">
+        <v>5749</v>
+      </c>
+      <c r="J833" s="2" t="s">
         <v>5750</v>
       </c>
-      <c r="J833" s="2" t="s">
+      <c r="K833" s="1" t="s">
         <v>5751</v>
-      </c>
-      <c r="K833" s="1" t="s">
-        <v>5752</v>
       </c>
       <c r="L833" s="1"/>
       <c r="M833" s="1" t="s">
+        <v>5752</v>
+      </c>
+      <c r="N833" s="1" t="s">
         <v>5753</v>
-      </c>
-      <c r="N833" s="1" t="s">
-        <v>5754</v>
       </c>
     </row>
     <row r="834" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A834" s="1" t="s">
-        <v>5755</v>
+        <v>5754</v>
       </c>
       <c r="B834" s="1"/>
       <c r="C834" s="1"/>
@@ -51916,7 +51923,7 @@
         <v>مسرح</v>
       </c>
       <c r="E834" s="1" t="s">
-        <v>5756</v>
+        <v>5755</v>
       </c>
       <c r="F834" s="1"/>
       <c r="G834" s="1"/>
@@ -51925,23 +51932,23 @@
         <v>سينما</v>
       </c>
       <c r="I834" s="1" t="s">
-        <v>5757</v>
+        <v>5756</v>
       </c>
       <c r="J834" s="1"/>
       <c r="K834" s="1" t="s">
-        <v>5758</v>
+        <v>5757</v>
       </c>
       <c r="L834" s="1"/>
       <c r="M834" s="1" t="s">
+        <v>5758</v>
+      </c>
+      <c r="N834" s="1" t="s">
         <v>5759</v>
-      </c>
-      <c r="N834" s="1" t="s">
-        <v>5760</v>
       </c>
     </row>
     <row r="835" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A835" s="1" t="s">
-        <v>5761</v>
+        <v>5760</v>
       </c>
       <c r="B835" s="1"/>
       <c r="C835" s="1"/>
@@ -51950,7 +51957,7 @@
         <v>مسيحي</v>
       </c>
       <c r="E835" s="1" t="s">
-        <v>5762</v>
+        <v>5761</v>
       </c>
       <c r="F835" s="1"/>
       <c r="G835" s="1"/>
@@ -51959,23 +51966,23 @@
         <v>كاثوليكي</v>
       </c>
       <c r="I835" s="1" t="s">
-        <v>5763</v>
+        <v>5762</v>
       </c>
       <c r="J835" s="1"/>
       <c r="K835" s="1" t="s">
-        <v>5764</v>
+        <v>5763</v>
       </c>
       <c r="L835" s="1"/>
       <c r="M835" s="1" t="s">
+        <v>5764</v>
+      </c>
+      <c r="N835" s="1" t="s">
         <v>5765</v>
-      </c>
-      <c r="N835" s="1" t="s">
-        <v>5766</v>
       </c>
     </row>
     <row r="836" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A836" s="1" t="s">
-        <v>5767</v>
+        <v>5766</v>
       </c>
       <c r="B836" s="1"/>
       <c r="C836" s="1"/>
@@ -51984,7 +51991,7 @@
         <v>مشتبه فيه</v>
       </c>
       <c r="E836" s="1" t="s">
-        <v>5768</v>
+        <v>5767</v>
       </c>
       <c r="F836" s="1"/>
       <c r="G836" s="1"/>
@@ -51993,25 +52000,25 @@
         <v>شك</v>
       </c>
       <c r="I836" s="1" t="s">
-        <v>5769</v>
+        <v>5768</v>
       </c>
       <c r="J836" s="1"/>
       <c r="K836" s="1" t="s">
+        <v>5769</v>
+      </c>
+      <c r="L836" s="2" t="s">
         <v>5770</v>
       </c>
-      <c r="L836" s="2" t="s">
+      <c r="M836" s="1" t="s">
         <v>5771</v>
       </c>
-      <c r="M836" s="1" t="s">
+      <c r="N836" s="1" t="s">
         <v>5772</v>
-      </c>
-      <c r="N836" s="1" t="s">
-        <v>5773</v>
       </c>
     </row>
     <row r="837" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A837" s="1" t="s">
-        <v>5774</v>
+        <v>5773</v>
       </c>
       <c r="B837" s="1"/>
       <c r="C837" s="1"/>
@@ -52029,23 +52036,23 @@
         <v>تاجر</v>
       </c>
       <c r="I837" s="1" t="s">
-        <v>5775</v>
+        <v>5774</v>
       </c>
       <c r="J837" s="1"/>
       <c r="K837" s="1" t="s">
-        <v>5776</v>
+        <v>5775</v>
       </c>
       <c r="L837" s="1"/>
       <c r="M837" s="1" t="s">
+        <v>5776</v>
+      </c>
+      <c r="N837" s="1" t="s">
         <v>5777</v>
-      </c>
-      <c r="N837" s="1" t="s">
-        <v>5778</v>
       </c>
     </row>
     <row r="838" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A838" s="1" t="s">
-        <v>5779</v>
+        <v>5778</v>
       </c>
       <c r="B838" s="1"/>
       <c r="C838" s="1"/>
@@ -52054,7 +52061,7 @@
         <v>مشرق</v>
       </c>
       <c r="E838" s="1" t="s">
-        <v>5780</v>
+        <v>5779</v>
       </c>
       <c r="F838" s="1"/>
       <c r="G838" s="1"/>
@@ -52063,23 +52070,23 @@
         <v>يلمع</v>
       </c>
       <c r="I838" s="1" t="s">
-        <v>5781</v>
+        <v>5780</v>
       </c>
       <c r="J838" s="1"/>
       <c r="K838" s="1" t="s">
-        <v>5782</v>
+        <v>5781</v>
       </c>
       <c r="L838" s="1"/>
       <c r="M838" s="1" t="s">
+        <v>5782</v>
+      </c>
+      <c r="N838" s="1" t="s">
         <v>5783</v>
-      </c>
-      <c r="N838" s="1" t="s">
-        <v>5784</v>
       </c>
     </row>
     <row r="839" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A839" s="1" t="s">
-        <v>5785</v>
+        <v>5784</v>
       </c>
       <c r="B839" s="1"/>
       <c r="C839" s="1"/>
@@ -52088,7 +52095,7 @@
         <v>مشروب غازي</v>
       </c>
       <c r="E839" s="1" t="s">
-        <v>5786</v>
+        <v>5785</v>
       </c>
       <c r="F839" s="1"/>
       <c r="G839" s="1"/>
@@ -52097,30 +52104,30 @@
         <v>عصير الليمون</v>
       </c>
       <c r="I839" s="1" t="s">
+        <v>5786</v>
+      </c>
+      <c r="J839" s="2" t="s">
         <v>5787</v>
       </c>
-      <c r="J839" s="2" t="s">
+      <c r="K839" s="1" t="s">
         <v>5788</v>
       </c>
-      <c r="K839" s="1" t="s">
+      <c r="L839" s="2" t="s">
         <v>5789</v>
       </c>
-      <c r="L839" s="2" t="s">
+      <c r="M839" s="1" t="s">
         <v>5790</v>
       </c>
-      <c r="M839" s="1" t="s">
+      <c r="N839" s="1" t="s">
         <v>5791</v>
-      </c>
-      <c r="N839" s="1" t="s">
-        <v>5792</v>
       </c>
     </row>
     <row r="840" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A840" s="1" t="s">
+        <v>5792</v>
+      </c>
+      <c r="B840" s="2" t="s">
         <v>5793</v>
-      </c>
-      <c r="B840" s="2" t="s">
-        <v>5794</v>
       </c>
       <c r="C840" s="3"/>
       <c r="D840" s="1" t="str">
@@ -52128,7 +52135,7 @@
         <v>متاعب</v>
       </c>
       <c r="E840" s="1" t="s">
-        <v>5793</v>
+        <v>5792</v>
       </c>
       <c r="F840" s="1"/>
       <c r="G840" s="1"/>
@@ -52137,23 +52144,23 @@
         <v>مشكلة</v>
       </c>
       <c r="I840" s="1" t="s">
-        <v>5795</v>
+        <v>5794</v>
       </c>
       <c r="J840" s="1"/>
       <c r="K840" s="1" t="s">
-        <v>5796</v>
+        <v>5795</v>
       </c>
       <c r="L840" s="1"/>
       <c r="M840" s="1" t="s">
+        <v>5796</v>
+      </c>
+      <c r="N840" s="1" t="s">
         <v>5797</v>
-      </c>
-      <c r="N840" s="1" t="s">
-        <v>5798</v>
       </c>
     </row>
     <row r="841" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A841" s="1" t="s">
-        <v>5799</v>
+        <v>5798</v>
       </c>
       <c r="B841" s="1"/>
       <c r="C841" s="1"/>
@@ -52162,10 +52169,10 @@
         <v>مشهور</v>
       </c>
       <c r="E841" s="1" t="s">
+        <v>5799</v>
+      </c>
+      <c r="F841" s="2" t="s">
         <v>5800</v>
-      </c>
-      <c r="F841" s="2" t="s">
-        <v>5801</v>
       </c>
       <c r="G841" s="3"/>
       <c r="H841" s="1" t="str">
@@ -52173,23 +52180,23 @@
         <v>شائع</v>
       </c>
       <c r="I841" s="1" t="s">
-        <v>5802</v>
+        <v>5801</v>
       </c>
       <c r="J841" s="1"/>
       <c r="K841" s="1" t="s">
-        <v>5803</v>
+        <v>5802</v>
       </c>
       <c r="L841" s="1"/>
       <c r="M841" s="1" t="s">
+        <v>5803</v>
+      </c>
+      <c r="N841" s="1" t="s">
         <v>5804</v>
-      </c>
-      <c r="N841" s="1" t="s">
-        <v>5805</v>
       </c>
     </row>
     <row r="842" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A842" s="1" t="s">
-        <v>5806</v>
+        <v>5805</v>
       </c>
       <c r="B842" s="1"/>
       <c r="C842" s="1"/>
@@ -52198,7 +52205,7 @@
         <v>مصاص دماء</v>
       </c>
       <c r="E842" s="1" t="s">
-        <v>5807</v>
+        <v>5806</v>
       </c>
       <c r="F842" s="1"/>
       <c r="G842" s="1"/>
@@ -52207,27 +52214,27 @@
         <v>الاموات الاحياء</v>
       </c>
       <c r="I842" s="1" t="s">
+        <v>5807</v>
+      </c>
+      <c r="J842" s="2" t="s">
         <v>5808</v>
       </c>
-      <c r="J842" s="2" t="s">
+      <c r="K842" s="1" t="s">
         <v>5809</v>
       </c>
-      <c r="K842" s="1" t="s">
+      <c r="L842" s="2" t="s">
         <v>5810</v>
       </c>
-      <c r="L842" s="2" t="s">
+      <c r="M842" s="1" t="s">
         <v>5811</v>
       </c>
-      <c r="M842" s="1" t="s">
+      <c r="N842" s="1" t="s">
         <v>5812</v>
-      </c>
-      <c r="N842" s="1" t="s">
-        <v>5813</v>
       </c>
     </row>
     <row r="843" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A843" s="1" t="s">
-        <v>5814</v>
+        <v>5813</v>
       </c>
       <c r="B843" s="1"/>
       <c r="C843" s="1"/>
@@ -52236,7 +52243,7 @@
         <v>مصطنع</v>
       </c>
       <c r="E843" s="1" t="s">
-        <v>5815</v>
+        <v>5814</v>
       </c>
       <c r="F843" s="1"/>
       <c r="G843" s="1"/>
@@ -52245,23 +52252,23 @@
         <v>طبيعي</v>
       </c>
       <c r="I843" s="1" t="s">
-        <v>5816</v>
+        <v>5815</v>
       </c>
       <c r="J843" s="1"/>
       <c r="K843" s="1" t="s">
-        <v>5817</v>
+        <v>5816</v>
       </c>
       <c r="L843" s="1"/>
       <c r="M843" s="1" t="s">
+        <v>5817</v>
+      </c>
+      <c r="N843" s="1" t="s">
         <v>5818</v>
-      </c>
-      <c r="N843" s="1" t="s">
-        <v>5819</v>
       </c>
     </row>
     <row r="844" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A844" s="1" t="s">
-        <v>5820</v>
+        <v>5819</v>
       </c>
       <c r="B844" s="1"/>
       <c r="C844" s="1"/>
@@ -52270,7 +52277,7 @@
         <v>مصل</v>
       </c>
       <c r="E844" s="1" t="s">
-        <v>5821</v>
+        <v>5820</v>
       </c>
       <c r="F844" s="1"/>
       <c r="G844" s="1"/>
@@ -52279,25 +52286,25 @@
         <v>مضاد سمي</v>
       </c>
       <c r="I844" s="1" t="s">
+        <v>5821</v>
+      </c>
+      <c r="J844" s="2" t="s">
         <v>5822</v>
       </c>
-      <c r="J844" s="2" t="s">
+      <c r="K844" s="1" t="s">
         <v>5823</v>
-      </c>
-      <c r="K844" s="1" t="s">
-        <v>5824</v>
       </c>
       <c r="L844" s="1"/>
       <c r="M844" s="1" t="s">
+        <v>5824</v>
+      </c>
+      <c r="N844" s="1" t="s">
         <v>5825</v>
-      </c>
-      <c r="N844" s="1" t="s">
-        <v>5826</v>
       </c>
     </row>
     <row r="845" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A845" s="1" t="s">
-        <v>5827</v>
+        <v>5826</v>
       </c>
       <c r="B845" s="1"/>
       <c r="C845" s="1"/>
@@ -52306,10 +52313,10 @@
         <v>مصور فوتوغرافي</v>
       </c>
       <c r="E845" s="1" t="s">
+        <v>5827</v>
+      </c>
+      <c r="F845" s="2" t="s">
         <v>5828</v>
-      </c>
-      <c r="F845" s="2" t="s">
-        <v>5829</v>
       </c>
       <c r="G845" s="3"/>
       <c r="H845" s="1" t="str">
@@ -52317,25 +52324,25 @@
         <v>توقيع</v>
       </c>
       <c r="I845" s="1" t="s">
-        <v>5830</v>
+        <v>5829</v>
       </c>
       <c r="J845" s="1"/>
       <c r="K845" s="1" t="s">
+        <v>5830</v>
+      </c>
+      <c r="L845" s="2" t="s">
         <v>5831</v>
       </c>
-      <c r="L845" s="2" t="s">
+      <c r="M845" s="1" t="s">
         <v>5832</v>
       </c>
-      <c r="M845" s="1" t="s">
+      <c r="N845" s="1" t="s">
         <v>5833</v>
-      </c>
-      <c r="N845" s="1" t="s">
-        <v>5834</v>
       </c>
     </row>
     <row r="846" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A846" s="1" t="s">
-        <v>5835</v>
+        <v>5834</v>
       </c>
       <c r="B846" s="1"/>
       <c r="C846" s="1"/>
@@ -52344,7 +52351,7 @@
         <v>مصيبة</v>
       </c>
       <c r="E846" s="1" t="s">
-        <v>5836</v>
+        <v>5835</v>
       </c>
       <c r="F846" s="1"/>
       <c r="G846" s="1"/>
@@ -52353,28 +52360,28 @@
         <v>لسوء الحظ</v>
       </c>
       <c r="I846" s="1" t="s">
+        <v>5836</v>
+      </c>
+      <c r="J846" s="2" t="s">
         <v>5837</v>
       </c>
-      <c r="J846" s="2" t="s">
+      <c r="K846" s="1" t="s">
         <v>5838</v>
-      </c>
-      <c r="K846" s="1" t="s">
-        <v>5839</v>
       </c>
       <c r="L846" s="1"/>
       <c r="M846" s="1" t="s">
+        <v>5839</v>
+      </c>
+      <c r="N846" s="1" t="s">
         <v>5840</v>
-      </c>
-      <c r="N846" s="1" t="s">
-        <v>5841</v>
       </c>
     </row>
     <row r="847" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A847" s="1" t="s">
-        <v>5835</v>
+        <v>5834</v>
       </c>
       <c r="B847" s="2" t="s">
-        <v>5842</v>
+        <v>5841</v>
       </c>
       <c r="C847" s="3"/>
       <c r="D847" s="1" t="str">
@@ -52382,7 +52389,7 @@
         <v>أزمة</v>
       </c>
       <c r="E847" s="1" t="s">
-        <v>5843</v>
+        <v>5842</v>
       </c>
       <c r="F847" s="2" t="s">
         <v>2561</v>
@@ -52393,25 +52400,25 @@
         <v>حالة</v>
       </c>
       <c r="I847" s="1" t="s">
+        <v>5843</v>
+      </c>
+      <c r="J847" s="2" t="s">
         <v>5844</v>
       </c>
-      <c r="J847" s="2" t="s">
-        <v>5845</v>
-      </c>
       <c r="K847" s="1" t="s">
-        <v>5839</v>
+        <v>5838</v>
       </c>
       <c r="L847" s="1"/>
       <c r="M847" s="1" t="s">
+        <v>5845</v>
+      </c>
+      <c r="N847" s="1" t="s">
         <v>5846</v>
-      </c>
-      <c r="N847" s="1" t="s">
-        <v>5847</v>
       </c>
     </row>
     <row r="848" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A848" s="1" t="s">
-        <v>5848</v>
+        <v>5847</v>
       </c>
       <c r="B848" s="1"/>
       <c r="C848" s="1"/>
@@ -52420,7 +52427,7 @@
         <v>مضحك</v>
       </c>
       <c r="E848" s="1" t="s">
-        <v>5849</v>
+        <v>5848</v>
       </c>
       <c r="F848" s="1"/>
       <c r="G848" s="1"/>
@@ -52429,28 +52436,28 @@
         <v>بارع</v>
       </c>
       <c r="I848" s="1" t="s">
-        <v>5850</v>
+        <v>5849</v>
       </c>
       <c r="J848" s="1"/>
       <c r="K848" s="1" t="s">
+        <v>5850</v>
+      </c>
+      <c r="L848" s="2" t="s">
         <v>5851</v>
       </c>
-      <c r="L848" s="2" t="s">
+      <c r="M848" s="1" t="s">
         <v>5852</v>
       </c>
-      <c r="M848" s="1" t="s">
+      <c r="N848" s="1" t="s">
         <v>5853</v>
-      </c>
-      <c r="N848" s="1" t="s">
-        <v>5854</v>
       </c>
     </row>
     <row r="849" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A849" s="1" t="s">
+        <v>5854</v>
+      </c>
+      <c r="B849" s="2" t="s">
         <v>5855</v>
-      </c>
-      <c r="B849" s="2" t="s">
-        <v>5856</v>
       </c>
       <c r="C849" s="3"/>
       <c r="D849" s="1" t="str">
@@ -52458,10 +52465,10 @@
         <v>يمضغ</v>
       </c>
       <c r="E849" s="1" t="s">
+        <v>5856</v>
+      </c>
+      <c r="F849" s="2" t="s">
         <v>5857</v>
-      </c>
-      <c r="F849" s="2" t="s">
-        <v>5858</v>
       </c>
       <c r="G849" s="3"/>
       <c r="H849" s="1" t="str">
@@ -52469,23 +52476,23 @@
         <v>يبتلع</v>
       </c>
       <c r="I849" s="1" t="s">
-        <v>5859</v>
+        <v>5858</v>
       </c>
       <c r="J849" s="1"/>
       <c r="K849" s="1" t="s">
-        <v>5860</v>
+        <v>5859</v>
       </c>
       <c r="L849" s="1"/>
       <c r="M849" s="1" t="s">
+        <v>5860</v>
+      </c>
+      <c r="N849" s="1" t="s">
         <v>5861</v>
-      </c>
-      <c r="N849" s="1" t="s">
-        <v>5862</v>
       </c>
     </row>
     <row r="850" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A850" s="1" t="s">
-        <v>5863</v>
+        <v>5862</v>
       </c>
       <c r="B850" s="1"/>
       <c r="C850" s="1"/>
@@ -52494,10 +52501,10 @@
         <v>مطار</v>
       </c>
       <c r="E850" s="1" t="s">
-        <v>5864</v>
+        <v>5863</v>
       </c>
       <c r="F850" s="2" t="s">
-        <v>5532</v>
+        <v>5531</v>
       </c>
       <c r="G850" s="3"/>
       <c r="H850" s="1" t="str">
@@ -52505,23 +52512,23 @@
         <v>محطة</v>
       </c>
       <c r="I850" s="1" t="s">
-        <v>5865</v>
+        <v>5864</v>
       </c>
       <c r="J850" s="1"/>
       <c r="K850" s="1" t="s">
-        <v>5866</v>
+        <v>5865</v>
       </c>
       <c r="L850" s="1"/>
       <c r="M850" s="1" t="s">
+        <v>5866</v>
+      </c>
+      <c r="N850" s="1" t="s">
         <v>5867</v>
-      </c>
-      <c r="N850" s="1" t="s">
-        <v>5868</v>
       </c>
     </row>
     <row r="851" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A851" s="1" t="s">
-        <v>5869</v>
+        <v>5868</v>
       </c>
       <c r="B851" s="1"/>
       <c r="C851" s="1"/>
@@ -52530,7 +52537,7 @@
         <v>مطاردة</v>
       </c>
       <c r="E851" s="1" t="s">
-        <v>5870</v>
+        <v>5869</v>
       </c>
       <c r="F851" s="1"/>
       <c r="G851" s="1"/>
@@ -52539,23 +52546,23 @@
         <v>إتبع</v>
       </c>
       <c r="I851" s="1" t="s">
-        <v>5871</v>
+        <v>5870</v>
       </c>
       <c r="J851" s="1"/>
       <c r="K851" s="1" t="s">
-        <v>5872</v>
+        <v>5871</v>
       </c>
       <c r="L851" s="1"/>
       <c r="M851" s="1" t="s">
+        <v>5872</v>
+      </c>
+      <c r="N851" s="1" t="s">
         <v>5873</v>
-      </c>
-      <c r="N851" s="1" t="s">
-        <v>5874</v>
       </c>
     </row>
     <row r="852" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A852" s="1" t="s">
-        <v>5875</v>
+        <v>5874</v>
       </c>
       <c r="B852" s="1"/>
       <c r="C852" s="1"/>
@@ -52573,18 +52580,18 @@
         <v>حانة</v>
       </c>
       <c r="I852" s="1" t="s">
-        <v>5876</v>
+        <v>5875</v>
       </c>
       <c r="J852" s="1"/>
       <c r="K852" s="1" t="s">
-        <v>5877</v>
+        <v>5876</v>
       </c>
       <c r="L852" s="1"/>
       <c r="M852" s="1" t="s">
+        <v>5877</v>
+      </c>
+      <c r="N852" s="1" t="s">
         <v>5878</v>
-      </c>
-      <c r="N852" s="1" t="s">
-        <v>5879</v>
       </c>
     </row>
     <row r="853" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -52592,7 +52599,7 @@
         <v>293</v>
       </c>
       <c r="B853" s="2" t="s">
-        <v>5880</v>
+        <v>5879</v>
       </c>
       <c r="C853" s="3"/>
       <c r="D853" s="1" t="str">
@@ -52600,10 +52607,10 @@
         <v>تلاعب</v>
       </c>
       <c r="E853" s="1" t="s">
+        <v>5880</v>
+      </c>
+      <c r="F853" s="2" t="s">
         <v>5881</v>
-      </c>
-      <c r="F853" s="2" t="s">
-        <v>5882</v>
       </c>
       <c r="G853" s="3"/>
       <c r="H853" s="1" t="str">
@@ -52611,23 +52618,23 @@
         <v>تحكم</v>
       </c>
       <c r="I853" s="1" t="s">
-        <v>5883</v>
+        <v>5882</v>
       </c>
       <c r="J853" s="1"/>
       <c r="K853" s="1" t="s">
-        <v>5884</v>
+        <v>5883</v>
       </c>
       <c r="L853" s="1"/>
       <c r="M853" s="1" t="s">
+        <v>5884</v>
+      </c>
+      <c r="N853" s="1" t="s">
         <v>5885</v>
-      </c>
-      <c r="N853" s="1" t="s">
-        <v>5886</v>
       </c>
     </row>
     <row r="854" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A854" s="1" t="s">
-        <v>5887</v>
+        <v>5886</v>
       </c>
       <c r="B854" s="1"/>
       <c r="C854" s="1"/>
@@ -52649,19 +52656,19 @@
       </c>
       <c r="J854" s="1"/>
       <c r="K854" s="1" t="s">
-        <v>5888</v>
+        <v>5887</v>
       </c>
       <c r="L854" s="1"/>
       <c r="M854" s="1" t="s">
+        <v>5888</v>
+      </c>
+      <c r="N854" s="1" t="s">
         <v>5889</v>
-      </c>
-      <c r="N854" s="1" t="s">
-        <v>5890</v>
       </c>
     </row>
     <row r="855" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A855" s="1" t="s">
-        <v>5719</v>
+        <v>5718</v>
       </c>
       <c r="B855" s="1"/>
       <c r="C855" s="1"/>
@@ -52670,7 +52677,7 @@
         <v>معرض</v>
       </c>
       <c r="E855" s="1" t="s">
-        <v>5891</v>
+        <v>5890</v>
       </c>
       <c r="F855" s="1"/>
       <c r="G855" s="1"/>
@@ -52679,25 +52686,25 @@
         <v>صالة عرض</v>
       </c>
       <c r="I855" s="1" t="s">
+        <v>5891</v>
+      </c>
+      <c r="J855" s="2" t="s">
         <v>5892</v>
       </c>
-      <c r="J855" s="2" t="s">
-        <v>5893</v>
-      </c>
       <c r="K855" s="1" t="s">
-        <v>5721</v>
+        <v>5720</v>
       </c>
       <c r="L855" s="1"/>
       <c r="M855" s="1" t="s">
+        <v>5893</v>
+      </c>
+      <c r="N855" s="1" t="s">
         <v>5894</v>
-      </c>
-      <c r="N855" s="1" t="s">
-        <v>5895</v>
       </c>
     </row>
     <row r="856" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A856" s="1" t="s">
-        <v>5896</v>
+        <v>5895</v>
       </c>
       <c r="B856" s="1"/>
       <c r="C856" s="1"/>
@@ -52706,7 +52713,7 @@
         <v>معركة</v>
       </c>
       <c r="E856" s="1" t="s">
-        <v>5897</v>
+        <v>5896</v>
       </c>
       <c r="F856" s="1"/>
       <c r="G856" s="1"/>
@@ -52715,23 +52722,23 @@
         <v>حرب</v>
       </c>
       <c r="I856" s="1" t="s">
-        <v>5898</v>
+        <v>5897</v>
       </c>
       <c r="J856" s="1"/>
       <c r="K856" s="1" t="s">
-        <v>5899</v>
+        <v>5898</v>
       </c>
       <c r="L856" s="1"/>
       <c r="M856" s="1" t="s">
+        <v>5899</v>
+      </c>
+      <c r="N856" s="1" t="s">
         <v>5900</v>
-      </c>
-      <c r="N856" s="1" t="s">
-        <v>5901</v>
       </c>
     </row>
     <row r="857" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A857" s="1" t="s">
-        <v>5718</v>
+        <v>5717</v>
       </c>
       <c r="B857" s="1"/>
       <c r="C857" s="1"/>
@@ -52740,7 +52747,7 @@
         <v>معقول</v>
       </c>
       <c r="E857" s="1" t="s">
-        <v>5902</v>
+        <v>5901</v>
       </c>
       <c r="F857" s="1"/>
       <c r="G857" s="1"/>
@@ -52749,23 +52756,23 @@
         <v>تفسير</v>
       </c>
       <c r="I857" s="1" t="s">
-        <v>5903</v>
+        <v>5902</v>
       </c>
       <c r="J857" s="1"/>
       <c r="K857" s="1" t="s">
-        <v>5904</v>
+        <v>5903</v>
       </c>
       <c r="L857" s="1"/>
       <c r="M857" s="1" t="s">
+        <v>5904</v>
+      </c>
+      <c r="N857" s="1" t="s">
         <v>5905</v>
-      </c>
-      <c r="N857" s="1" t="s">
-        <v>5906</v>
       </c>
     </row>
     <row r="858" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A858" s="1" t="s">
-        <v>5907</v>
+        <v>5906</v>
       </c>
       <c r="B858" s="1"/>
       <c r="C858" s="1"/>
@@ -52774,7 +52781,7 @@
         <v>معكرونة</v>
       </c>
       <c r="E858" s="1" t="s">
-        <v>5908</v>
+        <v>5907</v>
       </c>
       <c r="F858" s="1"/>
       <c r="G858" s="1"/>
@@ -52783,23 +52790,23 @@
         <v>لازانيا</v>
       </c>
       <c r="I858" s="1" t="s">
-        <v>5909</v>
+        <v>5908</v>
       </c>
       <c r="J858" s="1"/>
       <c r="K858" s="1" t="s">
-        <v>5910</v>
+        <v>5909</v>
       </c>
       <c r="L858" s="1"/>
       <c r="M858" s="1" t="s">
+        <v>5910</v>
+      </c>
+      <c r="N858" s="1" t="s">
         <v>5911</v>
-      </c>
-      <c r="N858" s="1" t="s">
-        <v>5912</v>
       </c>
     </row>
     <row r="859" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A859" s="1" t="s">
-        <v>5913</v>
+        <v>5912</v>
       </c>
       <c r="B859" s="1"/>
       <c r="C859" s="1"/>
@@ -52808,7 +52815,7 @@
         <v>معلم</v>
       </c>
       <c r="E859" s="1" t="s">
-        <v>5914</v>
+        <v>5913</v>
       </c>
       <c r="F859" s="1"/>
       <c r="G859" s="1"/>
@@ -52817,27 +52824,27 @@
         <v>طالب علم</v>
       </c>
       <c r="I859" s="1" t="s">
+        <v>5914</v>
+      </c>
+      <c r="J859" s="2" t="s">
         <v>5915</v>
       </c>
-      <c r="J859" s="2" t="s">
+      <c r="K859" s="1" t="s">
         <v>5916</v>
       </c>
-      <c r="K859" s="1" t="s">
+      <c r="L859" s="2" t="s">
         <v>5917</v>
       </c>
-      <c r="L859" s="2" t="s">
+      <c r="M859" s="1" t="s">
         <v>5918</v>
       </c>
-      <c r="M859" s="1" t="s">
+      <c r="N859" s="1" t="s">
         <v>5919</v>
-      </c>
-      <c r="N859" s="1" t="s">
-        <v>5920</v>
       </c>
     </row>
     <row r="860" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A860" s="1" t="s">
-        <v>5921</v>
+        <v>5920</v>
       </c>
       <c r="B860" s="1"/>
       <c r="C860" s="1"/>
@@ -52846,7 +52853,7 @@
         <v>معلومة</v>
       </c>
       <c r="E860" s="1" t="s">
-        <v>5922</v>
+        <v>5921</v>
       </c>
       <c r="F860" s="1"/>
       <c r="G860" s="1"/>
@@ -52855,23 +52862,23 @@
         <v>بيانات</v>
       </c>
       <c r="I860" s="1" t="s">
-        <v>5923</v>
+        <v>5922</v>
       </c>
       <c r="J860" s="1"/>
       <c r="K860" s="1" t="s">
-        <v>5924</v>
+        <v>5923</v>
       </c>
       <c r="L860" s="1"/>
       <c r="M860" s="1" t="s">
+        <v>5924</v>
+      </c>
+      <c r="N860" s="1" t="s">
         <v>5925</v>
-      </c>
-      <c r="N860" s="1" t="s">
-        <v>5926</v>
       </c>
     </row>
     <row r="861" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A861" s="1" t="s">
-        <v>5927</v>
+        <v>5926</v>
       </c>
       <c r="B861" s="1"/>
       <c r="C861" s="1"/>
@@ -52880,7 +52887,7 @@
         <v>مغبر</v>
       </c>
       <c r="E861" s="1" t="s">
-        <v>5928</v>
+        <v>5927</v>
       </c>
       <c r="F861" s="1"/>
       <c r="G861" s="1"/>
@@ -52889,23 +52896,23 @@
         <v>صدئ</v>
       </c>
       <c r="I861" s="1" t="s">
-        <v>5929</v>
+        <v>5928</v>
       </c>
       <c r="J861" s="1"/>
       <c r="K861" s="1" t="s">
-        <v>5930</v>
+        <v>5929</v>
       </c>
       <c r="L861" s="1"/>
       <c r="M861" s="1" t="s">
+        <v>5930</v>
+      </c>
+      <c r="N861" s="1" t="s">
         <v>5931</v>
-      </c>
-      <c r="N861" s="1" t="s">
-        <v>5932</v>
       </c>
     </row>
     <row r="862" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A862" s="1" t="s">
-        <v>5933</v>
+        <v>5932</v>
       </c>
       <c r="B862" s="1"/>
       <c r="C862" s="1"/>
@@ -52914,7 +52921,7 @@
         <v>مغلق</v>
       </c>
       <c r="E862" s="1" t="s">
-        <v>5934</v>
+        <v>5933</v>
       </c>
       <c r="F862" s="1"/>
       <c r="G862" s="1"/>
@@ -52923,23 +52930,23 @@
         <v>مقفل</v>
       </c>
       <c r="I862" s="1" t="s">
-        <v>5935</v>
+        <v>5934</v>
       </c>
       <c r="J862" s="1"/>
       <c r="K862" s="1" t="s">
-        <v>5936</v>
+        <v>5935</v>
       </c>
       <c r="L862" s="1"/>
       <c r="M862" s="1" t="s">
+        <v>5936</v>
+      </c>
+      <c r="N862" s="1" t="s">
         <v>5937</v>
-      </c>
-      <c r="N862" s="1" t="s">
-        <v>5938</v>
       </c>
     </row>
     <row r="863" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A863" s="1" t="s">
-        <v>5939</v>
+        <v>5938</v>
       </c>
       <c r="B863" s="1"/>
       <c r="C863" s="1"/>
@@ -52948,7 +52955,7 @@
         <v>مفاعل</v>
       </c>
       <c r="E863" s="1" t="s">
-        <v>5940</v>
+        <v>5939</v>
       </c>
       <c r="F863" s="1"/>
       <c r="G863" s="1"/>
@@ -52957,25 +52964,25 @@
         <v>مولد كهرباء</v>
       </c>
       <c r="I863" s="1" t="s">
+        <v>5940</v>
+      </c>
+      <c r="J863" s="2" t="s">
         <v>5941</v>
       </c>
-      <c r="J863" s="2" t="s">
+      <c r="K863" s="1" t="s">
         <v>5942</v>
-      </c>
-      <c r="K863" s="1" t="s">
-        <v>5943</v>
       </c>
       <c r="L863" s="1"/>
       <c r="M863" s="1" t="s">
+        <v>5943</v>
+      </c>
+      <c r="N863" s="1" t="s">
         <v>5944</v>
-      </c>
-      <c r="N863" s="1" t="s">
-        <v>5945</v>
       </c>
     </row>
     <row r="864" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A864" s="1" t="s">
-        <v>5946</v>
+        <v>5945</v>
       </c>
       <c r="B864" s="1"/>
       <c r="C864" s="1"/>
@@ -52984,7 +52991,7 @@
         <v>مفوض</v>
       </c>
       <c r="E864" s="1" t="s">
-        <v>5947</v>
+        <v>5946</v>
       </c>
       <c r="F864" s="1"/>
       <c r="G864" s="1"/>
@@ -52993,23 +53000,23 @@
         <v>مفتش</v>
       </c>
       <c r="I864" s="1" t="s">
-        <v>5948</v>
+        <v>5947</v>
       </c>
       <c r="J864" s="1"/>
       <c r="K864" s="1" t="s">
-        <v>5949</v>
+        <v>5948</v>
       </c>
       <c r="L864" s="1"/>
       <c r="M864" s="1" t="s">
+        <v>5949</v>
+      </c>
+      <c r="N864" s="1" t="s">
         <v>5950</v>
-      </c>
-      <c r="N864" s="1" t="s">
-        <v>5951</v>
       </c>
     </row>
     <row r="865" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A865" s="1" t="s">
-        <v>5952</v>
+        <v>5951</v>
       </c>
       <c r="B865" s="1"/>
       <c r="C865" s="1"/>
@@ -53030,17 +53037,17 @@
         <v>1535</v>
       </c>
       <c r="J865" s="2" t="s">
+        <v>5952</v>
+      </c>
+      <c r="K865" s="1" t="s">
         <v>5953</v>
-      </c>
-      <c r="K865" s="1" t="s">
-        <v>5954</v>
       </c>
       <c r="L865" s="1"/>
       <c r="M865" s="1" t="s">
+        <v>5954</v>
+      </c>
+      <c r="N865" s="1" t="s">
         <v>5955</v>
-      </c>
-      <c r="N865" s="1" t="s">
-        <v>5956</v>
       </c>
     </row>
     <row r="866" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -53048,7 +53055,7 @@
         <v>2427</v>
       </c>
       <c r="B866" s="2" t="s">
-        <v>5957</v>
+        <v>5956</v>
       </c>
       <c r="C866" s="3"/>
       <c r="D866" s="1" t="str">
@@ -53056,7 +53063,7 @@
         <v>مغادرة</v>
       </c>
       <c r="E866" s="1" t="s">
-        <v>5958</v>
+        <v>5957</v>
       </c>
       <c r="F866" s="1"/>
       <c r="G866" s="1"/>
@@ -53065,23 +53072,23 @@
         <v>وصول</v>
       </c>
       <c r="I866" s="1" t="s">
-        <v>5959</v>
+        <v>5958</v>
       </c>
       <c r="J866" s="1"/>
       <c r="K866" s="1" t="s">
-        <v>5960</v>
+        <v>5959</v>
       </c>
       <c r="L866" s="1"/>
       <c r="M866" s="1" t="s">
+        <v>5960</v>
+      </c>
+      <c r="N866" s="1" t="s">
         <v>5961</v>
-      </c>
-      <c r="N866" s="1" t="s">
-        <v>5962</v>
       </c>
     </row>
     <row r="867" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A867" s="1" t="s">
-        <v>5963</v>
+        <v>5962</v>
       </c>
       <c r="B867" s="1"/>
       <c r="C867" s="1"/>
@@ -53093,7 +53100,7 @@
         <v>2852</v>
       </c>
       <c r="F867" s="2" t="s">
-        <v>5964</v>
+        <v>5963</v>
       </c>
       <c r="G867" s="3"/>
       <c r="H867" s="1" t="str">
@@ -53101,23 +53108,23 @@
         <v>قبر</v>
       </c>
       <c r="I867" s="1" t="s">
-        <v>5965</v>
+        <v>5964</v>
       </c>
       <c r="J867" s="1"/>
       <c r="K867" s="1" t="s">
-        <v>5966</v>
+        <v>5965</v>
       </c>
       <c r="L867" s="1"/>
       <c r="M867" s="1" t="s">
+        <v>5966</v>
+      </c>
+      <c r="N867" s="1" t="s">
         <v>5967</v>
-      </c>
-      <c r="N867" s="1" t="s">
-        <v>5968</v>
       </c>
     </row>
     <row r="868" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A868" s="1" t="s">
-        <v>5969</v>
+        <v>5968</v>
       </c>
       <c r="B868" s="1"/>
       <c r="C868" s="1"/>
@@ -53126,7 +53133,7 @@
         <v>مقدار</v>
       </c>
       <c r="E868" s="1" t="s">
-        <v>5970</v>
+        <v>5969</v>
       </c>
       <c r="F868" s="1"/>
       <c r="G868" s="1"/>
@@ -53135,26 +53142,26 @@
         <v>مجموع</v>
       </c>
       <c r="I868" s="1" t="s">
-        <v>5971</v>
+        <v>5970</v>
       </c>
       <c r="J868" s="1"/>
       <c r="K868" s="1" t="s">
-        <v>5972</v>
+        <v>5971</v>
       </c>
       <c r="L868" s="1"/>
       <c r="M868" s="1" t="s">
+        <v>5972</v>
+      </c>
+      <c r="N868" s="1" t="s">
         <v>5973</v>
-      </c>
-      <c r="N868" s="1" t="s">
-        <v>5974</v>
       </c>
     </row>
     <row r="869" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A869" s="1" t="s">
+        <v>5974</v>
+      </c>
+      <c r="B869" s="2" t="s">
         <v>5975</v>
-      </c>
-      <c r="B869" s="2" t="s">
-        <v>5976</v>
       </c>
       <c r="C869" s="3"/>
       <c r="D869" s="1" t="str">
@@ -53162,10 +53169,10 @@
         <v>مقر رئيسي</v>
       </c>
       <c r="E869" s="1" t="s">
+        <v>5976</v>
+      </c>
+      <c r="F869" s="2" t="s">
         <v>5977</v>
-      </c>
-      <c r="F869" s="2" t="s">
-        <v>5978</v>
       </c>
       <c r="G869" s="3"/>
       <c r="H869" s="1" t="str">
@@ -53173,18 +53180,18 @@
         <v>مركز</v>
       </c>
       <c r="I869" s="1" t="s">
-        <v>5979</v>
+        <v>5978</v>
       </c>
       <c r="J869" s="1"/>
       <c r="K869" s="1" t="s">
-        <v>5980</v>
+        <v>5979</v>
       </c>
       <c r="L869" s="1"/>
       <c r="M869" s="1" t="s">
+        <v>5980</v>
+      </c>
+      <c r="N869" s="1" t="s">
         <v>5981</v>
-      </c>
-      <c r="N869" s="1" t="s">
-        <v>5982</v>
       </c>
     </row>
     <row r="870" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -53198,7 +53205,7 @@
         <v>مقزز</v>
       </c>
       <c r="E870" s="1" t="s">
-        <v>5983</v>
+        <v>5982</v>
       </c>
       <c r="F870" s="1"/>
       <c r="G870" s="1"/>
@@ -53207,25 +53214,25 @@
         <v>قذر</v>
       </c>
       <c r="I870" s="1" t="s">
-        <v>5984</v>
+        <v>5983</v>
       </c>
       <c r="J870" s="1"/>
       <c r="K870" s="1" t="s">
+        <v>5984</v>
+      </c>
+      <c r="L870" s="2" t="s">
         <v>5985</v>
       </c>
-      <c r="L870" s="2" t="s">
+      <c r="M870" s="1" t="s">
         <v>5986</v>
       </c>
-      <c r="M870" s="1" t="s">
+      <c r="N870" s="1" t="s">
         <v>5987</v>
-      </c>
-      <c r="N870" s="1" t="s">
-        <v>5988</v>
       </c>
     </row>
     <row r="871" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A871" s="1" t="s">
-        <v>5989</v>
+        <v>5988</v>
       </c>
       <c r="B871" s="1"/>
       <c r="C871" s="1"/>
@@ -53234,7 +53241,7 @@
         <v>مكان ما</v>
       </c>
       <c r="E871" s="1" t="s">
-        <v>5990</v>
+        <v>5989</v>
       </c>
       <c r="F871" s="1"/>
       <c r="G871" s="1"/>
@@ -53243,28 +53250,28 @@
         <v>في مكان آخر</v>
       </c>
       <c r="I871" s="1" t="s">
+        <v>5990</v>
+      </c>
+      <c r="J871" s="2" t="s">
         <v>5991</v>
       </c>
-      <c r="J871" s="2" t="s">
+      <c r="K871" s="1" t="s">
         <v>5992</v>
-      </c>
-      <c r="K871" s="1" t="s">
-        <v>5993</v>
       </c>
       <c r="L871" s="1"/>
       <c r="M871" s="1" t="s">
+        <v>5993</v>
+      </c>
+      <c r="N871" s="1" t="s">
         <v>5994</v>
-      </c>
-      <c r="N871" s="1" t="s">
-        <v>5995</v>
       </c>
     </row>
     <row r="872" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A872" s="1" t="s">
+        <v>5995</v>
+      </c>
+      <c r="B872" s="2" t="s">
         <v>5996</v>
-      </c>
-      <c r="B872" s="2" t="s">
-        <v>5997</v>
       </c>
       <c r="C872" s="3"/>
       <c r="D872" s="1" t="str">
@@ -53272,10 +53279,10 @@
         <v>مغسلة</v>
       </c>
       <c r="E872" s="1" t="s">
+        <v>5997</v>
+      </c>
+      <c r="F872" s="2" t="s">
         <v>5998</v>
-      </c>
-      <c r="F872" s="2" t="s">
-        <v>5999</v>
       </c>
       <c r="G872" s="3"/>
       <c r="H872" s="1" t="str">
@@ -53283,28 +53290,28 @@
         <v>حمام</v>
       </c>
       <c r="I872" s="1" t="s">
-        <v>6000</v>
+        <v>5999</v>
       </c>
       <c r="J872" s="1"/>
       <c r="K872" s="1" t="s">
+        <v>6000</v>
+      </c>
+      <c r="L872" s="2" t="s">
         <v>6001</v>
       </c>
-      <c r="L872" s="2" t="s">
+      <c r="M872" s="1" t="s">
         <v>6002</v>
       </c>
-      <c r="M872" s="1" t="s">
+      <c r="N872" s="1" t="s">
         <v>6003</v>
-      </c>
-      <c r="N872" s="1" t="s">
-        <v>6004</v>
       </c>
     </row>
     <row r="873" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A873" s="1" t="s">
+        <v>6004</v>
+      </c>
+      <c r="B873" s="2" t="s">
         <v>6005</v>
-      </c>
-      <c r="B873" s="2" t="s">
-        <v>6006</v>
       </c>
       <c r="C873" s="3"/>
       <c r="D873" s="1" t="str">
@@ -53312,7 +53319,7 @@
         <v>مكتب</v>
       </c>
       <c r="E873" s="1" t="s">
-        <v>6007</v>
+        <v>6006</v>
       </c>
       <c r="F873" s="2" t="s">
         <v>5026</v>
@@ -53323,27 +53330,27 @@
         <v>طاولة</v>
       </c>
       <c r="I873" s="1" t="s">
+        <v>6007</v>
+      </c>
+      <c r="J873" s="2" t="s">
         <v>6008</v>
       </c>
-      <c r="J873" s="2" t="s">
+      <c r="K873" s="1" t="s">
         <v>6009</v>
       </c>
-      <c r="K873" s="1" t="s">
+      <c r="L873" s="2" t="s">
         <v>6010</v>
       </c>
-      <c r="L873" s="2" t="s">
+      <c r="M873" s="1" t="s">
         <v>6011</v>
       </c>
-      <c r="M873" s="1" t="s">
+      <c r="N873" s="1" t="s">
         <v>6012</v>
-      </c>
-      <c r="N873" s="1" t="s">
-        <v>6013</v>
       </c>
     </row>
     <row r="874" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A874" s="1" t="s">
-        <v>6014</v>
+        <v>6013</v>
       </c>
       <c r="B874" s="1"/>
       <c r="C874" s="1"/>
@@ -53352,7 +53359,7 @@
         <v>ملك</v>
       </c>
       <c r="E874" s="1" t="s">
-        <v>6015</v>
+        <v>6014</v>
       </c>
       <c r="F874" s="1"/>
       <c r="G874" s="1"/>
@@ -53361,23 +53368,23 @@
         <v>ملكة</v>
       </c>
       <c r="I874" s="1" t="s">
-        <v>6016</v>
+        <v>6015</v>
       </c>
       <c r="J874" s="1"/>
       <c r="K874" s="1" t="s">
-        <v>6017</v>
+        <v>6016</v>
       </c>
       <c r="L874" s="1"/>
       <c r="M874" s="1" t="s">
+        <v>6017</v>
+      </c>
+      <c r="N874" s="1" t="s">
         <v>6018</v>
-      </c>
-      <c r="N874" s="1" t="s">
-        <v>6019</v>
       </c>
     </row>
     <row r="875" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A875" s="1" t="s">
-        <v>6020</v>
+        <v>6019</v>
       </c>
       <c r="B875" s="1"/>
       <c r="C875" s="1"/>
@@ -53386,7 +53393,7 @@
         <v>مليار</v>
       </c>
       <c r="E875" s="1" t="s">
-        <v>6021</v>
+        <v>6020</v>
       </c>
       <c r="F875" s="1"/>
       <c r="G875" s="1"/>
@@ -53395,26 +53402,26 @@
         <v>مليون</v>
       </c>
       <c r="I875" s="1" t="s">
-        <v>6022</v>
+        <v>6021</v>
       </c>
       <c r="J875" s="1"/>
       <c r="K875" s="1" t="s">
-        <v>6023</v>
+        <v>6022</v>
       </c>
       <c r="L875" s="1"/>
       <c r="M875" s="1" t="s">
+        <v>6023</v>
+      </c>
+      <c r="N875" s="1" t="s">
         <v>6024</v>
-      </c>
-      <c r="N875" s="1" t="s">
-        <v>6025</v>
       </c>
     </row>
     <row r="876" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A876" s="1" t="s">
+        <v>6025</v>
+      </c>
+      <c r="B876" s="2" t="s">
         <v>6026</v>
-      </c>
-      <c r="B876" s="2" t="s">
-        <v>6027</v>
       </c>
       <c r="C876" s="3"/>
       <c r="D876" s="1" t="str">
@@ -53422,10 +53429,10 @@
         <v>تمرين</v>
       </c>
       <c r="E876" s="1" t="s">
-        <v>6028</v>
+        <v>6027</v>
       </c>
       <c r="F876" s="2" t="s">
-        <v>6028</v>
+        <v>6027</v>
       </c>
       <c r="G876" s="3"/>
       <c r="H876" s="1" t="str">
@@ -53433,25 +53440,25 @@
         <v>ممارسة</v>
       </c>
       <c r="I876" s="1" t="s">
-        <v>6029</v>
+        <v>6028</v>
       </c>
       <c r="J876" s="1"/>
       <c r="K876" s="1" t="s">
+        <v>6029</v>
+      </c>
+      <c r="L876" s="2" t="s">
         <v>6030</v>
       </c>
-      <c r="L876" s="2" t="s">
+      <c r="M876" s="1" t="s">
         <v>6031</v>
       </c>
-      <c r="M876" s="1" t="s">
+      <c r="N876" s="1" t="s">
         <v>6032</v>
-      </c>
-      <c r="N876" s="1" t="s">
-        <v>6033</v>
       </c>
     </row>
     <row r="877" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A877" s="1" t="s">
-        <v>6034</v>
+        <v>6033</v>
       </c>
       <c r="B877" s="1"/>
       <c r="C877" s="1"/>
@@ -53460,7 +53467,7 @@
         <v>ممتلىء</v>
       </c>
       <c r="E877" s="1" t="s">
-        <v>6035</v>
+        <v>6034</v>
       </c>
       <c r="F877" s="1"/>
       <c r="G877" s="1"/>
@@ -53469,23 +53476,23 @@
         <v>فارغة</v>
       </c>
       <c r="I877" s="1" t="s">
-        <v>6036</v>
+        <v>6035</v>
       </c>
       <c r="J877" s="1"/>
       <c r="K877" s="1" t="s">
-        <v>6037</v>
+        <v>6036</v>
       </c>
       <c r="L877" s="1"/>
       <c r="M877" s="1" t="s">
+        <v>6037</v>
+      </c>
+      <c r="N877" s="1" t="s">
         <v>6038</v>
-      </c>
-      <c r="N877" s="1" t="s">
-        <v>6039</v>
       </c>
     </row>
     <row r="878" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A878" s="1" t="s">
-        <v>6040</v>
+        <v>6039</v>
       </c>
       <c r="B878" s="1"/>
       <c r="C878" s="1"/>
@@ -53494,7 +53501,7 @@
         <v>مملكة</v>
       </c>
       <c r="E878" s="1" t="s">
-        <v>6041</v>
+        <v>6040</v>
       </c>
       <c r="F878" s="1"/>
       <c r="G878" s="1"/>
@@ -53503,25 +53510,25 @@
         <v>رويال</v>
       </c>
       <c r="I878" s="1" t="s">
-        <v>6042</v>
+        <v>6041</v>
       </c>
       <c r="J878" s="1"/>
       <c r="K878" s="1" t="s">
+        <v>6042</v>
+      </c>
+      <c r="L878" s="2" t="s">
         <v>6043</v>
       </c>
-      <c r="L878" s="2" t="s">
+      <c r="M878" s="1" t="s">
         <v>6044</v>
       </c>
-      <c r="M878" s="1" t="s">
+      <c r="N878" s="1" t="s">
         <v>6045</v>
-      </c>
-      <c r="N878" s="1" t="s">
-        <v>6046</v>
       </c>
     </row>
     <row r="879" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A879" s="1" t="s">
-        <v>6047</v>
+        <v>6046</v>
       </c>
       <c r="B879" s="1"/>
       <c r="C879" s="1"/>
@@ -53530,7 +53537,7 @@
         <v>منديل</v>
       </c>
       <c r="E879" s="1" t="s">
-        <v>6048</v>
+        <v>6047</v>
       </c>
       <c r="F879" s="1"/>
       <c r="G879" s="1"/>
@@ -53539,23 +53546,23 @@
         <v>قماش</v>
       </c>
       <c r="I879" s="1" t="s">
-        <v>6049</v>
+        <v>6048</v>
       </c>
       <c r="J879" s="1"/>
       <c r="K879" s="1" t="s">
-        <v>6050</v>
+        <v>6049</v>
       </c>
       <c r="L879" s="1"/>
       <c r="M879" s="1" t="s">
+        <v>6050</v>
+      </c>
+      <c r="N879" s="1" t="s">
         <v>6051</v>
-      </c>
-      <c r="N879" s="1" t="s">
-        <v>6052</v>
       </c>
     </row>
     <row r="880" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A880" s="1" t="s">
-        <v>6053</v>
+        <v>6052</v>
       </c>
       <c r="B880" s="1"/>
       <c r="C880" s="1"/>
@@ -53564,7 +53571,7 @@
         <v>منشفة</v>
       </c>
       <c r="E880" s="1" t="s">
-        <v>6054</v>
+        <v>6053</v>
       </c>
       <c r="F880" s="1"/>
       <c r="G880" s="1"/>
@@ -53573,23 +53580,23 @@
         <v>بطانية</v>
       </c>
       <c r="I880" s="1" t="s">
-        <v>6055</v>
+        <v>6054</v>
       </c>
       <c r="J880" s="1"/>
       <c r="K880" s="1" t="s">
-        <v>6056</v>
+        <v>6055</v>
       </c>
       <c r="L880" s="1"/>
       <c r="M880" s="1" t="s">
+        <v>6056</v>
+      </c>
+      <c r="N880" s="1" t="s">
         <v>6057</v>
-      </c>
-      <c r="N880" s="1" t="s">
-        <v>6058</v>
       </c>
     </row>
     <row r="881" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A881" s="1" t="s">
-        <v>6059</v>
+        <v>6058</v>
       </c>
       <c r="B881" s="1"/>
       <c r="C881" s="1"/>
@@ -53598,7 +53605,7 @@
         <v>منطقة</v>
       </c>
       <c r="E881" s="1" t="s">
-        <v>6060</v>
+        <v>6059</v>
       </c>
       <c r="F881" s="1"/>
       <c r="G881" s="1"/>
@@ -53607,23 +53614,23 @@
         <v>مساحة</v>
       </c>
       <c r="I881" s="1" t="s">
-        <v>6061</v>
+        <v>6060</v>
       </c>
       <c r="J881" s="1"/>
       <c r="K881" s="1" t="s">
-        <v>6062</v>
+        <v>6061</v>
       </c>
       <c r="L881" s="1"/>
       <c r="M881" s="1" t="s">
+        <v>6062</v>
+      </c>
+      <c r="N881" s="1" t="s">
         <v>6063</v>
-      </c>
-      <c r="N881" s="1" t="s">
-        <v>6064</v>
       </c>
     </row>
     <row r="882" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A882" s="1" t="s">
-        <v>6059</v>
+        <v>6058</v>
       </c>
       <c r="B882" s="1"/>
       <c r="C882" s="1"/>
@@ -53632,7 +53639,7 @@
         <v>منطقة</v>
       </c>
       <c r="E882" s="1" t="s">
-        <v>6065</v>
+        <v>6064</v>
       </c>
       <c r="F882" s="1"/>
       <c r="G882" s="1"/>
@@ -53641,23 +53648,23 @@
         <v>مقاطعة</v>
       </c>
       <c r="I882" s="1" t="s">
-        <v>6066</v>
+        <v>6065</v>
       </c>
       <c r="J882" s="1"/>
       <c r="K882" s="1" t="s">
-        <v>6062</v>
+        <v>6061</v>
       </c>
       <c r="L882" s="1"/>
       <c r="M882" s="1" t="s">
+        <v>6066</v>
+      </c>
+      <c r="N882" s="1" t="s">
         <v>6067</v>
-      </c>
-      <c r="N882" s="1" t="s">
-        <v>6068</v>
       </c>
     </row>
     <row r="883" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A883" s="1" t="s">
-        <v>6069</v>
+        <v>6068</v>
       </c>
       <c r="B883" s="1"/>
       <c r="C883" s="1"/>
@@ -53679,19 +53686,19 @@
       </c>
       <c r="J883" s="1"/>
       <c r="K883" s="1" t="s">
-        <v>6070</v>
+        <v>6069</v>
       </c>
       <c r="L883" s="1"/>
       <c r="M883" s="1" t="s">
+        <v>6070</v>
+      </c>
+      <c r="N883" s="1" t="s">
         <v>6071</v>
-      </c>
-      <c r="N883" s="1" t="s">
-        <v>6072</v>
       </c>
     </row>
     <row r="884" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A884" s="1" t="s">
-        <v>6073</v>
+        <v>6072</v>
       </c>
       <c r="B884" s="1"/>
       <c r="C884" s="1"/>
@@ -53700,7 +53707,7 @@
         <v>مهرجان</v>
       </c>
       <c r="E884" s="1" t="s">
-        <v>6074</v>
+        <v>6073</v>
       </c>
       <c r="F884" s="1"/>
       <c r="G884" s="1"/>
@@ -53709,26 +53716,26 @@
         <v>الكرنفال</v>
       </c>
       <c r="I884" s="1" t="s">
-        <v>6075</v>
+        <v>6074</v>
       </c>
       <c r="J884" s="1"/>
       <c r="K884" s="1" t="s">
-        <v>6076</v>
+        <v>6075</v>
       </c>
       <c r="L884" s="1"/>
       <c r="M884" s="1" t="s">
+        <v>6076</v>
+      </c>
+      <c r="N884" s="1" t="s">
         <v>6077</v>
-      </c>
-      <c r="N884" s="1" t="s">
-        <v>6078</v>
       </c>
     </row>
     <row r="885" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A885" s="1" t="s">
+        <v>6078</v>
+      </c>
+      <c r="B885" s="2" t="s">
         <v>6079</v>
-      </c>
-      <c r="B885" s="2" t="s">
-        <v>6080</v>
       </c>
       <c r="C885" s="3"/>
       <c r="D885" s="1" t="str">
@@ -53736,7 +53743,7 @@
         <v>شغل</v>
       </c>
       <c r="E885" s="1" t="s">
-        <v>6079</v>
+        <v>6078</v>
       </c>
       <c r="F885" s="1"/>
       <c r="G885" s="1"/>
@@ -53745,23 +53752,23 @@
         <v>مهمة</v>
       </c>
       <c r="I885" s="1" t="s">
-        <v>6081</v>
+        <v>6080</v>
       </c>
       <c r="J885" s="1"/>
       <c r="K885" s="1" t="s">
-        <v>6082</v>
+        <v>6081</v>
       </c>
       <c r="L885" s="1"/>
       <c r="M885" s="1" t="s">
+        <v>6082</v>
+      </c>
+      <c r="N885" s="1" t="s">
         <v>6083</v>
-      </c>
-      <c r="N885" s="1" t="s">
-        <v>6084</v>
       </c>
     </row>
     <row r="886" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A886" s="1" t="s">
-        <v>6085</v>
+        <v>6084</v>
       </c>
       <c r="B886" s="1"/>
       <c r="C886" s="1"/>
@@ -53770,7 +53777,7 @@
         <v>مهندس معماري</v>
       </c>
       <c r="E886" s="1" t="s">
-        <v>6086</v>
+        <v>6085</v>
       </c>
       <c r="F886" s="1"/>
       <c r="G886" s="1"/>
@@ -53779,27 +53786,27 @@
         <v>مهندس</v>
       </c>
       <c r="I886" s="1" t="s">
+        <v>6086</v>
+      </c>
+      <c r="J886" s="2" t="s">
         <v>6087</v>
       </c>
-      <c r="J886" s="2" t="s">
+      <c r="K886" s="1" t="s">
         <v>6088</v>
       </c>
-      <c r="K886" s="1" t="s">
+      <c r="L886" s="2" t="s">
         <v>6089</v>
       </c>
-      <c r="L886" s="2" t="s">
+      <c r="M886" s="1" t="s">
         <v>6090</v>
       </c>
-      <c r="M886" s="1" t="s">
+      <c r="N886" s="1" t="s">
         <v>6091</v>
-      </c>
-      <c r="N886" s="1" t="s">
-        <v>6092</v>
       </c>
     </row>
     <row r="887" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A887" s="1" t="s">
-        <v>6093</v>
+        <v>6092</v>
       </c>
       <c r="B887" s="1"/>
       <c r="C887" s="1"/>
@@ -53808,7 +53815,7 @@
         <v>موافقة</v>
       </c>
       <c r="E887" s="1" t="s">
-        <v>6094</v>
+        <v>6093</v>
       </c>
       <c r="F887" s="1"/>
       <c r="G887" s="1"/>
@@ -53817,20 +53824,20 @@
         <v>الإذن</v>
       </c>
       <c r="I887" s="1" t="s">
+        <v>6094</v>
+      </c>
+      <c r="J887" s="2" t="s">
         <v>6095</v>
       </c>
-      <c r="J887" s="2" t="s">
+      <c r="K887" s="1" t="s">
         <v>6096</v>
-      </c>
-      <c r="K887" s="1" t="s">
-        <v>6097</v>
       </c>
       <c r="L887" s="1"/>
       <c r="M887" s="1" t="s">
+        <v>6097</v>
+      </c>
+      <c r="N887" s="1" t="s">
         <v>6098</v>
-      </c>
-      <c r="N887" s="1" t="s">
-        <v>6099</v>
       </c>
     </row>
     <row r="888" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -53838,7 +53845,7 @@
         <v>548</v>
       </c>
       <c r="B888" s="2" t="s">
-        <v>6100</v>
+        <v>6099</v>
       </c>
       <c r="C888" s="3"/>
       <c r="D888" s="1" t="str">
@@ -53846,7 +53853,7 @@
         <v>يموت</v>
       </c>
       <c r="E888" s="1" t="s">
-        <v>6101</v>
+        <v>6100</v>
       </c>
       <c r="F888" s="1"/>
       <c r="G888" s="1"/>
@@ -53855,26 +53862,26 @@
         <v>يعاني</v>
       </c>
       <c r="I888" s="1" t="s">
-        <v>6102</v>
+        <v>6101</v>
       </c>
       <c r="J888" s="1"/>
       <c r="K888" s="1" t="s">
-        <v>6103</v>
+        <v>6102</v>
       </c>
       <c r="L888" s="1"/>
       <c r="M888" s="1" t="s">
+        <v>6103</v>
+      </c>
+      <c r="N888" s="1" t="s">
         <v>6104</v>
-      </c>
-      <c r="N888" s="1" t="s">
-        <v>6105</v>
       </c>
     </row>
     <row r="889" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A889" s="1" t="s">
+        <v>6105</v>
+      </c>
+      <c r="B889" s="2" t="s">
         <v>6106</v>
-      </c>
-      <c r="B889" s="2" t="s">
-        <v>6107</v>
       </c>
       <c r="C889" s="3"/>
       <c r="D889" s="1" t="str">
@@ -53882,7 +53889,7 @@
         <v>مسبب</v>
       </c>
       <c r="E889" s="1" t="s">
-        <v>6108</v>
+        <v>6107</v>
       </c>
       <c r="F889" s="1"/>
       <c r="G889" s="1"/>
@@ -53891,25 +53898,25 @@
         <v>السبب</v>
       </c>
       <c r="I889" s="1" t="s">
-        <v>6109</v>
+        <v>6108</v>
       </c>
       <c r="J889" s="1"/>
       <c r="K889" s="1" t="s">
+        <v>6109</v>
+      </c>
+      <c r="L889" s="2" t="s">
         <v>6110</v>
       </c>
-      <c r="L889" s="2" t="s">
+      <c r="M889" s="1" t="s">
         <v>6111</v>
       </c>
-      <c r="M889" s="1" t="s">
+      <c r="N889" s="1" t="s">
         <v>6112</v>
-      </c>
-      <c r="N889" s="1" t="s">
-        <v>6113</v>
       </c>
     </row>
     <row r="890" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A890" s="1" t="s">
-        <v>6114</v>
+        <v>6113</v>
       </c>
       <c r="B890" s="1"/>
       <c r="C890" s="1"/>
@@ -53918,7 +53925,7 @@
         <v>مورفين</v>
       </c>
       <c r="E890" s="1" t="s">
-        <v>6115</v>
+        <v>6114</v>
       </c>
       <c r="F890" s="1"/>
       <c r="G890" s="1"/>
@@ -53927,23 +53934,23 @@
         <v>أسبرين</v>
       </c>
       <c r="I890" s="1" t="s">
-        <v>6116</v>
+        <v>6115</v>
       </c>
       <c r="J890" s="1"/>
       <c r="K890" s="1" t="s">
-        <v>6117</v>
+        <v>6116</v>
       </c>
       <c r="L890" s="1"/>
       <c r="M890" s="1" t="s">
+        <v>6117</v>
+      </c>
+      <c r="N890" s="1" t="s">
         <v>6118</v>
-      </c>
-      <c r="N890" s="1" t="s">
-        <v>6119</v>
       </c>
     </row>
     <row r="891" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A891" s="1" t="s">
-        <v>6120</v>
+        <v>6119</v>
       </c>
       <c r="B891" s="1"/>
       <c r="C891" s="1"/>
@@ -53952,7 +53959,7 @@
         <v>موسيقى</v>
       </c>
       <c r="E891" s="1" t="s">
-        <v>6121</v>
+        <v>6120</v>
       </c>
       <c r="F891" s="1"/>
       <c r="G891" s="1"/>
@@ -53961,23 +53968,23 @@
         <v>موسيقى الجاز</v>
       </c>
       <c r="I891" s="1" t="s">
-        <v>6122</v>
+        <v>6121</v>
       </c>
       <c r="J891" s="1"/>
       <c r="K891" s="1" t="s">
-        <v>6123</v>
+        <v>6122</v>
       </c>
       <c r="L891" s="1"/>
       <c r="M891" s="1" t="s">
+        <v>6123</v>
+      </c>
+      <c r="N891" s="1" t="s">
         <v>6124</v>
-      </c>
-      <c r="N891" s="1" t="s">
-        <v>6125</v>
       </c>
     </row>
     <row r="892" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A892" s="1" t="s">
-        <v>6126</v>
+        <v>6125</v>
       </c>
       <c r="B892" s="1"/>
       <c r="C892" s="1"/>
@@ -53986,7 +53993,7 @@
         <v>موسيقي او عازف</v>
       </c>
       <c r="E892" s="1" t="s">
-        <v>6127</v>
+        <v>6126</v>
       </c>
       <c r="F892" s="1"/>
       <c r="G892" s="1"/>
@@ -53995,28 +54002,28 @@
         <v>مغني</v>
       </c>
       <c r="I892" s="1" t="s">
-        <v>6128</v>
+        <v>6127</v>
       </c>
       <c r="J892" s="1"/>
       <c r="K892" s="1" t="s">
+        <v>6128</v>
+      </c>
+      <c r="L892" s="2" t="s">
         <v>6129</v>
       </c>
-      <c r="L892" s="2" t="s">
+      <c r="M892" s="1" t="s">
         <v>6130</v>
       </c>
-      <c r="M892" s="1" t="s">
+      <c r="N892" s="1" t="s">
         <v>6131</v>
-      </c>
-      <c r="N892" s="1" t="s">
-        <v>6132</v>
       </c>
     </row>
     <row r="893" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A893" s="1" t="s">
+        <v>6132</v>
+      </c>
+      <c r="B893" s="2" t="s">
         <v>6133</v>
-      </c>
-      <c r="B893" s="2" t="s">
-        <v>6134</v>
       </c>
       <c r="C893" s="3"/>
       <c r="D893" s="1" t="str">
@@ -54024,7 +54031,7 @@
         <v>موضوع</v>
       </c>
       <c r="E893" s="1" t="s">
-        <v>6135</v>
+        <v>6134</v>
       </c>
       <c r="F893" s="2" t="s">
         <v>2459</v>
@@ -54039,19 +54046,19 @@
       </c>
       <c r="J893" s="1"/>
       <c r="K893" s="1" t="s">
-        <v>6136</v>
+        <v>6135</v>
       </c>
       <c r="L893" s="1"/>
       <c r="M893" s="1" t="s">
+        <v>6136</v>
+      </c>
+      <c r="N893" s="1" t="s">
         <v>6137</v>
-      </c>
-      <c r="N893" s="1" t="s">
-        <v>6138</v>
       </c>
     </row>
     <row r="894" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A894" s="1" t="s">
-        <v>6139</v>
+        <v>6138</v>
       </c>
       <c r="B894" s="1"/>
       <c r="C894" s="1"/>
@@ -54060,7 +54067,7 @@
         <v>موقد</v>
       </c>
       <c r="E894" s="1" t="s">
-        <v>6140</v>
+        <v>6139</v>
       </c>
       <c r="F894" s="1"/>
       <c r="G894" s="1"/>
@@ -54069,25 +54076,25 @@
         <v>فرن</v>
       </c>
       <c r="I894" s="1" t="s">
+        <v>6140</v>
+      </c>
+      <c r="J894" s="2" t="s">
         <v>6141</v>
       </c>
-      <c r="J894" s="2" t="s">
+      <c r="K894" s="1" t="s">
         <v>6142</v>
-      </c>
-      <c r="K894" s="1" t="s">
-        <v>6143</v>
       </c>
       <c r="L894" s="1"/>
       <c r="M894" s="1" t="s">
+        <v>6143</v>
+      </c>
+      <c r="N894" s="1" t="s">
         <v>6144</v>
-      </c>
-      <c r="N894" s="1" t="s">
-        <v>6145</v>
       </c>
     </row>
     <row r="895" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A895" s="1" t="s">
-        <v>6146</v>
+        <v>6145</v>
       </c>
       <c r="B895" s="1"/>
       <c r="C895" s="1"/>
@@ -54096,7 +54103,7 @@
         <v>موقعك</v>
       </c>
       <c r="E895" s="1" t="s">
-        <v>6147</v>
+        <v>6146</v>
       </c>
       <c r="F895" s="1"/>
       <c r="G895" s="1"/>
@@ -54105,23 +54112,23 @@
         <v>مكان</v>
       </c>
       <c r="I895" s="1" t="s">
-        <v>6148</v>
+        <v>6147</v>
       </c>
       <c r="J895" s="1"/>
       <c r="K895" s="1" t="s">
-        <v>6149</v>
+        <v>6148</v>
       </c>
       <c r="L895" s="1"/>
       <c r="M895" s="1" t="s">
+        <v>6149</v>
+      </c>
+      <c r="N895" s="1" t="s">
         <v>6150</v>
-      </c>
-      <c r="N895" s="1" t="s">
-        <v>6151</v>
       </c>
     </row>
     <row r="896" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A896" s="1" t="s">
-        <v>6152</v>
+        <v>6151</v>
       </c>
       <c r="B896" s="1"/>
       <c r="C896" s="1"/>
@@ -54143,21 +54150,21 @@
       </c>
       <c r="J896" s="1"/>
       <c r="K896" s="1" t="s">
+        <v>6152</v>
+      </c>
+      <c r="L896" s="2" t="s">
         <v>6153</v>
       </c>
-      <c r="L896" s="2" t="s">
+      <c r="M896" s="1" t="s">
         <v>6154</v>
       </c>
-      <c r="M896" s="1" t="s">
+      <c r="N896" s="1" t="s">
         <v>6155</v>
-      </c>
-      <c r="N896" s="1" t="s">
-        <v>6156</v>
       </c>
     </row>
     <row r="897" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A897" s="1" t="s">
-        <v>6157</v>
+        <v>6156</v>
       </c>
       <c r="B897" s="1"/>
       <c r="C897" s="1"/>
@@ -54166,7 +54173,7 @@
         <v>موهبة</v>
       </c>
       <c r="E897" s="1" t="s">
-        <v>6158</v>
+        <v>6157</v>
       </c>
       <c r="F897" s="1"/>
       <c r="G897" s="1"/>
@@ -54175,23 +54182,23 @@
         <v>القدره</v>
       </c>
       <c r="I897" s="1" t="s">
-        <v>6159</v>
+        <v>6158</v>
       </c>
       <c r="J897" s="1"/>
       <c r="K897" s="1" t="s">
-        <v>6160</v>
+        <v>6159</v>
       </c>
       <c r="L897" s="1"/>
       <c r="M897" s="1" t="s">
+        <v>6160</v>
+      </c>
+      <c r="N897" s="1" t="s">
         <v>6161</v>
-      </c>
-      <c r="N897" s="1" t="s">
-        <v>6162</v>
       </c>
     </row>
     <row r="898" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A898" s="1" t="s">
-        <v>6163</v>
+        <v>6162</v>
       </c>
       <c r="B898" s="1"/>
       <c r="C898" s="1"/>
@@ -54200,7 +54207,7 @@
         <v>ميدالية</v>
       </c>
       <c r="E898" s="1" t="s">
-        <v>6164</v>
+        <v>6163</v>
       </c>
       <c r="F898" s="1"/>
       <c r="G898" s="1"/>
@@ -54209,23 +54216,23 @@
         <v>غنيمة</v>
       </c>
       <c r="I898" s="1" t="s">
-        <v>6165</v>
+        <v>6164</v>
       </c>
       <c r="J898" s="1"/>
       <c r="K898" s="1" t="s">
-        <v>6166</v>
+        <v>6165</v>
       </c>
       <c r="L898" s="1"/>
       <c r="M898" s="1" t="s">
+        <v>6166</v>
+      </c>
+      <c r="N898" s="1" t="s">
         <v>6167</v>
-      </c>
-      <c r="N898" s="1" t="s">
-        <v>6168</v>
       </c>
     </row>
     <row r="899" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A899" s="1" t="s">
-        <v>6169</v>
+        <v>6168</v>
       </c>
       <c r="B899" s="1"/>
       <c r="C899" s="1"/>
@@ -54234,7 +54241,7 @@
         <v>ميداليون</v>
       </c>
       <c r="E899" s="1" t="s">
-        <v>6170</v>
+        <v>6169</v>
       </c>
       <c r="F899" s="1"/>
       <c r="G899" s="1"/>
@@ -54243,23 +54250,23 @@
         <v>الأداة</v>
       </c>
       <c r="I899" s="1" t="s">
-        <v>6171</v>
+        <v>6170</v>
       </c>
       <c r="J899" s="1"/>
       <c r="K899" s="1" t="s">
-        <v>6172</v>
+        <v>6171</v>
       </c>
       <c r="L899" s="1"/>
       <c r="M899" s="1" t="s">
+        <v>6172</v>
+      </c>
+      <c r="N899" s="1" t="s">
         <v>6173</v>
-      </c>
-      <c r="N899" s="1" t="s">
-        <v>6174</v>
       </c>
     </row>
     <row r="900" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A900" s="1" t="s">
-        <v>6175</v>
+        <v>6174</v>
       </c>
       <c r="B900" s="1"/>
       <c r="C900" s="1"/>
@@ -54268,7 +54275,7 @@
         <v>ميكانيكي</v>
       </c>
       <c r="E900" s="1" t="s">
-        <v>6176</v>
+        <v>6175</v>
       </c>
       <c r="F900" s="1"/>
       <c r="G900" s="1"/>
@@ -54277,23 +54284,23 @@
         <v>تقني</v>
       </c>
       <c r="I900" s="1" t="s">
-        <v>6177</v>
+        <v>6176</v>
       </c>
       <c r="J900" s="1"/>
       <c r="K900" s="1" t="s">
-        <v>6178</v>
+        <v>6177</v>
       </c>
       <c r="L900" s="1"/>
       <c r="M900" s="1" t="s">
+        <v>6178</v>
+      </c>
+      <c r="N900" s="1" t="s">
         <v>6179</v>
-      </c>
-      <c r="N900" s="1" t="s">
-        <v>6180</v>
       </c>
     </row>
     <row r="901" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A901" s="1" t="s">
-        <v>6181</v>
+        <v>6180</v>
       </c>
       <c r="B901" s="1"/>
       <c r="C901" s="1"/>
@@ -54302,7 +54309,7 @@
         <v>ميكروفون</v>
       </c>
       <c r="E901" s="1" t="s">
-        <v>6182</v>
+        <v>6181</v>
       </c>
       <c r="F901" s="1"/>
       <c r="G901" s="1"/>
@@ -54311,25 +54318,25 @@
         <v>الة تصوير</v>
       </c>
       <c r="I901" s="1" t="s">
+        <v>6182</v>
+      </c>
+      <c r="J901" s="2" t="s">
         <v>6183</v>
       </c>
-      <c r="J901" s="2" t="s">
+      <c r="K901" s="1" t="s">
         <v>6184</v>
-      </c>
-      <c r="K901" s="1" t="s">
-        <v>6185</v>
       </c>
       <c r="L901" s="1"/>
       <c r="M901" s="1" t="s">
+        <v>6185</v>
+      </c>
+      <c r="N901" s="1" t="s">
         <v>6186</v>
-      </c>
-      <c r="N901" s="1" t="s">
-        <v>6187</v>
       </c>
     </row>
     <row r="902" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A902" s="1" t="s">
-        <v>6188</v>
+        <v>6187</v>
       </c>
       <c r="B902" s="1"/>
       <c r="C902" s="1"/>
@@ -54338,7 +54345,7 @@
         <v>نادرا</v>
       </c>
       <c r="E902" s="1" t="s">
-        <v>6189</v>
+        <v>6188</v>
       </c>
       <c r="F902" s="1"/>
       <c r="G902" s="1"/>
@@ -54347,25 +54354,25 @@
         <v>من حين اخر</v>
       </c>
       <c r="I902" s="1" t="s">
+        <v>6189</v>
+      </c>
+      <c r="J902" s="2" t="s">
         <v>6190</v>
       </c>
-      <c r="J902" s="2" t="s">
+      <c r="K902" s="1" t="s">
         <v>6191</v>
-      </c>
-      <c r="K902" s="1" t="s">
-        <v>6192</v>
       </c>
       <c r="L902" s="1"/>
       <c r="M902" s="1" t="s">
+        <v>6192</v>
+      </c>
+      <c r="N902" s="1" t="s">
         <v>6193</v>
-      </c>
-      <c r="N902" s="1" t="s">
-        <v>6194</v>
       </c>
     </row>
     <row r="903" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A903" s="1" t="s">
-        <v>6195</v>
+        <v>6194</v>
       </c>
       <c r="B903" s="1"/>
       <c r="C903" s="1"/>
@@ -54374,7 +54381,7 @@
         <v>نادلة</v>
       </c>
       <c r="E903" s="1" t="s">
-        <v>6196</v>
+        <v>6195</v>
       </c>
       <c r="F903" s="1"/>
       <c r="G903" s="1"/>
@@ -54383,20 +54390,20 @@
         <v>النادل</v>
       </c>
       <c r="I903" s="1" t="s">
+        <v>6196</v>
+      </c>
+      <c r="J903" s="2" t="s">
         <v>6197</v>
       </c>
-      <c r="J903" s="2" t="s">
+      <c r="K903" s="1" t="s">
         <v>6198</v>
-      </c>
-      <c r="K903" s="1" t="s">
-        <v>6199</v>
       </c>
       <c r="L903" s="1"/>
       <c r="M903" s="1" t="s">
+        <v>6199</v>
+      </c>
+      <c r="N903" s="1" t="s">
         <v>6200</v>
-      </c>
-      <c r="N903" s="1" t="s">
-        <v>6201</v>
       </c>
     </row>
     <row r="904" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -54410,7 +54417,7 @@
         <v>ناقص</v>
       </c>
       <c r="E904" s="1" t="s">
-        <v>6202</v>
+        <v>6201</v>
       </c>
       <c r="F904" s="1"/>
       <c r="G904" s="1"/>
@@ -54419,28 +54426,28 @@
         <v>زائد</v>
       </c>
       <c r="I904" s="1" t="s">
-        <v>6203</v>
+        <v>6202</v>
       </c>
       <c r="J904" s="1"/>
       <c r="K904" s="1" t="s">
+        <v>6203</v>
+      </c>
+      <c r="L904" s="2" t="s">
         <v>6204</v>
       </c>
-      <c r="L904" s="2" t="s">
+      <c r="M904" s="1" t="s">
         <v>6205</v>
       </c>
-      <c r="M904" s="1" t="s">
+      <c r="N904" s="1" t="s">
         <v>6206</v>
-      </c>
-      <c r="N904" s="1" t="s">
-        <v>6207</v>
       </c>
     </row>
     <row r="905" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A905" s="1" t="s">
+        <v>6207</v>
+      </c>
+      <c r="B905" s="2" t="s">
         <v>6208</v>
-      </c>
-      <c r="B905" s="2" t="s">
-        <v>6209</v>
       </c>
       <c r="C905" s="3"/>
       <c r="D905" s="1" t="str">
@@ -54451,7 +54458,7 @@
         <v>869</v>
       </c>
       <c r="F905" s="2" t="s">
-        <v>6210</v>
+        <v>6209</v>
       </c>
       <c r="G905" s="3"/>
       <c r="H905" s="1" t="str">
@@ -54463,24 +54470,24 @@
       </c>
       <c r="J905" s="1"/>
       <c r="K905" s="1" t="s">
+        <v>6210</v>
+      </c>
+      <c r="L905" s="2" t="s">
         <v>6211</v>
       </c>
-      <c r="L905" s="2" t="s">
+      <c r="M905" s="1" t="s">
         <v>6212</v>
       </c>
-      <c r="M905" s="1" t="s">
+      <c r="N905" s="1" t="s">
         <v>6213</v>
-      </c>
-      <c r="N905" s="1" t="s">
-        <v>6214</v>
       </c>
     </row>
     <row r="906" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A906" s="1" t="s">
+        <v>6214</v>
+      </c>
+      <c r="B906" s="2" t="s">
         <v>6215</v>
-      </c>
-      <c r="B906" s="2" t="s">
-        <v>6216</v>
       </c>
       <c r="C906" s="3"/>
       <c r="D906" s="1" t="str">
@@ -54488,10 +54495,10 @@
         <v>نجم</v>
       </c>
       <c r="E906" s="1" t="s">
-        <v>6217</v>
+        <v>6216</v>
       </c>
       <c r="F906" s="2" t="s">
-        <v>5799</v>
+        <v>5798</v>
       </c>
       <c r="G906" s="3"/>
       <c r="H906" s="1" t="str">
@@ -54499,27 +54506,27 @@
         <v>مشهور</v>
       </c>
       <c r="I906" s="1" t="s">
+        <v>6217</v>
+      </c>
+      <c r="J906" s="2" t="s">
         <v>6218</v>
       </c>
-      <c r="J906" s="2" t="s">
+      <c r="K906" s="1" t="s">
         <v>6219</v>
       </c>
-      <c r="K906" s="1" t="s">
+      <c r="L906" s="2" t="s">
         <v>6220</v>
       </c>
-      <c r="L906" s="2" t="s">
+      <c r="M906" s="1" t="s">
         <v>6221</v>
       </c>
-      <c r="M906" s="1" t="s">
+      <c r="N906" s="1" t="s">
         <v>6222</v>
-      </c>
-      <c r="N906" s="1" t="s">
-        <v>6223</v>
       </c>
     </row>
     <row r="907" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A907" s="1" t="s">
-        <v>6224</v>
+        <v>6223</v>
       </c>
       <c r="B907" s="1"/>
       <c r="C907" s="1"/>
@@ -54528,7 +54535,7 @@
         <v>ندب</v>
       </c>
       <c r="E907" s="1" t="s">
-        <v>6225</v>
+        <v>6224</v>
       </c>
       <c r="F907" s="1"/>
       <c r="G907" s="1"/>
@@ -54537,25 +54544,25 @@
         <v>وشم</v>
       </c>
       <c r="I907" s="1" t="s">
-        <v>6226</v>
+        <v>6225</v>
       </c>
       <c r="J907" s="1"/>
       <c r="K907" s="1" t="s">
+        <v>6226</v>
+      </c>
+      <c r="L907" s="2" t="s">
         <v>6227</v>
       </c>
-      <c r="L907" s="2" t="s">
+      <c r="M907" s="1" t="s">
         <v>6228</v>
       </c>
-      <c r="M907" s="1" t="s">
+      <c r="N907" s="1" t="s">
         <v>6229</v>
-      </c>
-      <c r="N907" s="1" t="s">
-        <v>6230</v>
       </c>
     </row>
     <row r="908" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A908" s="1" t="s">
-        <v>6231</v>
+        <v>6230</v>
       </c>
       <c r="B908" s="1"/>
       <c r="C908" s="1"/>
@@ -54564,7 +54571,7 @@
         <v>نشاط</v>
       </c>
       <c r="E908" s="1" t="s">
-        <v>6232</v>
+        <v>6231</v>
       </c>
       <c r="F908" s="1"/>
       <c r="G908" s="1"/>
@@ -54573,23 +54580,23 @@
         <v>نشيط</v>
       </c>
       <c r="I908" s="1" t="s">
-        <v>6233</v>
+        <v>6232</v>
       </c>
       <c r="J908" s="1"/>
       <c r="K908" s="1" t="s">
-        <v>6234</v>
+        <v>6233</v>
       </c>
       <c r="L908" s="1"/>
       <c r="M908" s="1" t="s">
+        <v>6234</v>
+      </c>
+      <c r="N908" s="1" t="s">
         <v>6235</v>
-      </c>
-      <c r="N908" s="1" t="s">
-        <v>6236</v>
       </c>
     </row>
     <row r="909" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A909" s="1" t="s">
-        <v>6237</v>
+        <v>6236</v>
       </c>
       <c r="B909" s="1"/>
       <c r="C909" s="1"/>
@@ -54598,7 +54605,7 @@
         <v>نظرية</v>
       </c>
       <c r="E909" s="1" t="s">
-        <v>6238</v>
+        <v>6237</v>
       </c>
       <c r="F909" s="1"/>
       <c r="G909" s="1"/>
@@ -54607,23 +54614,23 @@
         <v>فكرة</v>
       </c>
       <c r="I909" s="1" t="s">
-        <v>6239</v>
+        <v>6238</v>
       </c>
       <c r="J909" s="1"/>
       <c r="K909" s="1" t="s">
-        <v>6240</v>
+        <v>6239</v>
       </c>
       <c r="L909" s="1"/>
       <c r="M909" s="1" t="s">
+        <v>6240</v>
+      </c>
+      <c r="N909" s="1" t="s">
         <v>6241</v>
-      </c>
-      <c r="N909" s="1" t="s">
-        <v>6242</v>
       </c>
     </row>
     <row r="910" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A910" s="1" t="s">
-        <v>6243</v>
+        <v>6242</v>
       </c>
       <c r="B910" s="1"/>
       <c r="C910" s="1"/>
@@ -54632,7 +54639,7 @@
         <v>نعم</v>
       </c>
       <c r="E910" s="1" t="s">
-        <v>6244</v>
+        <v>6243</v>
       </c>
       <c r="F910" s="1"/>
       <c r="G910" s="1"/>
@@ -54641,26 +54648,26 @@
         <v>حسنا</v>
       </c>
       <c r="I910" s="1" t="s">
-        <v>6245</v>
+        <v>6244</v>
       </c>
       <c r="J910" s="1"/>
       <c r="K910" s="1" t="s">
-        <v>6246</v>
+        <v>6245</v>
       </c>
       <c r="L910" s="1"/>
       <c r="M910" s="1" t="s">
+        <v>6246</v>
+      </c>
+      <c r="N910" s="1" t="s">
         <v>6247</v>
-      </c>
-      <c r="N910" s="1" t="s">
-        <v>6248</v>
       </c>
     </row>
     <row r="911" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A911" s="1" t="s">
+        <v>6248</v>
+      </c>
+      <c r="B911" s="2" t="s">
         <v>6249</v>
-      </c>
-      <c r="B911" s="2" t="s">
-        <v>6250</v>
       </c>
       <c r="C911" s="3"/>
       <c r="D911" s="1" t="str">
@@ -54668,7 +54675,7 @@
         <v>نفسيّ</v>
       </c>
       <c r="E911" s="1" t="s">
-        <v>6251</v>
+        <v>6250</v>
       </c>
       <c r="F911" s="1"/>
       <c r="G911" s="1"/>
@@ -54677,23 +54684,23 @@
         <v>طبي</v>
       </c>
       <c r="I911" s="1" t="s">
-        <v>6252</v>
+        <v>6251</v>
       </c>
       <c r="J911" s="1"/>
       <c r="K911" s="1" t="s">
-        <v>6253</v>
+        <v>6252</v>
       </c>
       <c r="L911" s="1"/>
       <c r="M911" s="1" t="s">
+        <v>6253</v>
+      </c>
+      <c r="N911" s="1" t="s">
         <v>6254</v>
-      </c>
-      <c r="N911" s="1" t="s">
-        <v>6255</v>
       </c>
     </row>
     <row r="912" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A912" s="1" t="s">
-        <v>6256</v>
+        <v>6255</v>
       </c>
       <c r="B912" s="1"/>
       <c r="C912" s="1"/>
@@ -54702,7 +54709,7 @@
         <v>نفط</v>
       </c>
       <c r="E912" s="1" t="s">
-        <v>6257</v>
+        <v>6256</v>
       </c>
       <c r="F912" s="1"/>
       <c r="G912" s="1"/>
@@ -54711,23 +54718,23 @@
         <v>فحم</v>
       </c>
       <c r="I912" s="1" t="s">
-        <v>6258</v>
+        <v>6257</v>
       </c>
       <c r="J912" s="1"/>
       <c r="K912" s="1" t="s">
-        <v>6259</v>
+        <v>6258</v>
       </c>
       <c r="L912" s="1"/>
       <c r="M912" s="1" t="s">
+        <v>6259</v>
+      </c>
+      <c r="N912" s="1" t="s">
         <v>6260</v>
-      </c>
-      <c r="N912" s="1" t="s">
-        <v>6261</v>
       </c>
     </row>
     <row r="913" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A913" s="1" t="s">
-        <v>6262</v>
+        <v>6261</v>
       </c>
       <c r="B913" s="1"/>
       <c r="C913" s="1"/>
@@ -54736,7 +54743,7 @@
         <v>نفق</v>
       </c>
       <c r="E913" s="1" t="s">
-        <v>6263</v>
+        <v>6262</v>
       </c>
       <c r="F913" s="1"/>
       <c r="G913" s="1"/>
@@ -54745,23 +54752,23 @@
         <v>كوبري</v>
       </c>
       <c r="I913" s="1" t="s">
-        <v>6264</v>
+        <v>6263</v>
       </c>
       <c r="J913" s="1"/>
       <c r="K913" s="1" t="s">
-        <v>6265</v>
+        <v>6264</v>
       </c>
       <c r="L913" s="1"/>
       <c r="M913" s="1" t="s">
+        <v>6265</v>
+      </c>
+      <c r="N913" s="1" t="s">
         <v>6266</v>
-      </c>
-      <c r="N913" s="1" t="s">
-        <v>6267</v>
       </c>
     </row>
     <row r="914" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A914" s="1" t="s">
-        <v>6268</v>
+        <v>6267</v>
       </c>
       <c r="B914" s="1"/>
       <c r="C914" s="1"/>
@@ -54770,7 +54777,7 @@
         <v>نفي</v>
       </c>
       <c r="E914" s="1" t="s">
-        <v>6269</v>
+        <v>6268</v>
       </c>
       <c r="F914" s="1"/>
       <c r="G914" s="1"/>
@@ -54779,23 +54786,23 @@
         <v>إيجابي</v>
       </c>
       <c r="I914" s="1" t="s">
-        <v>6270</v>
+        <v>6269</v>
       </c>
       <c r="J914" s="1"/>
       <c r="K914" s="1" t="s">
-        <v>6271</v>
+        <v>6270</v>
       </c>
       <c r="L914" s="1"/>
       <c r="M914" s="1" t="s">
+        <v>6271</v>
+      </c>
+      <c r="N914" s="1" t="s">
         <v>6272</v>
-      </c>
-      <c r="N914" s="1" t="s">
-        <v>6273</v>
       </c>
     </row>
     <row r="915" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A915" s="1" t="s">
-        <v>6274</v>
+        <v>6273</v>
       </c>
       <c r="B915" s="1"/>
       <c r="C915" s="1"/>
@@ -54804,7 +54811,7 @@
         <v>نقاش</v>
       </c>
       <c r="E915" s="1" t="s">
-        <v>6275</v>
+        <v>6274</v>
       </c>
       <c r="F915" s="1"/>
       <c r="G915" s="1"/>
@@ -54813,26 +54820,26 @@
         <v>محادثة</v>
       </c>
       <c r="I915" s="1" t="s">
-        <v>6276</v>
+        <v>6275</v>
       </c>
       <c r="J915" s="1"/>
       <c r="K915" s="1" t="s">
-        <v>6277</v>
+        <v>6276</v>
       </c>
       <c r="L915" s="1"/>
       <c r="M915" s="1" t="s">
+        <v>6277</v>
+      </c>
+      <c r="N915" s="1" t="s">
         <v>6278</v>
-      </c>
-      <c r="N915" s="1" t="s">
-        <v>6279</v>
       </c>
     </row>
     <row r="916" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A916" s="1" t="s">
+        <v>6279</v>
+      </c>
+      <c r="B916" s="2" t="s">
         <v>6280</v>
-      </c>
-      <c r="B916" s="2" t="s">
-        <v>6281</v>
       </c>
       <c r="C916" s="3"/>
       <c r="D916" s="1" t="str">
@@ -54840,7 +54847,7 @@
         <v>تحويل</v>
       </c>
       <c r="E916" s="1" t="s">
-        <v>6280</v>
+        <v>6279</v>
       </c>
       <c r="F916" s="1"/>
       <c r="G916" s="1"/>
@@ -54857,15 +54864,15 @@
       </c>
       <c r="L916" s="1"/>
       <c r="M916" s="1" t="s">
+        <v>6281</v>
+      </c>
+      <c r="N916" s="1" t="s">
         <v>6282</v>
-      </c>
-      <c r="N916" s="1" t="s">
-        <v>6283</v>
       </c>
     </row>
     <row r="917" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A917" s="1" t="s">
-        <v>6284</v>
+        <v>6283</v>
       </c>
       <c r="B917" s="1"/>
       <c r="C917" s="1"/>
@@ -54874,10 +54881,10 @@
         <v>نكتة</v>
       </c>
       <c r="E917" s="1" t="s">
+        <v>6284</v>
+      </c>
+      <c r="F917" s="2" t="s">
         <v>6285</v>
-      </c>
-      <c r="F917" s="2" t="s">
-        <v>6286</v>
       </c>
       <c r="G917" s="3"/>
       <c r="H917" s="1" t="str">
@@ -54885,23 +54892,23 @@
         <v>خدعة</v>
       </c>
       <c r="I917" s="1" t="s">
-        <v>6287</v>
+        <v>6286</v>
       </c>
       <c r="J917" s="1"/>
       <c r="K917" s="1" t="s">
-        <v>6288</v>
+        <v>6287</v>
       </c>
       <c r="L917" s="1"/>
       <c r="M917" s="1" t="s">
+        <v>6288</v>
+      </c>
+      <c r="N917" s="1" t="s">
         <v>6289</v>
-      </c>
-      <c r="N917" s="1" t="s">
-        <v>6290</v>
       </c>
     </row>
     <row r="918" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A918" s="1" t="s">
-        <v>6291</v>
+        <v>6290</v>
       </c>
       <c r="B918" s="1"/>
       <c r="C918" s="1"/>
@@ -54910,10 +54917,10 @@
         <v>نمط</v>
       </c>
       <c r="E918" s="1" t="s">
+        <v>6291</v>
+      </c>
+      <c r="F918" s="2" t="s">
         <v>6292</v>
-      </c>
-      <c r="F918" s="2" t="s">
-        <v>6293</v>
       </c>
       <c r="G918" s="3"/>
       <c r="H918" s="1" t="str">
@@ -54921,27 +54928,27 @@
         <v>منوال</v>
       </c>
       <c r="I918" s="1" t="s">
+        <v>6293</v>
+      </c>
+      <c r="J918" s="2" t="s">
         <v>6294</v>
       </c>
-      <c r="J918" s="2" t="s">
+      <c r="K918" s="1" t="s">
         <v>6295</v>
       </c>
-      <c r="K918" s="1" t="s">
+      <c r="L918" s="2" t="s">
         <v>6296</v>
       </c>
-      <c r="L918" s="2" t="s">
+      <c r="M918" s="1" t="s">
         <v>6297</v>
       </c>
-      <c r="M918" s="1" t="s">
+      <c r="N918" s="1" t="s">
         <v>6298</v>
-      </c>
-      <c r="N918" s="1" t="s">
-        <v>6299</v>
       </c>
     </row>
     <row r="919" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A919" s="1" t="s">
-        <v>6300</v>
+        <v>6299</v>
       </c>
       <c r="B919" s="1"/>
       <c r="C919" s="1"/>
@@ -54950,10 +54957,10 @@
         <v>نووي</v>
       </c>
       <c r="E919" s="1" t="s">
+        <v>6300</v>
+      </c>
+      <c r="F919" s="2" t="s">
         <v>6301</v>
-      </c>
-      <c r="F919" s="2" t="s">
-        <v>6302</v>
       </c>
       <c r="G919" s="3"/>
       <c r="H919" s="1" t="str">
@@ -54961,25 +54968,25 @@
         <v>ذري</v>
       </c>
       <c r="I919" s="1" t="s">
-        <v>6303</v>
+        <v>6302</v>
       </c>
       <c r="J919" s="1"/>
       <c r="K919" s="1" t="s">
+        <v>6303</v>
+      </c>
+      <c r="L919" s="2" t="s">
         <v>6304</v>
       </c>
-      <c r="L919" s="2" t="s">
+      <c r="M919" s="1" t="s">
         <v>6305</v>
       </c>
-      <c r="M919" s="1" t="s">
+      <c r="N919" s="1" t="s">
         <v>6306</v>
-      </c>
-      <c r="N919" s="1" t="s">
-        <v>6307</v>
       </c>
     </row>
     <row r="920" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A920" s="1" t="s">
-        <v>6308</v>
+        <v>6307</v>
       </c>
       <c r="B920" s="1"/>
       <c r="C920" s="1"/>
@@ -54988,7 +54995,7 @@
         <v>نية</v>
       </c>
       <c r="E920" s="1" t="s">
-        <v>6135</v>
+        <v>6134</v>
       </c>
       <c r="F920" s="1"/>
       <c r="G920" s="1"/>
@@ -55001,21 +55008,21 @@
       </c>
       <c r="J920" s="1"/>
       <c r="K920" s="1" t="s">
+        <v>6308</v>
+      </c>
+      <c r="L920" s="2" t="s">
         <v>6309</v>
       </c>
-      <c r="L920" s="2" t="s">
+      <c r="M920" s="1" t="s">
         <v>6310</v>
       </c>
-      <c r="M920" s="1" t="s">
+      <c r="N920" s="1" t="s">
         <v>6311</v>
-      </c>
-      <c r="N920" s="1" t="s">
-        <v>6312</v>
       </c>
     </row>
     <row r="921" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A921" s="1" t="s">
-        <v>6313</v>
+        <v>6312</v>
       </c>
       <c r="B921" s="1"/>
       <c r="C921" s="1"/>
@@ -55024,10 +55031,10 @@
         <v>هاتف</v>
       </c>
       <c r="E921" s="1" t="s">
+        <v>6313</v>
+      </c>
+      <c r="F921" s="2" t="s">
         <v>6314</v>
-      </c>
-      <c r="F921" s="2" t="s">
-        <v>6315</v>
       </c>
       <c r="G921" s="3"/>
       <c r="H921" s="1" t="str">
@@ -55035,25 +55042,25 @@
         <v>اتصال</v>
       </c>
       <c r="I921" s="1" t="s">
-        <v>6316</v>
+        <v>6315</v>
       </c>
       <c r="J921" s="1"/>
       <c r="K921" s="1" t="s">
+        <v>6316</v>
+      </c>
+      <c r="L921" s="2" t="s">
         <v>6317</v>
       </c>
-      <c r="L921" s="2" t="s">
+      <c r="M921" s="1" t="s">
         <v>6318</v>
       </c>
-      <c r="M921" s="1" t="s">
+      <c r="N921" s="1" t="s">
         <v>6319</v>
-      </c>
-      <c r="N921" s="1" t="s">
-        <v>6320</v>
       </c>
     </row>
     <row r="922" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A922" s="1" t="s">
-        <v>6321</v>
+        <v>6320</v>
       </c>
       <c r="B922" s="1"/>
       <c r="C922" s="1"/>
@@ -55062,10 +55069,10 @@
         <v>هبة</v>
       </c>
       <c r="E922" s="1" t="s">
+        <v>6321</v>
+      </c>
+      <c r="F922" s="2" t="s">
         <v>6322</v>
-      </c>
-      <c r="F922" s="2" t="s">
-        <v>6323</v>
       </c>
       <c r="G922" s="3"/>
       <c r="H922" s="1" t="str">
@@ -55073,27 +55080,27 @@
         <v>صدقة</v>
       </c>
       <c r="I922" s="1" t="s">
+        <v>6323</v>
+      </c>
+      <c r="J922" s="2" t="s">
         <v>6324</v>
       </c>
-      <c r="J922" s="2" t="s">
+      <c r="K922" s="1" t="s">
         <v>6325</v>
       </c>
-      <c r="K922" s="1" t="s">
+      <c r="L922" s="2" t="s">
         <v>6326</v>
       </c>
-      <c r="L922" s="2" t="s">
+      <c r="M922" s="1" t="s">
         <v>6327</v>
       </c>
-      <c r="M922" s="1" t="s">
+      <c r="N922" s="1" t="s">
         <v>6328</v>
-      </c>
-      <c r="N922" s="1" t="s">
-        <v>6329</v>
       </c>
     </row>
     <row r="923" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A923" s="1" t="s">
-        <v>6330</v>
+        <v>6329</v>
       </c>
       <c r="B923" s="1"/>
       <c r="C923" s="1"/>
@@ -55102,7 +55109,7 @@
         <v>هجوم</v>
       </c>
       <c r="E923" s="1" t="s">
-        <v>6331</v>
+        <v>6330</v>
       </c>
       <c r="F923" s="1"/>
       <c r="G923" s="1"/>
@@ -55111,26 +55118,26 @@
         <v>غزو</v>
       </c>
       <c r="I923" s="1" t="s">
-        <v>6332</v>
+        <v>6331</v>
       </c>
       <c r="J923" s="1"/>
       <c r="K923" s="1" t="s">
-        <v>6333</v>
+        <v>6332</v>
       </c>
       <c r="L923" s="1"/>
       <c r="M923" s="1" t="s">
+        <v>6333</v>
+      </c>
+      <c r="N923" s="1" t="s">
         <v>6334</v>
-      </c>
-      <c r="N923" s="1" t="s">
-        <v>6335</v>
       </c>
     </row>
     <row r="924" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A924" s="1" t="s">
+        <v>6335</v>
+      </c>
+      <c r="B924" s="2" t="s">
         <v>6336</v>
-      </c>
-      <c r="B924" s="2" t="s">
-        <v>6337</v>
       </c>
       <c r="C924" s="3"/>
       <c r="D924" s="1" t="str">
@@ -55138,7 +55145,7 @@
         <v>ساكن</v>
       </c>
       <c r="E924" s="1" t="s">
-        <v>6338</v>
+        <v>6337</v>
       </c>
       <c r="F924" s="1"/>
       <c r="G924" s="1"/>
@@ -55147,26 +55154,26 @@
         <v>هادئ</v>
       </c>
       <c r="I924" s="1" t="s">
-        <v>6339</v>
+        <v>6338</v>
       </c>
       <c r="J924" s="1"/>
       <c r="K924" s="1" t="s">
-        <v>6340</v>
+        <v>6339</v>
       </c>
       <c r="L924" s="1"/>
       <c r="M924" s="1" t="s">
+        <v>6340</v>
+      </c>
+      <c r="N924" s="1" t="s">
         <v>6341</v>
-      </c>
-      <c r="N924" s="1" t="s">
-        <v>6342</v>
       </c>
     </row>
     <row r="925" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A925" s="1" t="s">
+        <v>6342</v>
+      </c>
+      <c r="B925" s="2" t="s">
         <v>6343</v>
-      </c>
-      <c r="B925" s="2" t="s">
-        <v>6344</v>
       </c>
       <c r="C925" s="3"/>
       <c r="D925" s="1" t="str">
@@ -55174,7 +55181,7 @@
         <v xml:space="preserve">هدية </v>
       </c>
       <c r="E925" s="1" t="s">
-        <v>6345</v>
+        <v>6344</v>
       </c>
       <c r="F925" s="1"/>
       <c r="G925" s="1"/>
@@ -55183,25 +55190,25 @@
         <v>إطراء</v>
       </c>
       <c r="I925" s="1" t="s">
-        <v>6346</v>
+        <v>6345</v>
       </c>
       <c r="J925" s="1"/>
       <c r="K925" s="1" t="s">
+        <v>6346</v>
+      </c>
+      <c r="L925" s="2" t="s">
         <v>6347</v>
       </c>
-      <c r="L925" s="2" t="s">
+      <c r="M925" s="1" t="s">
         <v>6348</v>
       </c>
-      <c r="M925" s="1" t="s">
+      <c r="N925" s="1" t="s">
         <v>6349</v>
-      </c>
-      <c r="N925" s="1" t="s">
-        <v>6350</v>
       </c>
     </row>
     <row r="926" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A926" s="1" t="s">
-        <v>6351</v>
+        <v>6350</v>
       </c>
       <c r="B926" s="1"/>
       <c r="C926" s="1"/>
@@ -55210,7 +55217,7 @@
         <v>هرب</v>
       </c>
       <c r="E926" s="1" t="s">
-        <v>6352</v>
+        <v>6351</v>
       </c>
       <c r="F926" s="1"/>
       <c r="G926" s="1"/>
@@ -55219,23 +55226,23 @@
         <v>فرار</v>
       </c>
       <c r="I926" s="1" t="s">
-        <v>6353</v>
+        <v>6352</v>
       </c>
       <c r="J926" s="1"/>
       <c r="K926" s="1" t="s">
-        <v>6354</v>
+        <v>6353</v>
       </c>
       <c r="L926" s="1"/>
       <c r="M926" s="1" t="s">
+        <v>6354</v>
+      </c>
+      <c r="N926" s="1" t="s">
         <v>6355</v>
-      </c>
-      <c r="N926" s="1" t="s">
-        <v>6356</v>
       </c>
     </row>
     <row r="927" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A927" s="1" t="s">
-        <v>6357</v>
+        <v>6356</v>
       </c>
       <c r="B927" s="1"/>
       <c r="C927" s="1"/>
@@ -55244,7 +55251,7 @@
         <v>هلوسة</v>
       </c>
       <c r="E927" s="1" t="s">
-        <v>6358</v>
+        <v>6357</v>
       </c>
       <c r="F927" s="1"/>
       <c r="G927" s="1"/>
@@ -55253,25 +55260,25 @@
         <v>وهم</v>
       </c>
       <c r="I927" s="1" t="s">
+        <v>6358</v>
+      </c>
+      <c r="J927" s="2" t="s">
         <v>6359</v>
       </c>
-      <c r="J927" s="2" t="s">
+      <c r="K927" s="1" t="s">
         <v>6360</v>
-      </c>
-      <c r="K927" s="1" t="s">
-        <v>6361</v>
       </c>
       <c r="L927" s="1"/>
       <c r="M927" s="1" t="s">
+        <v>6361</v>
+      </c>
+      <c r="N927" s="1" t="s">
         <v>6362</v>
-      </c>
-      <c r="N927" s="1" t="s">
-        <v>6363</v>
       </c>
     </row>
     <row r="928" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A928" s="1" t="s">
-        <v>6364</v>
+        <v>6363</v>
       </c>
       <c r="B928" s="1"/>
       <c r="C928" s="1"/>
@@ -55280,7 +55287,7 @@
         <v>هليكوبتر</v>
       </c>
       <c r="E928" s="1" t="s">
-        <v>6365</v>
+        <v>6364</v>
       </c>
       <c r="F928" s="1"/>
       <c r="G928" s="1"/>
@@ -55289,25 +55296,25 @@
         <v>سياره اسعاف</v>
       </c>
       <c r="I928" s="1" t="s">
+        <v>6365</v>
+      </c>
+      <c r="J928" s="2" t="s">
         <v>6366</v>
       </c>
-      <c r="J928" s="2" t="s">
+      <c r="K928" s="1" t="s">
         <v>6367</v>
-      </c>
-      <c r="K928" s="1" t="s">
-        <v>6368</v>
       </c>
       <c r="L928" s="1"/>
       <c r="M928" s="1" t="s">
+        <v>6368</v>
+      </c>
+      <c r="N928" s="1" t="s">
         <v>6369</v>
-      </c>
-      <c r="N928" s="1" t="s">
-        <v>6370</v>
       </c>
     </row>
     <row r="929" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A929" s="1" t="s">
-        <v>6371</v>
+        <v>6370</v>
       </c>
       <c r="B929" s="1"/>
       <c r="C929" s="1"/>
@@ -55316,7 +55323,7 @@
         <v>همبرغر</v>
       </c>
       <c r="E929" s="1" t="s">
-        <v>6372</v>
+        <v>6371</v>
       </c>
       <c r="F929" s="1"/>
       <c r="G929" s="1"/>
@@ -55325,23 +55332,23 @@
         <v>ساندويتش</v>
       </c>
       <c r="I929" s="1" t="s">
-        <v>6373</v>
+        <v>6372</v>
       </c>
       <c r="J929" s="1"/>
       <c r="K929" s="1" t="s">
-        <v>6374</v>
+        <v>6373</v>
       </c>
       <c r="L929" s="1"/>
       <c r="M929" s="1" t="s">
+        <v>6374</v>
+      </c>
+      <c r="N929" s="1" t="s">
         <v>6375</v>
-      </c>
-      <c r="N929" s="1" t="s">
-        <v>6376</v>
       </c>
     </row>
     <row r="930" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A930" s="1" t="s">
-        <v>6377</v>
+        <v>6376</v>
       </c>
       <c r="B930" s="1"/>
       <c r="C930" s="1"/>
@@ -55350,7 +55357,7 @@
         <v>هناك</v>
       </c>
       <c r="E930" s="1" t="s">
-        <v>6378</v>
+        <v>6377</v>
       </c>
       <c r="F930" s="1"/>
       <c r="G930" s="1"/>
@@ -55359,23 +55366,23 @@
         <v>هنا</v>
       </c>
       <c r="I930" s="1" t="s">
-        <v>6379</v>
+        <v>6378</v>
       </c>
       <c r="J930" s="1"/>
       <c r="K930" s="1" t="s">
-        <v>6380</v>
+        <v>6379</v>
       </c>
       <c r="L930" s="1"/>
       <c r="M930" s="1" t="s">
+        <v>6380</v>
+      </c>
+      <c r="N930" s="1" t="s">
         <v>6381</v>
-      </c>
-      <c r="N930" s="1" t="s">
-        <v>6382</v>
       </c>
     </row>
     <row r="931" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A931" s="1" t="s">
-        <v>6383</v>
+        <v>6382</v>
       </c>
       <c r="B931" s="1"/>
       <c r="C931" s="1"/>
@@ -55384,7 +55391,7 @@
         <v>هيدروجين</v>
       </c>
       <c r="E931" s="1" t="s">
-        <v>6384</v>
+        <v>6383</v>
       </c>
       <c r="F931" s="1"/>
       <c r="G931" s="1"/>
@@ -55393,23 +55400,23 @@
         <v>كربون</v>
       </c>
       <c r="I931" s="1" t="s">
-        <v>6385</v>
+        <v>6384</v>
       </c>
       <c r="J931" s="1"/>
       <c r="K931" s="1" t="s">
-        <v>6386</v>
+        <v>6385</v>
       </c>
       <c r="L931" s="1"/>
       <c r="M931" s="1" t="s">
+        <v>6386</v>
+      </c>
+      <c r="N931" s="1" t="s">
         <v>6387</v>
-      </c>
-      <c r="N931" s="1" t="s">
-        <v>6388</v>
       </c>
     </row>
     <row r="932" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A932" s="1" t="s">
-        <v>6389</v>
+        <v>6388</v>
       </c>
       <c r="B932" s="1"/>
       <c r="C932" s="1"/>
@@ -55418,7 +55425,7 @@
         <v>هيكل</v>
       </c>
       <c r="E932" s="1" t="s">
-        <v>6390</v>
+        <v>6389</v>
       </c>
       <c r="F932" s="1"/>
       <c r="G932" s="1"/>
@@ -55427,23 +55434,23 @@
         <v>هرم</v>
       </c>
       <c r="I932" s="1" t="s">
-        <v>6391</v>
+        <v>6390</v>
       </c>
       <c r="J932" s="1"/>
       <c r="K932" s="1" t="s">
-        <v>6392</v>
+        <v>6391</v>
       </c>
       <c r="L932" s="1"/>
       <c r="M932" s="1" t="s">
+        <v>6392</v>
+      </c>
+      <c r="N932" s="1" t="s">
         <v>6393</v>
-      </c>
-      <c r="N932" s="1" t="s">
-        <v>6394</v>
       </c>
     </row>
     <row r="933" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A933" s="1" t="s">
-        <v>6395</v>
+        <v>6394</v>
       </c>
       <c r="B933" s="1"/>
       <c r="C933" s="1"/>
@@ -55452,7 +55459,7 @@
         <v>واتسون</v>
       </c>
       <c r="E933" s="1" t="s">
-        <v>6396</v>
+        <v>6395</v>
       </c>
       <c r="F933" s="1"/>
       <c r="G933" s="1"/>
@@ -55461,23 +55468,23 @@
         <v>شيرلوك</v>
       </c>
       <c r="I933" s="1" t="s">
-        <v>6397</v>
+        <v>6396</v>
       </c>
       <c r="J933" s="1"/>
       <c r="K933" s="1" t="s">
-        <v>6398</v>
+        <v>6397</v>
       </c>
       <c r="L933" s="1"/>
       <c r="M933" s="1" t="s">
+        <v>6398</v>
+      </c>
+      <c r="N933" s="1" t="s">
         <v>6399</v>
-      </c>
-      <c r="N933" s="1" t="s">
-        <v>6400</v>
       </c>
     </row>
     <row r="934" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A934" s="1" t="s">
-        <v>6401</v>
+        <v>6400</v>
       </c>
       <c r="B934" s="1"/>
       <c r="C934" s="1"/>
@@ -55486,7 +55493,7 @@
         <v>واجب</v>
       </c>
       <c r="E934" s="1" t="s">
-        <v>6402</v>
+        <v>6401</v>
       </c>
       <c r="F934" s="1"/>
       <c r="G934" s="1"/>
@@ -55495,23 +55502,23 @@
         <v>المسئولية</v>
       </c>
       <c r="I934" s="1" t="s">
-        <v>6403</v>
+        <v>6402</v>
       </c>
       <c r="J934" s="1"/>
       <c r="K934" s="1" t="s">
-        <v>6404</v>
+        <v>6403</v>
       </c>
       <c r="L934" s="1"/>
       <c r="M934" s="1" t="s">
+        <v>6404</v>
+      </c>
+      <c r="N934" s="1" t="s">
         <v>6405</v>
-      </c>
-      <c r="N934" s="1" t="s">
-        <v>6406</v>
       </c>
     </row>
     <row r="935" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A935" s="1" t="s">
-        <v>6407</v>
+        <v>6406</v>
       </c>
       <c r="B935" s="1"/>
       <c r="C935" s="1"/>
@@ -55520,7 +55527,7 @@
         <v>واسع</v>
       </c>
       <c r="E935" s="1" t="s">
-        <v>6408</v>
+        <v>6407</v>
       </c>
       <c r="F935" s="1"/>
       <c r="G935" s="1"/>
@@ -55533,19 +55540,19 @@
       </c>
       <c r="J935" s="1"/>
       <c r="K935" s="1" t="s">
-        <v>6409</v>
+        <v>6408</v>
       </c>
       <c r="L935" s="1"/>
       <c r="M935" s="1" t="s">
+        <v>6409</v>
+      </c>
+      <c r="N935" s="1" t="s">
         <v>6410</v>
-      </c>
-      <c r="N935" s="1" t="s">
-        <v>6411</v>
       </c>
     </row>
     <row r="936" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A936" s="1" t="s">
-        <v>6412</v>
+        <v>6411</v>
       </c>
       <c r="B936" s="1"/>
       <c r="C936" s="1"/>
@@ -55554,7 +55561,7 @@
         <v>وباء</v>
       </c>
       <c r="E936" s="1" t="s">
-        <v>6413</v>
+        <v>6412</v>
       </c>
       <c r="F936" s="1"/>
       <c r="G936" s="1"/>
@@ -55563,23 +55570,23 @@
         <v>طاعون</v>
       </c>
       <c r="I936" s="1" t="s">
-        <v>6414</v>
+        <v>6413</v>
       </c>
       <c r="J936" s="1"/>
       <c r="K936" s="1" t="s">
-        <v>6415</v>
+        <v>6414</v>
       </c>
       <c r="L936" s="1"/>
       <c r="M936" s="1" t="s">
+        <v>6415</v>
+      </c>
+      <c r="N936" s="1" t="s">
         <v>6416</v>
-      </c>
-      <c r="N936" s="1" t="s">
-        <v>6417</v>
       </c>
     </row>
     <row r="937" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A937" s="1" t="s">
-        <v>6418</v>
+        <v>6417</v>
       </c>
       <c r="B937" s="1"/>
       <c r="C937" s="1"/>
@@ -55588,7 +55595,7 @@
         <v>وثيقة</v>
       </c>
       <c r="E937" s="1" t="s">
-        <v>6419</v>
+        <v>6418</v>
       </c>
       <c r="F937" s="1"/>
       <c r="G937" s="1"/>
@@ -55601,19 +55608,19 @@
       </c>
       <c r="J937" s="1"/>
       <c r="K937" s="1" t="s">
-        <v>6420</v>
+        <v>6419</v>
       </c>
       <c r="L937" s="1"/>
       <c r="M937" s="1" t="s">
+        <v>6420</v>
+      </c>
+      <c r="N937" s="1" t="s">
         <v>6421</v>
-      </c>
-      <c r="N937" s="1" t="s">
-        <v>6422</v>
       </c>
     </row>
     <row r="938" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A938" s="1" t="s">
-        <v>6423</v>
+        <v>6422</v>
       </c>
       <c r="B938" s="1"/>
       <c r="C938" s="1"/>
@@ -55622,7 +55629,7 @@
         <v>وجبة</v>
       </c>
       <c r="E938" s="1" t="s">
-        <v>6424</v>
+        <v>6423</v>
       </c>
       <c r="F938" s="1"/>
       <c r="G938" s="1"/>
@@ -55631,23 +55638,23 @@
         <v>غذاء</v>
       </c>
       <c r="I938" s="1" t="s">
-        <v>6425</v>
+        <v>6424</v>
       </c>
       <c r="J938" s="1"/>
       <c r="K938" s="1" t="s">
-        <v>6426</v>
+        <v>6425</v>
       </c>
       <c r="L938" s="1"/>
       <c r="M938" s="1" t="s">
+        <v>6426</v>
+      </c>
+      <c r="N938" s="1" t="s">
         <v>6427</v>
-      </c>
-      <c r="N938" s="1" t="s">
-        <v>6428</v>
       </c>
     </row>
     <row r="939" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A939" s="1" t="s">
-        <v>6429</v>
+        <v>6428</v>
       </c>
       <c r="B939" s="1"/>
       <c r="C939" s="1"/>
@@ -55656,7 +55663,7 @@
         <v>وجبة افطار</v>
       </c>
       <c r="E939" s="1" t="s">
-        <v>6430</v>
+        <v>6429</v>
       </c>
       <c r="F939" s="1"/>
       <c r="G939" s="1"/>
@@ -55665,25 +55672,25 @@
         <v>وجبة عشاء</v>
       </c>
       <c r="I939" s="1" t="s">
-        <v>6431</v>
+        <v>6430</v>
       </c>
       <c r="J939" s="1"/>
       <c r="K939" s="1" t="s">
+        <v>6431</v>
+      </c>
+      <c r="L939" s="2" t="s">
         <v>6432</v>
       </c>
-      <c r="L939" s="2" t="s">
+      <c r="M939" s="1" t="s">
         <v>6433</v>
       </c>
-      <c r="M939" s="1" t="s">
+      <c r="N939" s="1" t="s">
         <v>6434</v>
-      </c>
-      <c r="N939" s="1" t="s">
-        <v>6435</v>
       </c>
     </row>
     <row r="940" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A940" s="1" t="s">
-        <v>6436</v>
+        <v>6435</v>
       </c>
       <c r="B940" s="1"/>
       <c r="C940" s="1"/>
@@ -55692,7 +55699,7 @@
         <v>وحي - الهام</v>
       </c>
       <c r="E940" s="1" t="s">
-        <v>6437</v>
+        <v>6436</v>
       </c>
       <c r="F940" s="1"/>
       <c r="G940" s="1"/>
@@ -55701,25 +55708,25 @@
         <v>يلهم</v>
       </c>
       <c r="I940" s="1" t="s">
-        <v>6438</v>
+        <v>6437</v>
       </c>
       <c r="J940" s="1"/>
       <c r="K940" s="1" t="s">
+        <v>6438</v>
+      </c>
+      <c r="L940" s="2" t="s">
         <v>6439</v>
       </c>
-      <c r="L940" s="2" t="s">
+      <c r="M940" s="1" t="s">
         <v>6440</v>
       </c>
-      <c r="M940" s="1" t="s">
+      <c r="N940" s="1" t="s">
         <v>6441</v>
-      </c>
-      <c r="N940" s="1" t="s">
-        <v>6442</v>
       </c>
     </row>
     <row r="941" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A941" s="1" t="s">
-        <v>6443</v>
+        <v>6442</v>
       </c>
       <c r="B941" s="1"/>
       <c r="C941" s="1"/>
@@ -55728,7 +55735,7 @@
         <v>وحيدا</v>
       </c>
       <c r="E941" s="1" t="s">
-        <v>6444</v>
+        <v>6443</v>
       </c>
       <c r="F941" s="1"/>
       <c r="G941" s="1"/>
@@ -55737,23 +55744,23 @@
         <v>وحده</v>
       </c>
       <c r="I941" s="1" t="s">
-        <v>6445</v>
+        <v>6444</v>
       </c>
       <c r="J941" s="1"/>
       <c r="K941" s="1" t="s">
-        <v>6446</v>
+        <v>6445</v>
       </c>
       <c r="L941" s="1"/>
       <c r="M941" s="1" t="s">
+        <v>6446</v>
+      </c>
+      <c r="N941" s="1" t="s">
         <v>6447</v>
-      </c>
-      <c r="N941" s="1" t="s">
-        <v>6448</v>
       </c>
     </row>
     <row r="942" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A942" s="1" t="s">
-        <v>6449</v>
+        <v>6448</v>
       </c>
       <c r="B942" s="1"/>
       <c r="C942" s="1"/>
@@ -55762,7 +55769,7 @@
         <v>وداعا</v>
       </c>
       <c r="E942" s="1" t="s">
-        <v>6450</v>
+        <v>6449</v>
       </c>
       <c r="F942" s="1"/>
       <c r="G942" s="1"/>
@@ -55771,27 +55778,27 @@
         <v>أهلا</v>
       </c>
       <c r="I942" s="1" t="s">
+        <v>6450</v>
+      </c>
+      <c r="J942" s="2" t="s">
         <v>6451</v>
       </c>
-      <c r="J942" s="2" t="s">
+      <c r="K942" s="1" t="s">
         <v>6452</v>
       </c>
-      <c r="K942" s="1" t="s">
+      <c r="L942" s="2" t="s">
         <v>6453</v>
       </c>
-      <c r="L942" s="2" t="s">
+      <c r="M942" s="1" t="s">
         <v>6454</v>
       </c>
-      <c r="M942" s="1" t="s">
+      <c r="N942" s="1" t="s">
         <v>6455</v>
-      </c>
-      <c r="N942" s="1" t="s">
-        <v>6456</v>
       </c>
     </row>
     <row r="943" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A943" s="1" t="s">
-        <v>6457</v>
+        <v>6456</v>
       </c>
       <c r="B943" s="1"/>
       <c r="C943" s="1"/>
@@ -55800,7 +55807,7 @@
         <v>ودود</v>
       </c>
       <c r="E943" s="1" t="s">
-        <v>6458</v>
+        <v>6457</v>
       </c>
       <c r="F943" s="1"/>
       <c r="G943" s="1"/>
@@ -55809,23 +55816,23 @@
         <v>مؤدب</v>
       </c>
       <c r="I943" s="1" t="s">
-        <v>6459</v>
+        <v>6458</v>
       </c>
       <c r="J943" s="1"/>
       <c r="K943" s="1" t="s">
-        <v>6460</v>
+        <v>6459</v>
       </c>
       <c r="L943" s="1"/>
       <c r="M943" s="1" t="s">
+        <v>6460</v>
+      </c>
+      <c r="N943" s="1" t="s">
         <v>6461</v>
-      </c>
-      <c r="N943" s="1" t="s">
-        <v>6462</v>
       </c>
     </row>
     <row r="944" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A944" s="1" t="s">
-        <v>6463</v>
+        <v>6462</v>
       </c>
       <c r="B944" s="1"/>
       <c r="C944" s="1"/>
@@ -55834,7 +55841,7 @@
         <v>وزيرة</v>
       </c>
       <c r="E944" s="1" t="s">
-        <v>6464</v>
+        <v>6463</v>
       </c>
       <c r="F944" s="1"/>
       <c r="G944" s="1"/>
@@ -55843,25 +55850,25 @@
         <v>سفير</v>
       </c>
       <c r="I944" s="1" t="s">
+        <v>6464</v>
+      </c>
+      <c r="J944" s="2" t="s">
         <v>6465</v>
       </c>
-      <c r="J944" s="2" t="s">
+      <c r="K944" s="1" t="s">
         <v>6466</v>
-      </c>
-      <c r="K944" s="1" t="s">
-        <v>6467</v>
       </c>
       <c r="L944" s="1"/>
       <c r="M944" s="1" t="s">
+        <v>6467</v>
+      </c>
+      <c r="N944" s="1" t="s">
         <v>6468</v>
-      </c>
-      <c r="N944" s="1" t="s">
-        <v>6469</v>
       </c>
     </row>
     <row r="945" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A945" s="1" t="s">
-        <v>6470</v>
+        <v>6469</v>
       </c>
       <c r="B945" s="1"/>
       <c r="C945" s="1"/>
@@ -55870,7 +55877,7 @@
         <v>وصف</v>
       </c>
       <c r="E945" s="1" t="s">
-        <v>6471</v>
+        <v>6470</v>
       </c>
       <c r="F945" s="1"/>
       <c r="G945" s="1"/>
@@ -55879,25 +55886,25 @@
         <v>الملف الشخصي</v>
       </c>
       <c r="I945" s="1" t="s">
+        <v>6471</v>
+      </c>
+      <c r="J945" s="2" t="s">
         <v>6472</v>
       </c>
-      <c r="J945" s="2" t="s">
+      <c r="K945" s="1" t="s">
         <v>6473</v>
-      </c>
-      <c r="K945" s="1" t="s">
-        <v>6474</v>
       </c>
       <c r="L945" s="1"/>
       <c r="M945" s="1" t="s">
+        <v>6474</v>
+      </c>
+      <c r="N945" s="1" t="s">
         <v>6475</v>
-      </c>
-      <c r="N945" s="1" t="s">
-        <v>6476</v>
       </c>
     </row>
     <row r="946" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A946" s="1" t="s">
-        <v>6477</v>
+        <v>6476</v>
       </c>
       <c r="B946" s="1"/>
       <c r="C946" s="1"/>
@@ -55906,7 +55913,7 @@
         <v>وضع</v>
       </c>
       <c r="E946" s="1" t="s">
-        <v>6478</v>
+        <v>6477</v>
       </c>
       <c r="F946" s="1"/>
       <c r="G946" s="1"/>
@@ -55915,23 +55922,23 @@
         <v>إدراج</v>
       </c>
       <c r="I946" s="1" t="s">
-        <v>6479</v>
+        <v>6478</v>
       </c>
       <c r="J946" s="1"/>
       <c r="K946" s="1" t="s">
-        <v>6480</v>
+        <v>6479</v>
       </c>
       <c r="L946" s="1"/>
       <c r="M946" s="1" t="s">
+        <v>6480</v>
+      </c>
+      <c r="N946" s="1" t="s">
         <v>6481</v>
-      </c>
-      <c r="N946" s="1" t="s">
-        <v>6482</v>
       </c>
     </row>
     <row r="947" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A947" s="1" t="s">
-        <v>6477</v>
+        <v>6476</v>
       </c>
       <c r="B947" s="1"/>
       <c r="C947" s="1"/>
@@ -55940,7 +55947,7 @@
         <v>وضع</v>
       </c>
       <c r="E947" s="1" t="s">
-        <v>6483</v>
+        <v>6482</v>
       </c>
       <c r="F947" s="1"/>
       <c r="G947" s="1"/>
@@ -55949,23 +55956,23 @@
         <v>الحالة</v>
       </c>
       <c r="I947" s="1" t="s">
-        <v>6484</v>
+        <v>6483</v>
       </c>
       <c r="J947" s="1"/>
       <c r="K947" s="1" t="s">
-        <v>6480</v>
+        <v>6479</v>
       </c>
       <c r="L947" s="1"/>
       <c r="M947" s="1" t="s">
+        <v>6484</v>
+      </c>
+      <c r="N947" s="1" t="s">
         <v>6485</v>
-      </c>
-      <c r="N947" s="1" t="s">
-        <v>6486</v>
       </c>
     </row>
     <row r="948" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A948" s="1" t="s">
-        <v>6487</v>
+        <v>6486</v>
       </c>
       <c r="B948" s="1"/>
       <c r="C948" s="1"/>
@@ -55974,7 +55981,7 @@
         <v>وظيفي</v>
       </c>
       <c r="E948" s="1" t="s">
-        <v>6488</v>
+        <v>6487</v>
       </c>
       <c r="F948" s="1"/>
       <c r="G948" s="1"/>
@@ -55983,25 +55990,25 @@
         <v>التشغيل</v>
       </c>
       <c r="I948" s="1" t="s">
-        <v>6489</v>
+        <v>6488</v>
       </c>
       <c r="J948" s="1"/>
       <c r="K948" s="1" t="s">
+        <v>6489</v>
+      </c>
+      <c r="L948" s="2" t="s">
         <v>6490</v>
       </c>
-      <c r="L948" s="2" t="s">
+      <c r="M948" s="1" t="s">
         <v>6491</v>
       </c>
-      <c r="M948" s="1" t="s">
+      <c r="N948" s="1" t="s">
         <v>6492</v>
-      </c>
-      <c r="N948" s="1" t="s">
-        <v>6493</v>
       </c>
     </row>
     <row r="949" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A949" s="1" t="s">
-        <v>6494</v>
+        <v>6493</v>
       </c>
       <c r="B949" s="1"/>
       <c r="C949" s="1"/>
@@ -56010,7 +56017,7 @@
         <v>وقت الظهيرة</v>
       </c>
       <c r="E949" s="1" t="s">
-        <v>6495</v>
+        <v>6494</v>
       </c>
       <c r="F949" s="1"/>
       <c r="G949" s="1"/>
@@ -56019,27 +56026,27 @@
         <v>منتصف الليل</v>
       </c>
       <c r="I949" s="1" t="s">
+        <v>6495</v>
+      </c>
+      <c r="J949" s="2" t="s">
         <v>6496</v>
       </c>
-      <c r="J949" s="2" t="s">
+      <c r="K949" s="1" t="s">
         <v>6497</v>
       </c>
-      <c r="K949" s="1" t="s">
+      <c r="L949" s="2" t="s">
         <v>6498</v>
       </c>
-      <c r="L949" s="2" t="s">
+      <c r="M949" s="1" t="s">
         <v>6499</v>
       </c>
-      <c r="M949" s="1" t="s">
+      <c r="N949" s="1" t="s">
         <v>6500</v>
-      </c>
-      <c r="N949" s="1" t="s">
-        <v>6501</v>
       </c>
     </row>
     <row r="950" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A950" s="1" t="s">
-        <v>6502</v>
+        <v>6501</v>
       </c>
       <c r="B950" s="1"/>
       <c r="C950" s="1"/>
@@ -56057,25 +56064,25 @@
         <v>مؤسسة</v>
       </c>
       <c r="I950" s="1" t="s">
+        <v>6502</v>
+      </c>
+      <c r="J950" s="2" t="s">
         <v>6503</v>
       </c>
-      <c r="J950" s="2" t="s">
+      <c r="K950" s="1" t="s">
         <v>6504</v>
-      </c>
-      <c r="K950" s="1" t="s">
-        <v>6505</v>
       </c>
       <c r="L950" s="1"/>
       <c r="M950" s="1" t="s">
+        <v>6505</v>
+      </c>
+      <c r="N950" s="1" t="s">
         <v>6506</v>
-      </c>
-      <c r="N950" s="1" t="s">
-        <v>6507</v>
       </c>
     </row>
     <row r="951" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A951" s="1" t="s">
-        <v>6508</v>
+        <v>6507</v>
       </c>
       <c r="B951" s="1"/>
       <c r="C951" s="1"/>
@@ -56084,7 +56091,7 @@
         <v>ولد عم</v>
       </c>
       <c r="E951" s="1" t="s">
-        <v>6509</v>
+        <v>6508</v>
       </c>
       <c r="F951" s="1"/>
       <c r="G951" s="1"/>
@@ -56093,25 +56100,25 @@
         <v>نسبيا</v>
       </c>
       <c r="I951" s="1" t="s">
+        <v>6509</v>
+      </c>
+      <c r="J951" s="2" t="s">
         <v>6510</v>
       </c>
-      <c r="J951" s="2" t="s">
+      <c r="K951" s="1" t="s">
         <v>6511</v>
-      </c>
-      <c r="K951" s="1" t="s">
-        <v>6512</v>
       </c>
       <c r="L951" s="1"/>
       <c r="M951" s="1" t="s">
+        <v>6512</v>
+      </c>
+      <c r="N951" s="1" t="s">
         <v>6513</v>
-      </c>
-      <c r="N951" s="1" t="s">
-        <v>6514</v>
       </c>
     </row>
     <row r="952" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A952" s="1" t="s">
-        <v>6515</v>
+        <v>6514</v>
       </c>
       <c r="B952" s="1"/>
       <c r="C952" s="1"/>
@@ -56120,7 +56127,7 @@
         <v>ويب</v>
       </c>
       <c r="E952" s="1" t="s">
-        <v>6516</v>
+        <v>6515</v>
       </c>
       <c r="F952" s="1"/>
       <c r="G952" s="1"/>
@@ -56129,26 +56136,26 @@
         <v>إنترنت</v>
       </c>
       <c r="I952" s="1" t="s">
-        <v>6517</v>
+        <v>6516</v>
       </c>
       <c r="J952" s="1"/>
       <c r="K952" s="1" t="s">
-        <v>6518</v>
+        <v>6517</v>
       </c>
       <c r="L952" s="1"/>
       <c r="M952" s="1" t="s">
+        <v>6518</v>
+      </c>
+      <c r="N952" s="1" t="s">
         <v>6519</v>
-      </c>
-      <c r="N952" s="1" t="s">
-        <v>6520</v>
       </c>
     </row>
     <row r="953" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A953" s="1" t="s">
+        <v>6520</v>
+      </c>
+      <c r="B953" s="2" t="s">
         <v>6521</v>
-      </c>
-      <c r="B953" s="2" t="s">
-        <v>6522</v>
       </c>
       <c r="C953" s="3"/>
       <c r="D953" s="1" t="str">
@@ -56156,10 +56163,10 @@
         <v>مأمون</v>
       </c>
       <c r="E953" s="1" t="s">
+        <v>6522</v>
+      </c>
+      <c r="F953" s="2" t="s">
         <v>6523</v>
-      </c>
-      <c r="F953" s="2" t="s">
-        <v>6524</v>
       </c>
       <c r="G953" s="3"/>
       <c r="H953" s="1" t="str">
@@ -56167,28 +56174,28 @@
         <v>آمن</v>
       </c>
       <c r="I953" s="1" t="s">
+        <v>6524</v>
+      </c>
+      <c r="J953" s="2" t="s">
         <v>6525</v>
       </c>
-      <c r="J953" s="2" t="s">
+      <c r="K953" s="1" t="s">
         <v>6526</v>
-      </c>
-      <c r="K953" s="1" t="s">
-        <v>6527</v>
       </c>
       <c r="L953" s="1"/>
       <c r="M953" s="1" t="s">
+        <v>6527</v>
+      </c>
+      <c r="N953" s="1" t="s">
         <v>6528</v>
-      </c>
-      <c r="N953" s="1" t="s">
-        <v>6529</v>
       </c>
     </row>
     <row r="954" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A954" s="1" t="s">
+        <v>6529</v>
+      </c>
+      <c r="B954" s="2" t="s">
         <v>6530</v>
-      </c>
-      <c r="B954" s="2" t="s">
-        <v>6531</v>
       </c>
       <c r="C954" s="3"/>
       <c r="D954" s="1" t="str">
@@ -56196,7 +56203,7 @@
         <v>صوت</v>
       </c>
       <c r="E954" s="1" t="s">
-        <v>6532</v>
+        <v>6531</v>
       </c>
       <c r="F954" s="1"/>
       <c r="G954" s="1"/>
@@ -56205,18 +56212,18 @@
         <v>الضوضاء</v>
       </c>
       <c r="I954" s="1" t="s">
-        <v>6533</v>
+        <v>6532</v>
       </c>
       <c r="J954" s="1"/>
       <c r="K954" s="1" t="s">
-        <v>6534</v>
+        <v>6533</v>
       </c>
       <c r="L954" s="1"/>
       <c r="M954" s="1" t="s">
+        <v>6534</v>
+      </c>
+      <c r="N954" s="1" t="s">
         <v>6535</v>
-      </c>
-      <c r="N954" s="1" t="s">
-        <v>6536</v>
       </c>
     </row>
     <row r="955" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -56230,7 +56237,7 @@
         <v>يبني</v>
       </c>
       <c r="E955" s="1" t="s">
-        <v>6537</v>
+        <v>6536</v>
       </c>
       <c r="F955" s="1"/>
       <c r="G955" s="1"/>
@@ -56239,25 +56246,25 @@
         <v>اعمال بناء</v>
       </c>
       <c r="I955" s="1" t="s">
+        <v>6537</v>
+      </c>
+      <c r="J955" s="2" t="s">
         <v>6538</v>
       </c>
-      <c r="J955" s="2" t="s">
+      <c r="K955" s="1" t="s">
         <v>6539</v>
-      </c>
-      <c r="K955" s="1" t="s">
-        <v>6540</v>
       </c>
       <c r="L955" s="1"/>
       <c r="M955" s="1" t="s">
+        <v>6540</v>
+      </c>
+      <c r="N955" s="1" t="s">
         <v>6541</v>
-      </c>
-      <c r="N955" s="1" t="s">
-        <v>6542</v>
       </c>
     </row>
     <row r="956" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A956" s="1" t="s">
-        <v>6543</v>
+        <v>6542</v>
       </c>
       <c r="B956" s="1"/>
       <c r="C956" s="1"/>
@@ -56266,10 +56273,10 @@
         <v>يترك</v>
       </c>
       <c r="E956" s="1" t="s">
+        <v>6543</v>
+      </c>
+      <c r="F956" s="2" t="s">
         <v>6544</v>
-      </c>
-      <c r="F956" s="2" t="s">
-        <v>6545</v>
       </c>
       <c r="G956" s="3"/>
       <c r="H956" s="1" t="str">
@@ -56277,23 +56284,23 @@
         <v>سماح</v>
       </c>
       <c r="I956" s="1" t="s">
-        <v>6546</v>
+        <v>6545</v>
       </c>
       <c r="J956" s="1"/>
       <c r="K956" s="1" t="s">
-        <v>6547</v>
+        <v>6546</v>
       </c>
       <c r="L956" s="1"/>
       <c r="M956" s="1" t="s">
+        <v>6547</v>
+      </c>
+      <c r="N956" s="1" t="s">
         <v>6548</v>
-      </c>
-      <c r="N956" s="1" t="s">
-        <v>6549</v>
       </c>
     </row>
     <row r="957" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A957" s="1" t="s">
-        <v>6550</v>
+        <v>6549</v>
       </c>
       <c r="B957" s="1"/>
       <c r="C957" s="1"/>
@@ -56302,7 +56309,7 @@
         <v>يجتمع</v>
       </c>
       <c r="E957" s="1" t="s">
-        <v>6551</v>
+        <v>6550</v>
       </c>
       <c r="F957" s="1"/>
       <c r="G957" s="1"/>
@@ -56311,23 +56318,23 @@
         <v>يجمع</v>
       </c>
       <c r="I957" s="1" t="s">
-        <v>6552</v>
+        <v>6551</v>
       </c>
       <c r="J957" s="1"/>
       <c r="K957" s="1" t="s">
-        <v>6553</v>
+        <v>6552</v>
       </c>
       <c r="L957" s="1"/>
       <c r="M957" s="1" t="s">
+        <v>6553</v>
+      </c>
+      <c r="N957" s="1" t="s">
         <v>6554</v>
-      </c>
-      <c r="N957" s="1" t="s">
-        <v>6555</v>
       </c>
     </row>
     <row r="958" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A958" s="1" t="s">
-        <v>6550</v>
+        <v>6549</v>
       </c>
       <c r="B958" s="1"/>
       <c r="C958" s="1"/>
@@ -56336,7 +56343,7 @@
         <v>يجتمع</v>
       </c>
       <c r="E958" s="1" t="s">
-        <v>6556</v>
+        <v>6555</v>
       </c>
       <c r="F958" s="1"/>
       <c r="G958" s="1"/>
@@ -56345,26 +56352,26 @@
         <v>يرى</v>
       </c>
       <c r="I958" s="1" t="s">
-        <v>6557</v>
+        <v>6556</v>
       </c>
       <c r="J958" s="1"/>
       <c r="K958" s="1" t="s">
-        <v>6553</v>
+        <v>6552</v>
       </c>
       <c r="L958" s="1"/>
       <c r="M958" s="1" t="s">
+        <v>6557</v>
+      </c>
+      <c r="N958" s="1" t="s">
         <v>6558</v>
-      </c>
-      <c r="N958" s="1" t="s">
-        <v>6559</v>
       </c>
     </row>
     <row r="959" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A959" s="1" t="s">
+        <v>6559</v>
+      </c>
+      <c r="B959" s="2" t="s">
         <v>6560</v>
-      </c>
-      <c r="B959" s="2" t="s">
-        <v>6561</v>
       </c>
       <c r="C959" s="3"/>
       <c r="D959" s="1" t="str">
@@ -56372,10 +56379,10 @@
         <v>حاجة</v>
       </c>
       <c r="E959" s="1" t="s">
+        <v>6561</v>
+      </c>
+      <c r="F959" s="2" t="s">
         <v>6562</v>
-      </c>
-      <c r="F959" s="2" t="s">
-        <v>6563</v>
       </c>
       <c r="G959" s="3"/>
       <c r="H959" s="1" t="str">
@@ -56383,25 +56390,25 @@
         <v>ضروري</v>
       </c>
       <c r="I959" s="1" t="s">
+        <v>6563</v>
+      </c>
+      <c r="J959" s="2" t="s">
         <v>6564</v>
       </c>
-      <c r="J959" s="2" t="s">
+      <c r="K959" s="1" t="s">
         <v>6565</v>
-      </c>
-      <c r="K959" s="1" t="s">
-        <v>6566</v>
       </c>
       <c r="L959" s="1"/>
       <c r="M959" s="1" t="s">
+        <v>6566</v>
+      </c>
+      <c r="N959" s="1" t="s">
         <v>6567</v>
-      </c>
-      <c r="N959" s="1" t="s">
-        <v>6568</v>
       </c>
     </row>
     <row r="960" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A960" s="1" t="s">
-        <v>6569</v>
+        <v>6568</v>
       </c>
       <c r="B960" s="1"/>
       <c r="C960" s="1"/>
@@ -56410,7 +56417,7 @@
         <v>يحدث</v>
       </c>
       <c r="E960" s="1" t="s">
-        <v>6569</v>
+        <v>6568</v>
       </c>
       <c r="F960" s="2" t="s">
         <v>1663</v>
@@ -56421,28 +56428,28 @@
         <v>يقع</v>
       </c>
       <c r="I960" s="1" t="s">
-        <v>6570</v>
+        <v>6569</v>
       </c>
       <c r="J960" s="1"/>
       <c r="K960" s="1" t="s">
+        <v>6569</v>
+      </c>
+      <c r="L960" s="2" t="s">
         <v>6570</v>
       </c>
-      <c r="L960" s="2" t="s">
+      <c r="M960" s="1" t="s">
         <v>6571</v>
       </c>
-      <c r="M960" s="1" t="s">
+      <c r="N960" s="1" t="s">
         <v>6572</v>
-      </c>
-      <c r="N960" s="1" t="s">
-        <v>6573</v>
       </c>
     </row>
     <row r="961" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A961" s="1" t="s">
+        <v>6573</v>
+      </c>
+      <c r="B961" s="2" t="s">
         <v>6574</v>
-      </c>
-      <c r="B961" s="2" t="s">
-        <v>6575</v>
       </c>
       <c r="C961" s="3"/>
       <c r="D961" s="1" t="str">
@@ -56450,7 +56457,7 @@
         <v>يجذب</v>
       </c>
       <c r="E961" s="1" t="s">
-        <v>6576</v>
+        <v>6575</v>
       </c>
       <c r="F961" s="1"/>
       <c r="G961" s="1"/>
@@ -56459,25 +56466,25 @@
         <v>يدفع</v>
       </c>
       <c r="I961" s="1" t="s">
-        <v>6577</v>
+        <v>6576</v>
       </c>
       <c r="J961" s="1"/>
       <c r="K961" s="1" t="s">
+        <v>6577</v>
+      </c>
+      <c r="L961" s="2" t="s">
         <v>6578</v>
       </c>
-      <c r="L961" s="2" t="s">
+      <c r="M961" s="1" t="s">
         <v>6579</v>
       </c>
-      <c r="M961" s="1" t="s">
+      <c r="N961" s="1" t="s">
         <v>6580</v>
-      </c>
-      <c r="N961" s="1" t="s">
-        <v>6581</v>
       </c>
     </row>
     <row r="962" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A962" s="1" t="s">
-        <v>6582</v>
+        <v>6581</v>
       </c>
       <c r="B962" s="1"/>
       <c r="C962" s="1"/>
@@ -56486,7 +56493,7 @@
         <v>يحظر</v>
       </c>
       <c r="E962" s="1" t="s">
-        <v>6583</v>
+        <v>6582</v>
       </c>
       <c r="F962" s="1"/>
       <c r="G962" s="1"/>
@@ -56495,28 +56502,28 @@
         <v>محرم</v>
       </c>
       <c r="I962" s="1" t="s">
-        <v>6584</v>
+        <v>6583</v>
       </c>
       <c r="J962" s="1"/>
       <c r="K962" s="1" t="s">
+        <v>6584</v>
+      </c>
+      <c r="L962" s="2" t="s">
         <v>6585</v>
       </c>
-      <c r="L962" s="2" t="s">
+      <c r="M962" s="1" t="s">
         <v>6586</v>
       </c>
-      <c r="M962" s="1" t="s">
+      <c r="N962" s="1" t="s">
         <v>6587</v>
-      </c>
-      <c r="N962" s="1" t="s">
-        <v>6588</v>
       </c>
     </row>
     <row r="963" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A963" s="1" t="s">
+        <v>6588</v>
+      </c>
+      <c r="B963" s="2" t="s">
         <v>6589</v>
-      </c>
-      <c r="B963" s="2" t="s">
-        <v>6590</v>
       </c>
       <c r="C963" s="3"/>
       <c r="D963" s="1" t="str">
@@ -56524,41 +56531,41 @@
         <v>خوف</v>
       </c>
       <c r="E963" s="1" t="s">
-        <v>6591</v>
+        <v>6590</v>
       </c>
       <c r="F963" s="1"/>
       <c r="G963" s="1"/>
       <c r="H963" s="1" t="str">
-        <f t="shared" ref="H963:H1001" si="126">E963</f>
+        <f t="shared" ref="H963:H999" si="126">E963</f>
         <v>رعب</v>
       </c>
       <c r="I963" s="1" t="s">
-        <v>6592</v>
+        <v>6591</v>
       </c>
       <c r="J963" s="1"/>
       <c r="K963" s="1" t="s">
-        <v>6593</v>
+        <v>6592</v>
       </c>
       <c r="L963" s="1"/>
       <c r="M963" s="1" t="s">
+        <v>6593</v>
+      </c>
+      <c r="N963" s="1" t="s">
         <v>6594</v>
-      </c>
-      <c r="N963" s="1" t="s">
-        <v>6595</v>
       </c>
     </row>
     <row r="964" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A964" s="1" t="s">
-        <v>6596</v>
+        <v>6595</v>
       </c>
       <c r="B964" s="1"/>
       <c r="C964" s="1"/>
       <c r="D964" s="1" t="str">
-        <f t="shared" ref="D963:D1001" si="127">A964</f>
+        <f t="shared" ref="D964:D1001" si="127">A964</f>
         <v>يخبار</v>
       </c>
       <c r="E964" s="1" t="s">
-        <v>6597</v>
+        <v>6596</v>
       </c>
       <c r="F964" s="1"/>
       <c r="G964" s="1"/>
@@ -56567,23 +56574,23 @@
         <v>قل</v>
       </c>
       <c r="I964" s="1" t="s">
-        <v>6598</v>
+        <v>6597</v>
       </c>
       <c r="J964" s="1"/>
       <c r="K964" s="1" t="s">
-        <v>6599</v>
+        <v>6598</v>
       </c>
       <c r="L964" s="1"/>
       <c r="M964" s="1" t="s">
+        <v>6599</v>
+      </c>
+      <c r="N964" s="1" t="s">
         <v>6600</v>
-      </c>
-      <c r="N964" s="1" t="s">
-        <v>6601</v>
       </c>
     </row>
     <row r="965" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A965" s="1" t="s">
-        <v>6602</v>
+        <v>6601</v>
       </c>
       <c r="B965" s="1"/>
       <c r="C965" s="1"/>
@@ -56592,10 +56599,10 @@
         <v>يخبر</v>
       </c>
       <c r="E965" s="1" t="s">
-        <v>6280</v>
+        <v>6279</v>
       </c>
       <c r="F965" s="2" t="s">
-        <v>6603</v>
+        <v>6602</v>
       </c>
       <c r="G965" s="3"/>
       <c r="H965" s="1" t="str">
@@ -56607,19 +56614,19 @@
       </c>
       <c r="J965" s="1"/>
       <c r="K965" s="1" t="s">
-        <v>6604</v>
+        <v>6603</v>
       </c>
       <c r="L965" s="1"/>
       <c r="M965" s="1" t="s">
+        <v>6604</v>
+      </c>
+      <c r="N965" s="1" t="s">
         <v>6605</v>
-      </c>
-      <c r="N965" s="1" t="s">
-        <v>6606</v>
       </c>
     </row>
     <row r="966" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A966" s="1" t="s">
-        <v>6607</v>
+        <v>6606</v>
       </c>
       <c r="B966" s="1"/>
       <c r="C966" s="1"/>
@@ -56628,7 +56635,7 @@
         <v>يخفي</v>
       </c>
       <c r="E966" s="1" t="s">
-        <v>6608</v>
+        <v>6607</v>
       </c>
       <c r="F966" s="1"/>
       <c r="G966" s="1"/>
@@ -56637,23 +56644,23 @@
         <v>التغطية</v>
       </c>
       <c r="I966" s="1" t="s">
-        <v>6609</v>
+        <v>6608</v>
       </c>
       <c r="J966" s="1"/>
       <c r="K966" s="1" t="s">
-        <v>6610</v>
+        <v>6609</v>
       </c>
       <c r="L966" s="1"/>
       <c r="M966" s="1" t="s">
+        <v>6610</v>
+      </c>
+      <c r="N966" s="1" t="s">
         <v>6611</v>
-      </c>
-      <c r="N966" s="1" t="s">
-        <v>6612</v>
       </c>
     </row>
     <row r="967" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A967" s="1" t="s">
-        <v>6613</v>
+        <v>6612</v>
       </c>
       <c r="B967" s="1"/>
       <c r="C967" s="1"/>
@@ -56662,7 +56669,7 @@
         <v>يدور في مدار</v>
       </c>
       <c r="E967" s="1" t="s">
-        <v>6614</v>
+        <v>6613</v>
       </c>
       <c r="F967" s="1"/>
       <c r="G967" s="1"/>
@@ -56671,23 +56678,23 @@
         <v>كوكب</v>
       </c>
       <c r="I967" s="1" t="s">
-        <v>6615</v>
+        <v>6614</v>
       </c>
       <c r="J967" s="1"/>
       <c r="K967" s="1" t="s">
-        <v>6616</v>
+        <v>6615</v>
       </c>
       <c r="L967" s="1"/>
       <c r="M967" s="1" t="s">
+        <v>6616</v>
+      </c>
+      <c r="N967" s="1" t="s">
         <v>6617</v>
-      </c>
-      <c r="N967" s="1" t="s">
-        <v>6618</v>
       </c>
     </row>
     <row r="968" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A968" s="1" t="s">
-        <v>6619</v>
+        <v>6618</v>
       </c>
       <c r="B968" s="1"/>
       <c r="C968" s="1"/>
@@ -56696,7 +56703,7 @@
         <v>يرث</v>
       </c>
       <c r="E968" s="1" t="s">
-        <v>6620</v>
+        <v>6619</v>
       </c>
       <c r="F968" s="1"/>
       <c r="G968" s="1"/>
@@ -56705,23 +56712,23 @@
         <v>إرث</v>
       </c>
       <c r="I968" s="1" t="s">
-        <v>6621</v>
+        <v>6620</v>
       </c>
       <c r="J968" s="1"/>
       <c r="K968" s="1" t="s">
-        <v>6622</v>
+        <v>6621</v>
       </c>
       <c r="L968" s="1"/>
       <c r="M968" s="1" t="s">
+        <v>6622</v>
+      </c>
+      <c r="N968" s="1" t="s">
         <v>6623</v>
-      </c>
-      <c r="N968" s="1" t="s">
-        <v>6624</v>
       </c>
     </row>
     <row r="969" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A969" s="1" t="s">
-        <v>6625</v>
+        <v>6624</v>
       </c>
       <c r="B969" s="1"/>
       <c r="C969" s="1"/>
@@ -56730,7 +56737,7 @@
         <v>يسمع</v>
       </c>
       <c r="E969" s="1" t="s">
-        <v>6626</v>
+        <v>6625</v>
       </c>
       <c r="F969" s="1"/>
       <c r="G969" s="1"/>
@@ -56739,23 +56746,23 @@
         <v>استمع</v>
       </c>
       <c r="I969" s="1" t="s">
-        <v>6627</v>
+        <v>6626</v>
       </c>
       <c r="J969" s="1"/>
       <c r="K969" s="1" t="s">
-        <v>6628</v>
+        <v>6627</v>
       </c>
       <c r="L969" s="1"/>
       <c r="M969" s="1" t="s">
+        <v>6628</v>
+      </c>
+      <c r="N969" s="1" t="s">
         <v>6629</v>
-      </c>
-      <c r="N969" s="1" t="s">
-        <v>6630</v>
       </c>
     </row>
     <row r="970" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A970" s="1" t="s">
-        <v>6631</v>
+        <v>6630</v>
       </c>
       <c r="B970" s="2" t="s">
         <v>3816</v>
@@ -56766,7 +56773,7 @@
         <v>شكر</v>
       </c>
       <c r="E970" s="1" t="s">
-        <v>6632</v>
+        <v>6631</v>
       </c>
       <c r="F970" s="1"/>
       <c r="G970" s="1"/>
@@ -56775,25 +56782,25 @@
         <v>حسن الضيافة</v>
       </c>
       <c r="I970" s="1" t="s">
+        <v>6632</v>
+      </c>
+      <c r="J970" s="2" t="s">
         <v>6633</v>
       </c>
-      <c r="J970" s="2" t="s">
+      <c r="K970" s="1" t="s">
         <v>6634</v>
-      </c>
-      <c r="K970" s="1" t="s">
-        <v>6635</v>
       </c>
       <c r="L970" s="1"/>
       <c r="M970" s="1" t="s">
+        <v>6635</v>
+      </c>
+      <c r="N970" s="1" t="s">
         <v>6636</v>
-      </c>
-      <c r="N970" s="1" t="s">
-        <v>6637</v>
       </c>
     </row>
     <row r="971" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A971" s="1" t="s">
-        <v>6638</v>
+        <v>6637</v>
       </c>
       <c r="B971" s="1"/>
       <c r="C971" s="1"/>
@@ -56802,7 +56809,7 @@
         <v>يشير</v>
       </c>
       <c r="E971" s="1" t="s">
-        <v>6639</v>
+        <v>6638</v>
       </c>
       <c r="F971" s="1"/>
       <c r="G971" s="1"/>
@@ -56811,23 +56818,23 @@
         <v>نقطة</v>
       </c>
       <c r="I971" s="1" t="s">
-        <v>6640</v>
+        <v>6639</v>
       </c>
       <c r="J971" s="1"/>
       <c r="K971" s="1" t="s">
-        <v>6641</v>
+        <v>6640</v>
       </c>
       <c r="L971" s="1"/>
       <c r="M971" s="1" t="s">
+        <v>6641</v>
+      </c>
+      <c r="N971" s="1" t="s">
         <v>6642</v>
-      </c>
-      <c r="N971" s="1" t="s">
-        <v>6643</v>
       </c>
     </row>
     <row r="972" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A972" s="1" t="s">
-        <v>6644</v>
+        <v>6643</v>
       </c>
       <c r="B972" s="1"/>
       <c r="C972" s="1"/>
@@ -56836,7 +56843,7 @@
         <v>يصدق</v>
       </c>
       <c r="E972" s="1" t="s">
-        <v>6645</v>
+        <v>6644</v>
       </c>
       <c r="F972" s="1"/>
       <c r="G972" s="1"/>
@@ -56845,25 +56852,25 @@
         <v>يثق</v>
       </c>
       <c r="I972" s="1" t="s">
-        <v>6646</v>
+        <v>6645</v>
       </c>
       <c r="J972" s="1"/>
       <c r="K972" s="1" t="s">
+        <v>6646</v>
+      </c>
+      <c r="L972" s="2" t="s">
         <v>6647</v>
       </c>
-      <c r="L972" s="2" t="s">
+      <c r="M972" s="1" t="s">
         <v>6648</v>
       </c>
-      <c r="M972" s="1" t="s">
+      <c r="N972" s="1" t="s">
         <v>6649</v>
-      </c>
-      <c r="N972" s="1" t="s">
-        <v>6650</v>
       </c>
     </row>
     <row r="973" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A973" s="1" t="s">
-        <v>6651</v>
+        <v>6650</v>
       </c>
       <c r="B973" s="1"/>
       <c r="C973" s="1"/>
@@ -56872,36 +56879,36 @@
         <v>يصلح</v>
       </c>
       <c r="E973" s="1" t="s">
-        <v>6651</v>
+        <v>6650</v>
       </c>
       <c r="F973" s="1" t="s">
-        <v>6855</v>
+        <v>6854</v>
       </c>
       <c r="H973" s="1" t="str">
         <f>F973</f>
         <v>حل</v>
       </c>
       <c r="I973" s="1" t="s">
-        <v>6652</v>
+        <v>6651</v>
       </c>
       <c r="J973" s="1"/>
       <c r="K973" s="1" t="s">
-        <v>6653</v>
+        <v>6652</v>
       </c>
       <c r="L973" s="1"/>
       <c r="M973" s="1" t="s">
+        <v>6653</v>
+      </c>
+      <c r="N973" s="1" t="s">
         <v>6654</v>
       </c>
-      <c r="N973" s="1" t="s">
-        <v>6655</v>
-      </c>
       <c r="P973" s="1" t="s">
-        <v>6654</v>
+        <v>6653</v>
       </c>
     </row>
     <row r="974" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A974" s="1" t="s">
-        <v>6656</v>
+        <v>6655</v>
       </c>
       <c r="B974" s="1"/>
       <c r="C974" s="1"/>
@@ -56910,7 +56917,7 @@
         <v>يضحك</v>
       </c>
       <c r="E974" s="1" t="s">
-        <v>6657</v>
+        <v>6656</v>
       </c>
       <c r="F974" s="1"/>
       <c r="G974" s="1"/>
@@ -56919,26 +56926,26 @@
         <v>ابتسامة</v>
       </c>
       <c r="I974" s="1" t="s">
-        <v>6658</v>
+        <v>6657</v>
       </c>
       <c r="J974" s="1"/>
       <c r="K974" s="1" t="s">
-        <v>6659</v>
+        <v>6658</v>
       </c>
       <c r="L974" s="1"/>
       <c r="M974" s="1" t="s">
+        <v>6659</v>
+      </c>
+      <c r="N974" s="1" t="s">
         <v>6660</v>
-      </c>
-      <c r="N974" s="1" t="s">
-        <v>6661</v>
       </c>
     </row>
     <row r="975" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A975" s="1" t="s">
+        <v>6661</v>
+      </c>
+      <c r="B975" s="2" t="s">
         <v>6662</v>
-      </c>
-      <c r="B975" s="2" t="s">
-        <v>6663</v>
       </c>
       <c r="C975" s="3"/>
       <c r="D975" s="1" t="str">
@@ -56946,7 +56953,7 @@
         <v>يسأل</v>
       </c>
       <c r="E975" s="1" t="s">
-        <v>6664</v>
+        <v>6663</v>
       </c>
       <c r="F975" s="1"/>
       <c r="G975" s="1"/>
@@ -56955,23 +56962,23 @@
         <v>سؤال</v>
       </c>
       <c r="I975" s="1" t="s">
-        <v>6665</v>
+        <v>6664</v>
       </c>
       <c r="J975" s="1"/>
       <c r="K975" s="1" t="s">
-        <v>6666</v>
+        <v>6665</v>
       </c>
       <c r="L975" s="1"/>
       <c r="M975" s="1" t="s">
+        <v>6666</v>
+      </c>
+      <c r="N975" s="1" t="s">
         <v>6667</v>
-      </c>
-      <c r="N975" s="1" t="s">
-        <v>6668</v>
       </c>
     </row>
     <row r="976" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A976" s="1" t="s">
-        <v>6669</v>
+        <v>6668</v>
       </c>
       <c r="B976" s="1"/>
       <c r="C976" s="1"/>
@@ -56980,10 +56987,10 @@
         <v>يطير</v>
       </c>
       <c r="E976" s="1" t="s">
+        <v>6669</v>
+      </c>
+      <c r="F976" s="2" t="s">
         <v>6670</v>
-      </c>
-      <c r="F976" s="2" t="s">
-        <v>6671</v>
       </c>
       <c r="G976" s="3"/>
       <c r="H976" s="1" t="str">
@@ -56991,23 +56998,23 @@
         <v>يهبط</v>
       </c>
       <c r="I976" s="1" t="s">
-        <v>6672</v>
+        <v>6671</v>
       </c>
       <c r="J976" s="1"/>
       <c r="K976" s="1" t="s">
-        <v>6673</v>
+        <v>6672</v>
       </c>
       <c r="L976" s="1"/>
       <c r="M976" s="1" t="s">
+        <v>6673</v>
+      </c>
+      <c r="N976" s="1" t="s">
         <v>6674</v>
-      </c>
-      <c r="N976" s="1" t="s">
-        <v>6675</v>
       </c>
     </row>
     <row r="977" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A977" s="1" t="s">
-        <v>6676</v>
+        <v>6675</v>
       </c>
       <c r="B977" s="1"/>
       <c r="C977" s="1"/>
@@ -57016,7 +57023,7 @@
         <v>يعبر</v>
       </c>
       <c r="E977" s="1" t="s">
-        <v>6677</v>
+        <v>6676</v>
       </c>
       <c r="F977" s="1"/>
       <c r="G977" s="1"/>
@@ -57029,22 +57036,22 @@
       </c>
       <c r="J977" s="1"/>
       <c r="K977" s="1" t="s">
-        <v>6678</v>
+        <v>6677</v>
       </c>
       <c r="L977" s="1"/>
       <c r="M977" s="1" t="s">
+        <v>6678</v>
+      </c>
+      <c r="N977" s="1" t="s">
         <v>6679</v>
-      </c>
-      <c r="N977" s="1" t="s">
-        <v>6680</v>
       </c>
     </row>
     <row r="978" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A978" s="1" t="s">
+        <v>6680</v>
+      </c>
+      <c r="B978" s="2" t="s">
         <v>6681</v>
-      </c>
-      <c r="B978" s="2" t="s">
-        <v>6682</v>
       </c>
       <c r="C978" s="3"/>
       <c r="D978" s="1" t="str">
@@ -57052,7 +57059,7 @@
         <v>يعِد</v>
       </c>
       <c r="E978" s="1" t="s">
-        <v>6683</v>
+        <v>6682</v>
       </c>
       <c r="F978" s="1"/>
       <c r="G978" s="1"/>
@@ -57061,23 +57068,23 @@
         <v>ضمان</v>
       </c>
       <c r="I978" s="1" t="s">
-        <v>6684</v>
+        <v>6683</v>
       </c>
       <c r="J978" s="1"/>
       <c r="K978" s="1" t="s">
-        <v>6685</v>
+        <v>6684</v>
       </c>
       <c r="L978" s="1"/>
       <c r="M978" s="1" t="s">
+        <v>6685</v>
+      </c>
+      <c r="N978" s="1" t="s">
         <v>6686</v>
-      </c>
-      <c r="N978" s="1" t="s">
-        <v>6687</v>
       </c>
     </row>
     <row r="979" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A979" s="1" t="s">
-        <v>6688</v>
+        <v>6687</v>
       </c>
       <c r="B979" s="1"/>
       <c r="C979" s="1"/>
@@ -57097,26 +57104,26 @@
         <v>يعرض</v>
       </c>
       <c r="I979" s="1" t="s">
-        <v>6689</v>
+        <v>6688</v>
       </c>
       <c r="J979" s="1"/>
       <c r="K979" s="1" t="s">
-        <v>6690</v>
+        <v>6689</v>
       </c>
       <c r="L979" s="1"/>
       <c r="M979" s="1" t="s">
+        <v>6690</v>
+      </c>
+      <c r="N979" s="1" t="s">
         <v>6691</v>
-      </c>
-      <c r="N979" s="1" t="s">
-        <v>6692</v>
       </c>
     </row>
     <row r="980" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A980" s="1" t="s">
+        <v>6692</v>
+      </c>
+      <c r="B980" s="2" t="s">
         <v>6693</v>
-      </c>
-      <c r="B980" s="2" t="s">
-        <v>6694</v>
       </c>
       <c r="C980" s="3"/>
       <c r="D980" s="1" t="str">
@@ -57124,7 +57131,7 @@
         <v>يعلّم</v>
       </c>
       <c r="E980" s="1" t="s">
-        <v>6695</v>
+        <v>6694</v>
       </c>
       <c r="F980" s="1"/>
       <c r="G980" s="1"/>
@@ -57133,25 +57140,25 @@
         <v>يتعلم</v>
       </c>
       <c r="I980" s="1" t="s">
-        <v>6696</v>
+        <v>6695</v>
       </c>
       <c r="J980" s="1"/>
       <c r="K980" s="1" t="s">
+        <v>6696</v>
+      </c>
+      <c r="L980" s="2" t="s">
         <v>6697</v>
       </c>
-      <c r="L980" s="2" t="s">
+      <c r="M980" s="1" t="s">
         <v>6698</v>
       </c>
-      <c r="M980" s="1" t="s">
+      <c r="N980" s="1" t="s">
         <v>6699</v>
-      </c>
-      <c r="N980" s="1" t="s">
-        <v>6700</v>
       </c>
     </row>
     <row r="981" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A981" s="1" t="s">
-        <v>6701</v>
+        <v>6700</v>
       </c>
       <c r="B981" s="1"/>
       <c r="C981" s="1"/>
@@ -57160,7 +57167,7 @@
         <v>يفوز</v>
       </c>
       <c r="E981" s="1" t="s">
-        <v>6702</v>
+        <v>6701</v>
       </c>
       <c r="F981" s="1"/>
       <c r="G981" s="1"/>
@@ -57169,23 +57176,23 @@
         <v>مكسب</v>
       </c>
       <c r="I981" s="1" t="s">
-        <v>6703</v>
+        <v>6702</v>
       </c>
       <c r="J981" s="1"/>
       <c r="K981" s="1" t="s">
-        <v>6704</v>
+        <v>6703</v>
       </c>
       <c r="L981" s="1"/>
       <c r="M981" s="1" t="s">
+        <v>6704</v>
+      </c>
+      <c r="N981" s="1" t="s">
         <v>6705</v>
-      </c>
-      <c r="N981" s="1" t="s">
-        <v>6706</v>
       </c>
     </row>
     <row r="982" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A982" s="1" t="s">
-        <v>6707</v>
+        <v>6706</v>
       </c>
       <c r="B982" s="1"/>
       <c r="C982" s="1"/>
@@ -57194,7 +57201,7 @@
         <v>يقاتل</v>
       </c>
       <c r="E982" s="1" t="s">
-        <v>6708</v>
+        <v>6707</v>
       </c>
       <c r="F982" s="1"/>
       <c r="G982" s="1"/>
@@ -57203,23 +57210,23 @@
         <v>قتال</v>
       </c>
       <c r="I982" s="1" t="s">
-        <v>6709</v>
+        <v>6708</v>
       </c>
       <c r="J982" s="1"/>
       <c r="K982" s="1" t="s">
-        <v>6710</v>
+        <v>6709</v>
       </c>
       <c r="L982" s="1"/>
       <c r="M982" s="1" t="s">
+        <v>6710</v>
+      </c>
+      <c r="N982" s="1" t="s">
         <v>6711</v>
-      </c>
-      <c r="N982" s="1" t="s">
-        <v>6712</v>
       </c>
     </row>
     <row r="983" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A983" s="1" t="s">
-        <v>6713</v>
+        <v>6712</v>
       </c>
       <c r="B983" s="1"/>
       <c r="C983" s="1"/>
@@ -57228,7 +57235,7 @@
         <v>يقاوم</v>
       </c>
       <c r="E983" s="1" t="s">
-        <v>6714</v>
+        <v>6713</v>
       </c>
       <c r="F983" s="1"/>
       <c r="G983" s="1"/>
@@ -57237,23 +57244,23 @@
         <v>مقاومة</v>
       </c>
       <c r="I983" s="1" t="s">
-        <v>6715</v>
+        <v>6714</v>
       </c>
       <c r="J983" s="1"/>
       <c r="K983" s="1" t="s">
-        <v>6716</v>
+        <v>6715</v>
       </c>
       <c r="L983" s="1"/>
       <c r="M983" s="1" t="s">
+        <v>6716</v>
+      </c>
+      <c r="N983" s="1" t="s">
         <v>6717</v>
-      </c>
-      <c r="N983" s="1" t="s">
-        <v>6718</v>
       </c>
     </row>
     <row r="984" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A984" s="1" t="s">
-        <v>6719</v>
+        <v>6718</v>
       </c>
       <c r="B984" s="1"/>
       <c r="C984" s="1"/>
@@ -57262,7 +57269,7 @@
         <v>يقبض على</v>
       </c>
       <c r="E984" s="1" t="s">
-        <v>6720</v>
+        <v>6719</v>
       </c>
       <c r="F984" s="1"/>
       <c r="G984" s="1"/>
@@ -57271,25 +57278,25 @@
         <v>يعاقب</v>
       </c>
       <c r="I984" s="1" t="s">
-        <v>6721</v>
+        <v>6720</v>
       </c>
       <c r="J984" s="1"/>
       <c r="K984" s="1" t="s">
+        <v>6721</v>
+      </c>
+      <c r="L984" s="2" t="s">
         <v>6722</v>
       </c>
-      <c r="L984" s="2" t="s">
+      <c r="M984" s="1" t="s">
         <v>6723</v>
       </c>
-      <c r="M984" s="1" t="s">
+      <c r="N984" s="1" t="s">
         <v>6724</v>
-      </c>
-      <c r="N984" s="1" t="s">
-        <v>6725</v>
       </c>
     </row>
     <row r="985" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A985" s="1" t="s">
-        <v>6726</v>
+        <v>6725</v>
       </c>
       <c r="B985" s="1"/>
       <c r="C985" s="1"/>
@@ -57298,7 +57305,7 @@
         <v>يقترح</v>
       </c>
       <c r="E985" s="1" t="s">
-        <v>6727</v>
+        <v>6726</v>
       </c>
       <c r="F985" s="1"/>
       <c r="G985" s="1"/>
@@ -57307,23 +57314,23 @@
         <v>اقترح</v>
       </c>
       <c r="I985" s="1" t="s">
-        <v>6728</v>
+        <v>6727</v>
       </c>
       <c r="J985" s="1"/>
       <c r="K985" s="1" t="s">
-        <v>6729</v>
+        <v>6728</v>
       </c>
       <c r="L985" s="1"/>
       <c r="M985" s="1" t="s">
+        <v>6729</v>
+      </c>
+      <c r="N985" s="1" t="s">
         <v>6730</v>
-      </c>
-      <c r="N985" s="1" t="s">
-        <v>6731</v>
       </c>
     </row>
     <row r="986" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A986" s="1" t="s">
-        <v>6732</v>
+        <v>6731</v>
       </c>
       <c r="B986" s="1"/>
       <c r="C986" s="1"/>
@@ -57332,10 +57339,10 @@
         <v>يقدر</v>
       </c>
       <c r="E986" s="1" t="s">
+        <v>6732</v>
+      </c>
+      <c r="F986" s="2" t="s">
         <v>6733</v>
-      </c>
-      <c r="F986" s="2" t="s">
-        <v>6734</v>
       </c>
       <c r="G986" s="3"/>
       <c r="H986" s="1" t="str">
@@ -57343,26 +57350,26 @@
         <v>يعجب بـ</v>
       </c>
       <c r="I986" s="1" t="s">
-        <v>6735</v>
+        <v>6734</v>
       </c>
       <c r="J986" s="1"/>
       <c r="K986" s="1" t="s">
-        <v>6736</v>
+        <v>6735</v>
       </c>
       <c r="L986" s="1"/>
       <c r="M986" s="1" t="s">
+        <v>6736</v>
+      </c>
+      <c r="N986" s="1" t="s">
         <v>6737</v>
-      </c>
-      <c r="N986" s="1" t="s">
-        <v>6738</v>
       </c>
     </row>
     <row r="987" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A987" s="1" t="s">
+        <v>6738</v>
+      </c>
+      <c r="B987" s="2" t="s">
         <v>6739</v>
-      </c>
-      <c r="B987" s="2" t="s">
-        <v>6740</v>
       </c>
       <c r="C987" s="3"/>
       <c r="D987" s="1" t="str">
@@ -57370,10 +57377,10 @@
         <v>قرض</v>
       </c>
       <c r="E987" s="1" t="s">
+        <v>6740</v>
+      </c>
+      <c r="F987" s="2" t="s">
         <v>6741</v>
-      </c>
-      <c r="F987" s="2" t="s">
-        <v>6742</v>
       </c>
       <c r="G987" s="3"/>
       <c r="H987" s="1" t="str">
@@ -57381,25 +57388,25 @@
         <v>الائتمان</v>
       </c>
       <c r="I987" s="1" t="s">
+        <v>6742</v>
+      </c>
+      <c r="J987" s="2" t="s">
         <v>6743</v>
       </c>
-      <c r="J987" s="2" t="s">
+      <c r="K987" s="1" t="s">
         <v>6744</v>
-      </c>
-      <c r="K987" s="1" t="s">
-        <v>6745</v>
       </c>
       <c r="L987" s="1"/>
       <c r="M987" s="1" t="s">
+        <v>6745</v>
+      </c>
+      <c r="N987" s="1" t="s">
         <v>6746</v>
-      </c>
-      <c r="N987" s="1" t="s">
-        <v>6747</v>
       </c>
     </row>
     <row r="988" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A988" s="1" t="s">
-        <v>6748</v>
+        <v>6747</v>
       </c>
       <c r="B988" s="1"/>
       <c r="C988" s="1"/>
@@ -57408,10 +57415,10 @@
         <v>يقطع</v>
       </c>
       <c r="E988" s="1" t="s">
+        <v>6748</v>
+      </c>
+      <c r="F988" s="2" t="s">
         <v>6749</v>
-      </c>
-      <c r="F988" s="2" t="s">
-        <v>6750</v>
       </c>
       <c r="G988" s="3"/>
       <c r="H988" s="1" t="str">
@@ -57419,23 +57426,23 @@
         <v>يمزق</v>
       </c>
       <c r="I988" s="1" t="s">
-        <v>6751</v>
+        <v>6750</v>
       </c>
       <c r="J988" s="1"/>
       <c r="K988" s="1" t="s">
-        <v>6752</v>
+        <v>6751</v>
       </c>
       <c r="L988" s="1"/>
       <c r="M988" s="1" t="s">
+        <v>6752</v>
+      </c>
+      <c r="N988" s="1" t="s">
         <v>6753</v>
-      </c>
-      <c r="N988" s="1" t="s">
-        <v>6754</v>
       </c>
     </row>
     <row r="989" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A989" s="1" t="s">
-        <v>6755</v>
+        <v>6754</v>
       </c>
       <c r="B989" s="1"/>
       <c r="C989" s="1"/>
@@ -57444,10 +57451,10 @@
         <v>يلعق</v>
       </c>
       <c r="E989" s="1" t="s">
+        <v>6755</v>
+      </c>
+      <c r="F989" s="2" t="s">
         <v>6756</v>
-      </c>
-      <c r="F989" s="2" t="s">
-        <v>6757</v>
       </c>
       <c r="G989" s="3"/>
       <c r="H989" s="1" t="str">
@@ -57455,28 +57462,28 @@
         <v>يمص</v>
       </c>
       <c r="I989" s="1" t="s">
+        <v>6757</v>
+      </c>
+      <c r="J989" s="2" t="s">
         <v>6758</v>
       </c>
-      <c r="J989" s="2" t="s">
+      <c r="K989" s="1" t="s">
         <v>6759</v>
-      </c>
-      <c r="K989" s="1" t="s">
-        <v>6760</v>
       </c>
       <c r="L989" s="1"/>
       <c r="M989" s="1" t="s">
+        <v>6760</v>
+      </c>
+      <c r="N989" s="1" t="s">
         <v>6761</v>
-      </c>
-      <c r="N989" s="1" t="s">
-        <v>6762</v>
       </c>
     </row>
     <row r="990" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A990" s="1" t="s">
+        <v>6762</v>
+      </c>
+      <c r="B990" s="2" t="s">
         <v>6763</v>
-      </c>
-      <c r="B990" s="2" t="s">
-        <v>6764</v>
       </c>
       <c r="C990" s="3"/>
       <c r="D990" s="1" t="str">
@@ -57484,7 +57491,7 @@
         <v>نوم</v>
       </c>
       <c r="E990" s="1" t="s">
-        <v>6765</v>
+        <v>6764</v>
       </c>
       <c r="F990" s="1"/>
       <c r="G990" s="1"/>
@@ -57493,25 +57500,25 @@
         <v>راحة</v>
       </c>
       <c r="I990" s="1" t="s">
-        <v>6766</v>
+        <v>6765</v>
       </c>
       <c r="J990" s="1"/>
       <c r="K990" s="1" t="s">
+        <v>6766</v>
+      </c>
+      <c r="L990" s="2" t="s">
         <v>6767</v>
       </c>
-      <c r="L990" s="2" t="s">
+      <c r="M990" s="1" t="s">
         <v>6768</v>
       </c>
-      <c r="M990" s="1" t="s">
+      <c r="N990" s="1" t="s">
         <v>6769</v>
-      </c>
-      <c r="N990" s="1" t="s">
-        <v>6770</v>
       </c>
     </row>
     <row r="991" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A991" s="1" t="s">
-        <v>6771</v>
+        <v>6770</v>
       </c>
       <c r="B991" s="1"/>
       <c r="C991" s="1"/>
@@ -57529,25 +57536,25 @@
         <v>يزيد</v>
       </c>
       <c r="I991" s="1" t="s">
+        <v>6771</v>
+      </c>
+      <c r="J991" s="2" t="s">
         <v>6772</v>
       </c>
-      <c r="J991" s="2" t="s">
+      <c r="K991" s="1" t="s">
         <v>6773</v>
-      </c>
-      <c r="K991" s="1" t="s">
-        <v>6774</v>
       </c>
       <c r="L991" s="1"/>
       <c r="M991" s="1" t="s">
+        <v>6774</v>
+      </c>
+      <c r="N991" s="1" t="s">
         <v>6775</v>
-      </c>
-      <c r="N991" s="1" t="s">
-        <v>6776</v>
       </c>
     </row>
     <row r="992" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A992" s="1" t="s">
-        <v>6777</v>
+        <v>6776</v>
       </c>
       <c r="B992" s="1"/>
       <c r="C992" s="1"/>
@@ -57556,7 +57563,7 @@
         <v>ينجح</v>
       </c>
       <c r="E992" s="1" t="s">
-        <v>6778</v>
+        <v>6777</v>
       </c>
       <c r="F992" s="1"/>
       <c r="G992" s="1"/>
@@ -57565,25 +57572,25 @@
         <v>تدبير</v>
       </c>
       <c r="I992" s="1" t="s">
-        <v>6779</v>
+        <v>6778</v>
       </c>
       <c r="J992" s="1"/>
       <c r="K992" s="1" t="s">
+        <v>6779</v>
+      </c>
+      <c r="L992" s="2" t="s">
         <v>6780</v>
       </c>
-      <c r="L992" s="2" t="s">
+      <c r="M992" s="1" t="s">
         <v>6781</v>
       </c>
-      <c r="M992" s="1" t="s">
+      <c r="N992" s="1" t="s">
         <v>6782</v>
-      </c>
-      <c r="N992" s="1" t="s">
-        <v>6783</v>
       </c>
     </row>
     <row r="993" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A993" s="1" t="s">
-        <v>6784</v>
+        <v>6783</v>
       </c>
       <c r="B993" s="1"/>
       <c r="C993" s="1"/>
@@ -57592,7 +57599,7 @@
         <v>ينجو</v>
       </c>
       <c r="E993" s="1" t="s">
-        <v>6785</v>
+        <v>6784</v>
       </c>
       <c r="F993" s="1"/>
       <c r="G993" s="1"/>
@@ -57601,26 +57608,26 @@
         <v>يعيش</v>
       </c>
       <c r="I993" s="1" t="s">
-        <v>6786</v>
+        <v>6785</v>
       </c>
       <c r="J993" s="1"/>
       <c r="K993" s="1" t="s">
-        <v>6787</v>
+        <v>6786</v>
       </c>
       <c r="L993" s="1"/>
       <c r="M993" s="1" t="s">
+        <v>6787</v>
+      </c>
+      <c r="N993" s="1" t="s">
         <v>6788</v>
-      </c>
-      <c r="N993" s="1" t="s">
-        <v>6789</v>
       </c>
     </row>
     <row r="994" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A994" s="1" t="s">
+        <v>6789</v>
+      </c>
+      <c r="B994" s="2" t="s">
         <v>6790</v>
-      </c>
-      <c r="B994" s="2" t="s">
-        <v>6791</v>
       </c>
       <c r="C994" s="3"/>
       <c r="D994" s="1" t="str">
@@ -57628,7 +57635,7 @@
         <v>نسخة</v>
       </c>
       <c r="E994" s="1" t="s">
-        <v>6792</v>
+        <v>6791</v>
       </c>
       <c r="F994" s="1"/>
       <c r="G994" s="1"/>
@@ -57637,25 +57644,25 @@
         <v>أصلي</v>
       </c>
       <c r="I994" s="1" t="s">
-        <v>6793</v>
+        <v>6792</v>
       </c>
       <c r="J994" s="1"/>
       <c r="K994" s="1" t="s">
+        <v>6793</v>
+      </c>
+      <c r="L994" s="2" t="s">
         <v>6794</v>
       </c>
-      <c r="L994" s="2" t="s">
+      <c r="M994" s="1" t="s">
         <v>6795</v>
       </c>
-      <c r="M994" s="1" t="s">
+      <c r="N994" s="1" t="s">
         <v>6796</v>
-      </c>
-      <c r="N994" s="1" t="s">
-        <v>6797</v>
       </c>
     </row>
     <row r="995" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A995" s="1" t="s">
-        <v>6798</v>
+        <v>6797</v>
       </c>
       <c r="B995" s="1"/>
       <c r="C995" s="1"/>
@@ -57664,7 +57671,7 @@
         <v>ينصح</v>
       </c>
       <c r="E995" s="1" t="s">
-        <v>6799</v>
+        <v>6798</v>
       </c>
       <c r="F995" s="1"/>
       <c r="G995" s="1"/>
@@ -57673,23 +57680,23 @@
         <v>النصيحة</v>
       </c>
       <c r="I995" s="1" t="s">
-        <v>6800</v>
+        <v>6799</v>
       </c>
       <c r="J995" s="1"/>
       <c r="K995" s="1" t="s">
-        <v>6801</v>
+        <v>6800</v>
       </c>
       <c r="L995" s="1"/>
       <c r="M995" s="1" t="s">
+        <v>6801</v>
+      </c>
+      <c r="N995" s="1" t="s">
         <v>6802</v>
-      </c>
-      <c r="N995" s="1" t="s">
-        <v>6803</v>
       </c>
     </row>
     <row r="996" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A996" s="1" t="s">
-        <v>6804</v>
+        <v>6803</v>
       </c>
       <c r="B996" s="1"/>
       <c r="C996" s="1"/>
@@ -57711,19 +57718,19 @@
       </c>
       <c r="J996" s="1"/>
       <c r="K996" s="1" t="s">
-        <v>6805</v>
+        <v>6804</v>
       </c>
       <c r="L996" s="1"/>
       <c r="M996" s="1" t="s">
+        <v>6805</v>
+      </c>
+      <c r="N996" s="1" t="s">
         <v>6806</v>
-      </c>
-      <c r="N996" s="1" t="s">
-        <v>6807</v>
       </c>
     </row>
     <row r="997" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A997" s="1" t="s">
-        <v>6808</v>
+        <v>6807</v>
       </c>
       <c r="B997" s="1"/>
       <c r="C997" s="1"/>
@@ -57732,7 +57739,7 @@
         <v>ينهي</v>
       </c>
       <c r="E997" s="1" t="s">
-        <v>6809</v>
+        <v>6808</v>
       </c>
       <c r="F997" s="1"/>
       <c r="G997" s="1"/>
@@ -57741,26 +57748,26 @@
         <v>نهاية</v>
       </c>
       <c r="I997" s="1" t="s">
-        <v>6810</v>
+        <v>6809</v>
       </c>
       <c r="J997" s="1"/>
       <c r="K997" s="1" t="s">
-        <v>6811</v>
+        <v>6810</v>
       </c>
       <c r="L997" s="1"/>
       <c r="M997" s="1" t="s">
+        <v>6811</v>
+      </c>
+      <c r="N997" s="1" t="s">
         <v>6812</v>
-      </c>
-      <c r="N997" s="1" t="s">
-        <v>6813</v>
       </c>
     </row>
     <row r="998" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A998" s="1" t="s">
+        <v>6813</v>
+      </c>
+      <c r="B998" s="2" t="s">
         <v>6814</v>
-      </c>
-      <c r="B998" s="2" t="s">
-        <v>6815</v>
       </c>
       <c r="C998" s="3"/>
       <c r="D998" s="1" t="str">
@@ -57768,7 +57775,7 @@
         <v>هزيمة</v>
       </c>
       <c r="E998" s="1" t="s">
-        <v>6816</v>
+        <v>6815</v>
       </c>
       <c r="F998" s="1"/>
       <c r="G998" s="1"/>
@@ -57777,23 +57784,23 @@
         <v>فوز</v>
       </c>
       <c r="I998" s="1" t="s">
-        <v>6817</v>
+        <v>6816</v>
       </c>
       <c r="J998" s="1"/>
       <c r="K998" s="1" t="s">
-        <v>6818</v>
+        <v>6817</v>
       </c>
       <c r="L998" s="1"/>
       <c r="M998" s="1" t="s">
+        <v>6818</v>
+      </c>
+      <c r="N998" s="1" t="s">
         <v>6819</v>
-      </c>
-      <c r="N998" s="1" t="s">
-        <v>6820</v>
       </c>
     </row>
     <row r="999" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A999" s="1" t="s">
-        <v>6821</v>
+        <v>6820</v>
       </c>
       <c r="B999" s="1"/>
       <c r="C999" s="1"/>
@@ -57802,7 +57809,7 @@
         <v>يوليو</v>
       </c>
       <c r="E999" s="1" t="s">
-        <v>6822</v>
+        <v>6821</v>
       </c>
       <c r="F999" s="1"/>
       <c r="G999" s="1"/>
@@ -57811,26 +57818,26 @@
         <v>يونيه</v>
       </c>
       <c r="I999" s="1" t="s">
-        <v>6823</v>
+        <v>6822</v>
       </c>
       <c r="J999" s="1"/>
       <c r="K999" s="1" t="s">
-        <v>6824</v>
+        <v>6823</v>
       </c>
       <c r="L999" s="1"/>
       <c r="M999" s="1" t="s">
+        <v>6824</v>
+      </c>
+      <c r="N999" s="1" t="s">
         <v>6825</v>
-      </c>
-      <c r="N999" s="1" t="s">
-        <v>6826</v>
       </c>
     </row>
     <row r="1000" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1000" s="1" t="s">
+        <v>6826</v>
+      </c>
+      <c r="B1000" s="2" t="s">
         <v>6827</v>
-      </c>
-      <c r="B1000" s="2" t="s">
-        <v>6828</v>
       </c>
       <c r="C1000" s="3"/>
       <c r="D1000" s="1" t="str">
@@ -57841,7 +57848,7 @@
         <v>4360</v>
       </c>
       <c r="F1000" s="2" t="s">
-        <v>6829</v>
+        <v>6828</v>
       </c>
       <c r="G1000" s="3"/>
       <c r="H1000" s="1" t="str">
@@ -57849,27 +57856,27 @@
         <v>كريسماس</v>
       </c>
       <c r="I1000" s="1" t="s">
+        <v>6829</v>
+      </c>
+      <c r="J1000" s="2" t="s">
         <v>6830</v>
       </c>
-      <c r="J1000" s="2" t="s">
+      <c r="K1000" s="1" t="s">
         <v>6831</v>
       </c>
-      <c r="K1000" s="1" t="s">
+      <c r="L1000" s="2" t="s">
         <v>6832</v>
       </c>
-      <c r="L1000" s="2" t="s">
+      <c r="M1000" s="1" t="s">
         <v>6833</v>
       </c>
-      <c r="M1000" s="1" t="s">
+      <c r="N1000" s="1" t="s">
         <v>6834</v>
-      </c>
-      <c r="N1000" s="1" t="s">
-        <v>6835</v>
       </c>
     </row>
     <row r="1001" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1001" s="1" t="s">
-        <v>6836</v>
+        <v>6835</v>
       </c>
       <c r="B1001" s="1"/>
       <c r="C1001" s="1"/>
@@ -57878,10 +57885,10 @@
         <v>يوم الثلاثاء</v>
       </c>
       <c r="E1001" s="1" t="s">
+        <v>6836</v>
+      </c>
+      <c r="F1001" s="2" t="s">
         <v>6837</v>
-      </c>
-      <c r="F1001" s="2" t="s">
-        <v>6838</v>
       </c>
       <c r="G1001" s="3"/>
       <c r="H1001" s="1" t="str">
@@ -57889,20 +57896,20 @@
         <v>الاثنين</v>
       </c>
       <c r="I1001" s="1" t="s">
-        <v>6839</v>
+        <v>6838</v>
       </c>
       <c r="J1001" s="1"/>
       <c r="K1001" s="1" t="s">
+        <v>6839</v>
+      </c>
+      <c r="L1001" s="2" t="s">
         <v>6840</v>
       </c>
-      <c r="L1001" s="2" t="s">
+      <c r="M1001" s="1" t="s">
         <v>6841</v>
       </c>
-      <c r="M1001" s="1" t="s">
+      <c r="N1001" s="1" t="s">
         <v>6842</v>
-      </c>
-      <c r="N1001" s="1" t="s">
-        <v>6843</v>
       </c>
     </row>
   </sheetData>
